--- a/legendre_out/DATA/o17_ng/a2/o17_ng_a2Fit.xlsx
+++ b/legendre_out/DATA/o17_ng/a2/o17_ng_a2Fit.xlsx
@@ -408,25 +408,25 @@
         <v>3.996</v>
       </c>
       <c r="B2" t="n">
-        <v>1.083591831418971e-11</v>
+        <v>8.62294980887029e-13</v>
       </c>
       <c r="C2" t="n">
-        <v>5.63341127372979e-12</v>
+        <v>4.482926262860919e-13</v>
       </c>
       <c r="D2" t="n">
-        <v>9.349484090947031e-13</v>
+        <v>7.440083037453751e-14</v>
       </c>
       <c r="E2" t="n">
-        <v>1.557401877439354e-12</v>
+        <v>1.239341036248365e-13</v>
       </c>
       <c r="F2" t="n">
-        <v>8.60663753113594</v>
+        <v>8.606637561552436</v>
       </c>
       <c r="G2" t="n">
-        <v>0.125820718800186</v>
+        <v>0.1258207174190366</v>
       </c>
       <c r="H2" t="n">
-        <v>1.721327506227188</v>
+        <v>1.721327512310487</v>
       </c>
     </row>
     <row r="3">
@@ -434,25 +434,25 @@
         <v>4.001</v>
       </c>
       <c r="B3" t="n">
-        <v>8.793107949053184e-12</v>
+        <v>6.997332980285686e-13</v>
       </c>
       <c r="C3" t="n">
-        <v>7.328740380242043e-12</v>
+        <v>5.832026321116008e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>1.21657878913924e-12</v>
+        <v>9.681226393969453e-14</v>
       </c>
       <c r="E3" t="n">
-        <v>2.11326057330626e-12</v>
+        <v>1.681679330333923e-13</v>
       </c>
       <c r="F3" t="n">
-        <v>7.120192167932327</v>
+        <v>7.120192215473067</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2118538414487139</v>
+        <v>0.2118538380331506</v>
       </c>
       <c r="H3" t="n">
-        <v>1.424038433586465</v>
+        <v>1.424038443094613</v>
       </c>
     </row>
     <row r="4">
@@ -460,25 +460,25 @@
         <v>4.0029</v>
       </c>
       <c r="B4" t="n">
-        <v>8.406952396465953e-12</v>
+        <v>6.69004014878054e-13</v>
       </c>
       <c r="C4" t="n">
-        <v>2.672925788555061e-12</v>
+        <v>2.127046749524543e-13</v>
       </c>
       <c r="D4" t="n">
-        <v>1.330886727496683e-12</v>
+        <v>1.059086006109684e-13</v>
       </c>
       <c r="E4" t="n">
-        <v>2.221228802236761e-12</v>
+        <v>1.767597715843012e-13</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7748242146580311</v>
+        <v>0.7748242173278641</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9786112656304952</v>
+        <v>0.9786112654661235</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1549648429316062</v>
+        <v>0.1549648434655728</v>
       </c>
     </row>
     <row r="5">
@@ -486,25 +486,25 @@
         <v>4.007</v>
       </c>
       <c r="B5" t="n">
-        <v>9.656520638079693e-12</v>
+        <v>7.68441496118634e-13</v>
       </c>
       <c r="C5" t="n">
-        <v>4.963515076743285e-12</v>
+        <v>3.949839778586561e-13</v>
       </c>
       <c r="D5" t="n">
-        <v>1.500705923413977e-12</v>
+        <v>1.194223828849006e-13</v>
       </c>
       <c r="E5" t="n">
-        <v>2.312333567929717e-12</v>
+        <v>1.840096586542828e-13</v>
       </c>
       <c r="F5" t="n">
-        <v>2.790357596923333</v>
+        <v>2.790357575077982</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7322677176094585</v>
+        <v>0.7322677209646646</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5580715193846666</v>
+        <v>0.5580715150155964</v>
       </c>
     </row>
     <row r="6">
@@ -512,25 +512,25 @@
         <v>4.0091</v>
       </c>
       <c r="B6" t="n">
-        <v>1.181433898238499e-11</v>
+        <v>9.401552255906352e-13</v>
       </c>
       <c r="C6" t="n">
-        <v>4.34232245394327e-12</v>
+        <v>3.455510420187529e-13</v>
       </c>
       <c r="D6" t="n">
-        <v>1.802739391864932e-12</v>
+        <v>1.434574427576521e-13</v>
       </c>
       <c r="E6" t="n">
-        <v>2.849350809183032e-12</v>
+        <v>2.267441328893306e-13</v>
       </c>
       <c r="F6" t="n">
-        <v>4.594444744923618</v>
+        <v>4.594444799885689</v>
       </c>
       <c r="G6" t="n">
-        <v>0.467347349070511</v>
+        <v>0.4673473418339796</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9188889489847236</v>
+        <v>0.9188889599771379</v>
       </c>
     </row>
     <row r="7">
@@ -538,25 +538,25 @@
         <v>4.01</v>
       </c>
       <c r="B7" t="n">
-        <v>9.648122315923112e-12</v>
+        <v>7.677731791858672e-13</v>
       </c>
       <c r="C7" t="n">
-        <v>2.744896431573595e-12</v>
+        <v>2.184319183069402e-13</v>
       </c>
       <c r="D7" t="n">
-        <v>1.822360140073992e-12</v>
+        <v>1.450188122946217e-13</v>
       </c>
       <c r="E7" t="n">
-        <v>3.103549907625295e-12</v>
+        <v>2.469726543996812e-13</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7995246001684519</v>
+        <v>0.7995246071995664</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9770636563471113</v>
+        <v>0.9770636558989378</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1599049200336904</v>
+        <v>0.1599049214399133</v>
       </c>
     </row>
     <row r="8">
@@ -564,25 +564,25 @@
         <v>4.0151</v>
       </c>
       <c r="B8" t="n">
-        <v>1.001072523189561e-11</v>
+        <v>7.966282016066345e-13</v>
       </c>
       <c r="C8" t="n">
-        <v>5.957757702340273e-12</v>
+        <v>4.741032890317739e-13</v>
       </c>
       <c r="D8" t="n">
-        <v>1.454998340044103e-12</v>
+        <v>1.157850890443377e-13</v>
       </c>
       <c r="E8" t="n">
-        <v>2.132250346325663e-12</v>
+        <v>1.69679091219506e-13</v>
       </c>
       <c r="F8" t="n">
-        <v>2.655809601296696</v>
+        <v>2.655809574715036</v>
       </c>
       <c r="G8" t="n">
-        <v>0.7528684181371434</v>
+        <v>0.7528684221918982</v>
       </c>
       <c r="H8" t="n">
-        <v>0.5311619202593392</v>
+        <v>0.5311619149430071</v>
       </c>
     </row>
     <row r="9">
@@ -590,25 +590,25 @@
         <v>4.0191</v>
       </c>
       <c r="B9" t="n">
-        <v>1.069464180803331e-11</v>
+        <v>8.510525546923216e-13</v>
       </c>
       <c r="C9" t="n">
-        <v>1.03939379655954e-11</v>
+        <v>8.2712330208806e-13</v>
       </c>
       <c r="D9" t="n">
-        <v>1.210537627414161e-12</v>
+        <v>9.633152384736207e-14</v>
       </c>
       <c r="E9" t="n">
-        <v>2.232804873326216e-12</v>
+        <v>1.776809665747957e-13</v>
       </c>
       <c r="F9" t="n">
-        <v>7.161704765660068</v>
+        <v>7.161704729071104</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2088892352150179</v>
+        <v>0.2088892378122999</v>
       </c>
       <c r="H9" t="n">
-        <v>1.432340953132014</v>
+        <v>1.432340945814221</v>
       </c>
     </row>
     <row r="10">
@@ -616,25 +616,25 @@
         <v>4.0199</v>
       </c>
       <c r="B10" t="n">
-        <v>1.298445793509679e-11</v>
+        <v>1.033270332605461e-12</v>
       </c>
       <c r="C10" t="n">
-        <v>3.997574870487634e-12</v>
+        <v>3.181168987345438e-13</v>
       </c>
       <c r="D10" t="n">
-        <v>1.931982096025562e-12</v>
+        <v>1.537422503203392e-13</v>
       </c>
       <c r="E10" t="n">
-        <v>3.101921790250777e-12</v>
+        <v>2.468430929747268e-13</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7750173560941442</v>
+        <v>0.7750173821139037</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9785993729891561</v>
+        <v>0.978599371386773</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1550034712188288</v>
+        <v>0.1550034764227807</v>
       </c>
     </row>
     <row r="11">
@@ -642,25 +642,25 @@
         <v>4.025</v>
       </c>
       <c r="B11" t="n">
-        <v>1.299629822240143e-11</v>
+        <v>1.034212550852638e-12</v>
       </c>
       <c r="C11" t="n">
-        <v>5.138499416109653e-12</v>
+        <v>4.089087882803048e-13</v>
       </c>
       <c r="D11" t="n">
-        <v>1.906994687240243e-12</v>
+        <v>1.5175381556075e-13</v>
       </c>
       <c r="E11" t="n">
-        <v>2.790947398099665e-12</v>
+        <v>2.22096537172792e-13</v>
       </c>
       <c r="F11" t="n">
-        <v>1.258290805845141</v>
+        <v>1.258290804677578</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9391644325336989</v>
+        <v>0.9391644326505159</v>
       </c>
       <c r="H11" t="n">
-        <v>0.2516581611690281</v>
+        <v>0.2516581609355157</v>
       </c>
     </row>
     <row r="12">
@@ -668,25 +668,25 @@
         <v>4.03</v>
       </c>
       <c r="B12" t="n">
-        <v>1.469579512600428e-11</v>
+        <v>1.169454218322596e-12</v>
       </c>
       <c r="C12" t="n">
-        <v>1.026883894297027e-11</v>
+        <v>8.171682371616843e-13</v>
       </c>
       <c r="D12" t="n">
-        <v>1.536132181481981e-12</v>
+        <v>1.222415150562187e-13</v>
       </c>
       <c r="E12" t="n">
-        <v>2.49874557238632e-12</v>
+        <v>1.988438549295015e-13</v>
       </c>
       <c r="F12" t="n">
-        <v>6.647432161741701</v>
+        <v>6.647432052755519</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2482089792146582</v>
+        <v>0.2482089881614968</v>
       </c>
       <c r="H12" t="n">
-        <v>1.32948643234834</v>
+        <v>1.329486410551104</v>
       </c>
     </row>
     <row r="13">
@@ -694,25 +694,25 @@
         <v>4.0351</v>
       </c>
       <c r="B13" t="n">
-        <v>1.356102368847388e-11</v>
+        <v>1.079151974554426e-12</v>
       </c>
       <c r="C13" t="n">
-        <v>5.672009146725238e-12</v>
+        <v>4.513641480284878e-13</v>
       </c>
       <c r="D13" t="n">
-        <v>1.45753136579563e-12</v>
+        <v>1.159866607924353e-13</v>
       </c>
       <c r="E13" t="n">
-        <v>2.555020984018122e-12</v>
+        <v>2.033221095988022e-13</v>
       </c>
       <c r="F13" t="n">
-        <v>4.576738231276205</v>
+        <v>4.576738212735638</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4696822375296519</v>
+        <v>0.469682239978263</v>
       </c>
       <c r="H13" t="n">
-        <v>0.915347646255241</v>
+        <v>0.9153476425471275</v>
       </c>
     </row>
     <row r="14">
@@ -720,25 +720,25 @@
         <v>4.27</v>
       </c>
       <c r="B14" t="n">
-        <v>4.040706795026292e-12</v>
+        <v>3.35447424202196e-13</v>
       </c>
       <c r="C14" t="n">
-        <v>-3.794922818682679e-12</v>
+        <v>-7.777409373657661e-15</v>
       </c>
       <c r="D14" t="n">
-        <v>1.004202186313244e-12</v>
+        <v>8.017143481674866e-14</v>
       </c>
       <c r="E14" t="n">
-        <v>1.019416632204913e-12</v>
+        <v>1.587502558926605e-13</v>
       </c>
       <c r="F14" t="n">
-        <v>4.896511608284822</v>
+        <v>0.2478707718072028</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2980818204315217</v>
+        <v>0.9695146177448547</v>
       </c>
       <c r="H14" t="n">
-        <v>1.224127902071205</v>
+        <v>0.08262359060240093</v>
       </c>
     </row>
     <row r="15">
@@ -746,25 +746,25 @@
         <v>4.2901</v>
       </c>
       <c r="B15" t="n">
-        <v>3.892501936606297e-12</v>
+        <v>3.097554624742121e-13</v>
       </c>
       <c r="C15" t="n">
-        <v>-1.319020713179542e-12</v>
+        <v>-1.049643336371275e-13</v>
       </c>
       <c r="D15" t="n">
-        <v>1.067984786253366e-12</v>
+        <v>8.498752902842847e-14</v>
       </c>
       <c r="E15" t="n">
-        <v>1.543476662635555e-12</v>
+        <v>1.228259703760164e-13</v>
       </c>
       <c r="F15" t="n">
-        <v>1.26138647968888</v>
+        <v>1.261386478517105</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9388543724712448</v>
+        <v>0.9388543725887342</v>
       </c>
       <c r="H15" t="n">
-        <v>0.252277295937776</v>
+        <v>0.2522772957034211</v>
       </c>
     </row>
     <row r="16">
@@ -772,25 +772,25 @@
         <v>4.2911</v>
       </c>
       <c r="B16" t="n">
-        <v>3.190136169567113e-12</v>
+        <v>2.538629696870129e-13</v>
       </c>
       <c r="C16" t="n">
-        <v>3.211448927222852e-14</v>
+        <v>2.555590280345984e-15</v>
       </c>
       <c r="D16" t="n">
-        <v>9.924218740614715e-13</v>
+        <v>7.897442336827287e-14</v>
       </c>
       <c r="E16" t="n">
-        <v>1.474352543531449e-12</v>
+        <v>1.173252474579026e-13</v>
       </c>
       <c r="F16" t="n">
-        <v>1.78728249012485</v>
+        <v>1.787282496927206</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8777253487340357</v>
+        <v>0.8777253478496647</v>
       </c>
       <c r="H16" t="n">
-        <v>0.35745649802497</v>
+        <v>0.3574564993854412</v>
       </c>
     </row>
     <row r="17">
@@ -798,25 +798,25 @@
         <v>4.2932</v>
       </c>
       <c r="B17" t="n">
-        <v>3.530731249993273e-12</v>
+        <v>2.809666653466171e-13</v>
       </c>
       <c r="C17" t="n">
-        <v>-6.388822023685786e-13</v>
+        <v>-5.084062997017764e-14</v>
       </c>
       <c r="D17" t="n">
-        <v>1.133079350921044e-12</v>
+        <v>9.016758964755324e-14</v>
       </c>
       <c r="E17" t="n">
-        <v>1.524764300155142e-12</v>
+        <v>1.21336887433382e-13</v>
       </c>
       <c r="F17" t="n">
-        <v>2.454071794745107</v>
+        <v>2.454071804927103</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7833955037397224</v>
+        <v>0.7833955022137113</v>
       </c>
       <c r="H17" t="n">
-        <v>0.4908143589490215</v>
+        <v>0.4908143609854205</v>
       </c>
     </row>
     <row r="18">
@@ -824,25 +824,25 @@
         <v>4.2942</v>
       </c>
       <c r="B18" t="n">
-        <v>3.882675144131516e-12</v>
+        <v>4.12197449716557e-13</v>
       </c>
       <c r="C18" t="n">
-        <v>-3.342322108653177e-12</v>
+        <v>1.13485351644198e-13</v>
       </c>
       <c r="D18" t="n">
-        <v>1.274921178804812e-12</v>
+        <v>1.105053782706021e-13</v>
       </c>
       <c r="E18" t="n">
-        <v>1.480890425955255e-12</v>
+        <v>1.995264901227769e-13</v>
       </c>
       <c r="F18" t="n">
-        <v>7.584519662438588</v>
+        <v>2.030083908204184</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1806690756440098</v>
+        <v>0.7302254637846888</v>
       </c>
       <c r="H18" t="n">
-        <v>1.516903932487718</v>
+        <v>0.507520977051046</v>
       </c>
     </row>
     <row r="19">
@@ -850,25 +850,25 @@
         <v>4.2951</v>
       </c>
       <c r="B19" t="n">
-        <v>2.697875073022908e-12</v>
+        <v>3.626434325360144e-13</v>
       </c>
       <c r="C19" t="n">
-        <v>8.545425124575338e-13</v>
+        <v>-1.060584612819115e-13</v>
       </c>
       <c r="D19" t="n">
-        <v>7.723071429478052e-13</v>
+        <v>9.736883357800497e-14</v>
       </c>
       <c r="E19" t="n">
-        <v>1.370280080232313e-12</v>
+        <v>1.406574140097151e-13</v>
       </c>
       <c r="F19" t="n">
-        <v>4.074723071906719</v>
+        <v>0.2367439588916065</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5387086397474857</v>
+        <v>0.9935231245622347</v>
       </c>
       <c r="H19" t="n">
-        <v>0.8149446143813439</v>
+        <v>0.05918598972290162</v>
       </c>
     </row>
     <row r="20">
@@ -876,25 +876,25 @@
         <v>4.2962</v>
       </c>
       <c r="B20" t="n">
-        <v>2.704475011278356e-12</v>
+        <v>2.152152833200055e-13</v>
       </c>
       <c r="C20" t="n">
-        <v>1.167644753257886e-13</v>
+        <v>9.291821102903457e-15</v>
       </c>
       <c r="D20" t="n">
-        <v>1.011106691229122e-12</v>
+        <v>8.04613138940936e-14</v>
       </c>
       <c r="E20" t="n">
-        <v>1.512660840616957e-12</v>
+        <v>1.203737248683553e-13</v>
       </c>
       <c r="F20" t="n">
-        <v>2.084693999669843</v>
+        <v>2.084693999869574</v>
       </c>
       <c r="G20" t="n">
-        <v>0.8373062767628758</v>
+        <v>0.8373062767346848</v>
       </c>
       <c r="H20" t="n">
-        <v>0.4169387999339686</v>
+        <v>0.4169387999739148</v>
       </c>
     </row>
     <row r="21">
@@ -902,25 +902,25 @@
         <v>4.2972</v>
       </c>
       <c r="B21" t="n">
-        <v>5.630316431134301e-12</v>
+        <v>4.480463464414512e-13</v>
       </c>
       <c r="C21" t="n">
-        <v>-3.188771511518404e-12</v>
+        <v>-2.537543752587284e-13</v>
       </c>
       <c r="D21" t="n">
-        <v>2.27522891059354e-12</v>
+        <v>1.810569639262641e-13</v>
       </c>
       <c r="E21" t="n">
-        <v>3.035651683847649e-12</v>
+        <v>2.415694853705278e-13</v>
       </c>
       <c r="F21" t="n">
-        <v>0.7401975991979289</v>
+        <v>0.7401976031548925</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9806899167699689</v>
+        <v>0.9806899165385278</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1480395198395858</v>
+        <v>0.1480395206309785</v>
       </c>
     </row>
     <row r="22">
@@ -928,25 +928,25 @@
         <v>4.2981</v>
       </c>
       <c r="B22" t="n">
-        <v>3.164146155214916e-12</v>
+        <v>2.51794750635236e-13</v>
       </c>
       <c r="C22" t="n">
-        <v>-2.471416461597428e-13</v>
+        <v>-1.966690737545845e-14</v>
       </c>
       <c r="D22" t="n">
-        <v>1.355633946587363e-12</v>
+        <v>1.078779217043925e-13</v>
       </c>
       <c r="E22" t="n">
-        <v>2.043722098530097e-12</v>
+        <v>1.62634236951525e-13</v>
       </c>
       <c r="F22" t="n">
-        <v>1.901530052600173</v>
+        <v>1.901530054929802</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8625955922601832</v>
+        <v>0.8625955919462637</v>
       </c>
       <c r="H22" t="n">
-        <v>0.3803060105200345</v>
+        <v>0.3803060109859603</v>
       </c>
     </row>
     <row r="23">
@@ -954,25 +954,25 @@
         <v>4.2991</v>
       </c>
       <c r="B23" t="n">
-        <v>-3.456052122231173e-13</v>
+        <v>4.29827380205352e-13</v>
       </c>
       <c r="C23" t="n">
-        <v>3.523006725353243e-12</v>
+        <v>-2.5945322386277e-13</v>
       </c>
       <c r="D23" t="n">
-        <v>9.593722715114965e-13</v>
+        <v>4.054326318591335e-13</v>
       </c>
       <c r="E23" t="n">
-        <v>3.064554745341645e-12</v>
+        <v>5.294913563045239e-13</v>
       </c>
       <c r="F23" t="n">
-        <v>2.377374902047964</v>
+        <v>1.058205687436941</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4978601730463862</v>
+        <v>0.5891332772760458</v>
       </c>
       <c r="H23" t="n">
-        <v>0.7924583006826547</v>
+        <v>0.5291028437184707</v>
       </c>
     </row>
     <row r="24">
@@ -980,25 +980,25 @@
         <v>4.3011</v>
       </c>
       <c r="B24" t="n">
-        <v>5.186231717042622e-13</v>
+        <v>4.171966698438463e-13</v>
       </c>
       <c r="C24" t="n">
-        <v>-1.981450816071508e-13</v>
+        <v>1.498193635280482e-13</v>
       </c>
       <c r="D24" t="n">
-        <v>2.993586031918073e-13</v>
+        <v>2.023683888177764e-13</v>
       </c>
       <c r="E24" t="n">
-        <v>5.108423412228172e-13</v>
+        <v>6.969732046885149e-13</v>
       </c>
       <c r="F24" t="n">
-        <v>4.179167447519779</v>
+        <v>0.6567173165492056</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3823008713103061</v>
+        <v>0.720104701874249</v>
       </c>
       <c r="H24" t="n">
-        <v>1.044791861879945</v>
+        <v>0.3283586582746028</v>
       </c>
     </row>
     <row r="25">
@@ -1006,25 +1006,25 @@
         <v>4.3031</v>
       </c>
       <c r="B25" t="n">
-        <v>3.122272677723417e-12</v>
+        <v>2.758931789882893e-13</v>
       </c>
       <c r="C25" t="n">
-        <v>7.003814718579927e-12</v>
+        <v>3.667139781196707e-13</v>
       </c>
       <c r="D25" t="n">
-        <v>1.625722282960155e-12</v>
+        <v>1.555098304773976e-13</v>
       </c>
       <c r="E25" t="n">
-        <v>4.09865971395883e-12</v>
+        <v>6.82659367107954e-13</v>
       </c>
       <c r="F25" t="n">
-        <v>1.371183722911875</v>
+        <v>1.270137585591784</v>
       </c>
       <c r="G25" t="n">
-        <v>0.7123031079838351</v>
+        <v>0.5298990338276023</v>
       </c>
       <c r="H25" t="n">
-        <v>0.457061240970625</v>
+        <v>0.6350687927958921</v>
       </c>
     </row>
     <row r="26">
@@ -1032,25 +1032,25 @@
         <v>4.3052</v>
       </c>
       <c r="B26" t="n">
-        <v>3.093346565368936e-12</v>
+        <v>3.532411847277258e-13</v>
       </c>
       <c r="C26" t="n">
-        <v>-2.081288212353152e-12</v>
+        <v>-5.645523885161915e-14</v>
       </c>
       <c r="D26" t="n">
-        <v>1.884663521588752e-12</v>
+        <v>1.727819892823167e-13</v>
       </c>
       <c r="E26" t="n">
-        <v>2.932038653470903e-12</v>
+        <v>2.491799005320458e-13</v>
       </c>
       <c r="F26" t="n">
-        <v>2.472443511275054</v>
+        <v>0.9146561995708219</v>
       </c>
       <c r="G26" t="n">
-        <v>0.649576913641458</v>
+        <v>0.8218895675398293</v>
       </c>
       <c r="H26" t="n">
-        <v>0.6181108778187634</v>
+        <v>0.3048853998569406</v>
       </c>
     </row>
     <row r="27">
@@ -1058,25 +1058,25 @@
         <v>4.3072</v>
       </c>
       <c r="B27" t="n">
-        <v>8.885637986940138e-12</v>
+        <v>7.070966054426036e-13</v>
       </c>
       <c r="C27" t="n">
-        <v>-7.321949049182406e-13</v>
+        <v>-5.826622036535171e-14</v>
       </c>
       <c r="D27" t="n">
-        <v>3.887964826565413e-12</v>
+        <v>3.093944102723304e-13</v>
       </c>
       <c r="E27" t="n">
-        <v>5.950910674009302e-12</v>
+        <v>4.735584246312266e-13</v>
       </c>
       <c r="F27" t="n">
-        <v>0.7044112154508766</v>
+        <v>0.7044112209115119</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9507838161420679</v>
+        <v>0.9507838154659094</v>
       </c>
       <c r="H27" t="n">
-        <v>0.1761028038627191</v>
+        <v>0.176102805227878</v>
       </c>
     </row>
     <row r="28">
@@ -1084,25 +1084,25 @@
         <v>4.3093</v>
       </c>
       <c r="B28" t="n">
-        <v>9.791790539484874e-12</v>
+        <v>7.792059320149887e-13</v>
       </c>
       <c r="C28" t="n">
-        <v>-6.017437551776003e-12</v>
+        <v>-4.78852464702891e-13</v>
       </c>
       <c r="D28" t="n">
-        <v>5.660530126701929e-12</v>
+        <v>4.504506751227689e-13</v>
       </c>
       <c r="E28" t="n">
-        <v>8.84078327456086e-12</v>
+        <v>7.035271793909956e-13</v>
       </c>
       <c r="F28" t="n">
-        <v>0.8326110976177604</v>
+        <v>0.8326110963929527</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8416520301747279</v>
+        <v>0.8416520304687635</v>
       </c>
       <c r="H28" t="n">
-        <v>0.2775370325392535</v>
+        <v>0.2775370321309842</v>
       </c>
     </row>
     <row r="29">
@@ -1110,25 +1110,25 @@
         <v>4.31</v>
       </c>
       <c r="B29" t="n">
-        <v>6.509181210870857e-12</v>
+        <v>5.179841825652513e-13</v>
       </c>
       <c r="C29" t="n">
-        <v>-1.242085548734805e-12</v>
+        <v>-9.884202768076652e-14</v>
       </c>
       <c r="D29" t="n">
-        <v>2.824466111555615e-12</v>
+        <v>2.247638716242815e-13</v>
       </c>
       <c r="E29" t="n">
-        <v>6.092979564304677e-12</v>
+        <v>4.848639079417104e-13</v>
       </c>
       <c r="F29" t="n">
-        <v>0.8657007809180817</v>
+        <v>0.8657007819353183</v>
       </c>
       <c r="G29" t="n">
-        <v>0.9294291949930895</v>
+        <v>0.929429194850284</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2164251952295204</v>
+        <v>0.2164251954838296</v>
       </c>
     </row>
     <row r="30">
@@ -1136,25 +1136,25 @@
         <v>4.3112</v>
       </c>
       <c r="B30" t="n">
-        <v>1.52050785318442e-12</v>
+        <v>1.87085124301526e-13</v>
       </c>
       <c r="C30" t="n">
-        <v>-9.191063406087217e-13</v>
+        <v>4.512253824561542e-14</v>
       </c>
       <c r="D30" t="n">
-        <v>8.996270246934981e-13</v>
+        <v>8.788131639746709e-14</v>
       </c>
       <c r="E30" t="n">
-        <v>1.454334018139553e-12</v>
+        <v>1.473551329608507e-13</v>
       </c>
       <c r="F30" t="n">
-        <v>2.865469824435044</v>
+        <v>1.184368963340015</v>
       </c>
       <c r="G30" t="n">
-        <v>0.5805851472398476</v>
+        <v>0.7567556694004993</v>
       </c>
       <c r="H30" t="n">
-        <v>0.716367456108761</v>
+        <v>0.3947896544466718</v>
       </c>
     </row>
     <row r="31">
@@ -1162,25 +1162,25 @@
         <v>4.3131</v>
       </c>
       <c r="B31" t="n">
-        <v>5.28477158107293e-12</v>
+        <v>4.820279339276595e-13</v>
       </c>
       <c r="C31" t="n">
-        <v>9.422503040043777e-12</v>
+        <v>3.473172866201414e-13</v>
       </c>
       <c r="D31" t="n">
-        <v>3.64721529353953e-12</v>
+        <v>2.99721191984221e-13</v>
       </c>
       <c r="E31" t="n">
-        <v>9.3027195006889e-12</v>
+        <v>8.876226140363177e-13</v>
       </c>
       <c r="F31" t="n">
-        <v>1.111549412655289</v>
+        <v>0.4360933717570055</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5736276960091282</v>
+        <v>0.5090140705214197</v>
       </c>
       <c r="H31" t="n">
-        <v>0.5557747063276447</v>
+        <v>0.4360933717570055</v>
       </c>
     </row>
     <row r="32">
@@ -1188,25 +1188,25 @@
         <v>4.3151</v>
       </c>
       <c r="B32" t="n">
-        <v>1.622837348219052e-12</v>
+        <v>2.102643624102217e-13</v>
       </c>
       <c r="C32" t="n">
-        <v>-1.65389392449785e-12</v>
+        <v>9.00252437793183e-14</v>
       </c>
       <c r="D32" t="n">
-        <v>1.237719232096578e-12</v>
+        <v>1.113600006366975e-13</v>
       </c>
       <c r="E32" t="n">
-        <v>1.378420478020734e-12</v>
+        <v>1.794025763294277e-13</v>
       </c>
       <c r="F32" t="n">
-        <v>3.100770215202488</v>
+        <v>0.6632631266107275</v>
       </c>
       <c r="G32" t="n">
-        <v>0.3763478358097084</v>
+        <v>0.7177517202159733</v>
       </c>
       <c r="H32" t="n">
-        <v>1.033590071734163</v>
+        <v>0.3316315633053638</v>
       </c>
     </row>
     <row r="33">
@@ -1214,25 +1214,25 @@
         <v>4.3192</v>
       </c>
       <c r="B33" t="n">
-        <v>5.46736809576174e-13</v>
+        <v>2.616377162245523e-13</v>
       </c>
       <c r="C33" t="n">
-        <v>1.209774333736081e-12</v>
+        <v>-1.267085466731623e-13</v>
       </c>
       <c r="D33" t="n">
-        <v>2.793863931368944e-13</v>
+        <v>1.30486628071956e-13</v>
       </c>
       <c r="E33" t="n">
-        <v>9.886060994422657e-13</v>
+        <v>1.531823566083319e-13</v>
       </c>
       <c r="F33" t="n">
-        <v>3.987633608244968</v>
+        <v>1.109622561025781</v>
       </c>
       <c r="G33" t="n">
-        <v>0.5511977864297803</v>
+        <v>0.8927424895459772</v>
       </c>
       <c r="H33" t="n">
-        <v>0.7975267216489936</v>
+        <v>0.2774056402564453</v>
       </c>
     </row>
     <row r="34">
@@ -1240,25 +1240,25 @@
         <v>4.3212</v>
       </c>
       <c r="B34" t="n">
-        <v>5.448805559906253e-12</v>
+        <v>4.336021691809891e-13</v>
       </c>
       <c r="C34" t="n">
-        <v>-3.699581296803903e-12</v>
+        <v>-2.944033255423358e-13</v>
       </c>
       <c r="D34" t="n">
-        <v>2.606847878213679e-12</v>
+        <v>2.074463628279199e-13</v>
       </c>
       <c r="E34" t="n">
-        <v>4.484603871817396e-12</v>
+        <v>3.568734367794741e-13</v>
       </c>
       <c r="F34" t="n">
-        <v>1.597377835363424</v>
+        <v>1.59737783806063</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8092633437794972</v>
+        <v>0.8092633432948837</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3993444588408561</v>
+        <v>0.3993444595151575</v>
       </c>
     </row>
     <row r="35">
@@ -1266,25 +1266,25 @@
         <v>4.323</v>
       </c>
       <c r="B35" t="n">
-        <v>4.784720547212008e-12</v>
+        <v>3.80755963015006e-13</v>
       </c>
       <c r="C35" t="n">
-        <v>2.925013608981702e-12</v>
+        <v>2.327651870277973e-13</v>
       </c>
       <c r="D35" t="n">
-        <v>1.690173190792858e-12</v>
+        <v>1.344997089330293e-13</v>
       </c>
       <c r="E35" t="n">
-        <v>3.057993572012802e-12</v>
+        <v>2.433473962916109e-13</v>
       </c>
       <c r="F35" t="n">
-        <v>0.5183813089318746</v>
+        <v>0.5183813109121014</v>
       </c>
       <c r="G35" t="n">
-        <v>0.9914347713625453</v>
+        <v>0.9914347712867028</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1036762617863749</v>
+        <v>0.1036762621824203</v>
       </c>
     </row>
     <row r="36">
@@ -1292,25 +1292,25 @@
         <v>4.3252</v>
       </c>
       <c r="B36" t="n">
-        <v>8.957483139748872e-13</v>
+        <v>3.207260789053423e-13</v>
       </c>
       <c r="C36" t="n">
-        <v>1.601290691520863e-12</v>
+        <v>-1.271824398906117e-13</v>
       </c>
       <c r="D36" t="n">
-        <v>4.538611932321261e-13</v>
+        <v>1.533281002242863e-13</v>
       </c>
       <c r="E36" t="n">
-        <v>1.6043018680884e-12</v>
+        <v>1.985767077042236e-13</v>
       </c>
       <c r="F36" t="n">
-        <v>4.28188096479392</v>
+        <v>1.479697313198598</v>
       </c>
       <c r="G36" t="n">
-        <v>0.509585916600655</v>
+        <v>0.8302316455370327</v>
       </c>
       <c r="H36" t="n">
-        <v>0.8563761929587841</v>
+        <v>0.3699243282996495</v>
       </c>
     </row>
     <row r="37">
@@ -1318,25 +1318,25 @@
         <v>4.3271</v>
       </c>
       <c r="B37" t="n">
-        <v>1.957970067976939e-12</v>
+        <v>1.558103073735828e-13</v>
       </c>
       <c r="C37" t="n">
-        <v>2.777456690761832e-13</v>
+        <v>2.210229796363392e-14</v>
       </c>
       <c r="D37" t="n">
-        <v>8.407814371094658e-13</v>
+        <v>6.690726082776031e-14</v>
       </c>
       <c r="E37" t="n">
-        <v>1.363656844500578e-12</v>
+        <v>1.085163636088094e-13</v>
       </c>
       <c r="F37" t="n">
-        <v>2.552045339328588</v>
+        <v>2.552045339768004</v>
       </c>
       <c r="G37" t="n">
-        <v>0.768637350629058</v>
+        <v>0.7686373505625572</v>
       </c>
       <c r="H37" t="n">
-        <v>0.5104090678657176</v>
+        <v>0.5104090679536007</v>
       </c>
     </row>
     <row r="38">
@@ -1344,25 +1344,25 @@
         <v>4.3291</v>
       </c>
       <c r="B38" t="n">
-        <v>3.512757259567823e-12</v>
+        <v>2.795363407150911e-13</v>
       </c>
       <c r="C38" t="n">
-        <v>4.438699028505544e-12</v>
+        <v>3.532204454628625e-13</v>
       </c>
       <c r="D38" t="n">
-        <v>1.743155638874525e-12</v>
+        <v>1.387159183924044e-13</v>
       </c>
       <c r="E38" t="n">
-        <v>4.344759393159542e-12</v>
+        <v>3.457449671170159e-13</v>
       </c>
       <c r="F38" t="n">
-        <v>1.469008756838236</v>
+        <v>1.469008749860543</v>
       </c>
       <c r="G38" t="n">
-        <v>0.8321166308438845</v>
+        <v>0.8321166320732615</v>
       </c>
       <c r="H38" t="n">
-        <v>0.367252189209559</v>
+        <v>0.3672521874651358</v>
       </c>
     </row>
     <row r="39">
@@ -1370,25 +1370,25 @@
         <v>4.3301</v>
       </c>
       <c r="B39" t="n">
-        <v>2.204769509256209e-12</v>
+        <v>3.593217309667462e-13</v>
       </c>
       <c r="C39" t="n">
-        <v>3.974020534136152e-12</v>
+        <v>5.827863022261754e-15</v>
       </c>
       <c r="D39" t="n">
-        <v>1.227165878972527e-12</v>
+        <v>1.706968310146391e-13</v>
       </c>
       <c r="E39" t="n">
-        <v>2.452006495077182e-12</v>
+        <v>3.064922729659474e-13</v>
       </c>
       <c r="F39" t="n">
-        <v>1.837791958317671</v>
+        <v>0.1129363470236949</v>
       </c>
       <c r="G39" t="n">
-        <v>0.606745715483646</v>
+        <v>0.9450965631210649</v>
       </c>
       <c r="H39" t="n">
-        <v>0.6125973194392238</v>
+        <v>0.05646817351184747</v>
       </c>
     </row>
     <row r="40">
@@ -1396,25 +1396,25 @@
         <v>4.3312</v>
       </c>
       <c r="B40" t="n">
-        <v>2.156772320467711e-12</v>
+        <v>1.716304880487972e-13</v>
       </c>
       <c r="C40" t="n">
-        <v>3.05368877295347e-13</v>
+        <v>2.430048228043808e-14</v>
       </c>
       <c r="D40" t="n">
-        <v>9.146955210349339e-13</v>
+        <v>7.278915686747553e-14</v>
       </c>
       <c r="E40" t="n">
-        <v>2.364054755715224e-12</v>
+        <v>1.881255001685434e-13</v>
       </c>
       <c r="F40" t="n">
-        <v>2.503524918950853</v>
+        <v>2.503524928073007</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6440047130087351</v>
+        <v>0.6440047113758491</v>
       </c>
       <c r="H40" t="n">
-        <v>0.6258812297377132</v>
+        <v>0.6258812320182519</v>
       </c>
     </row>
     <row r="41">
@@ -1422,25 +1422,25 @@
         <v>4.3332</v>
       </c>
       <c r="B41" t="n">
-        <v>2.339918004954034e-12</v>
+        <v>1.862047584149751e-13</v>
       </c>
       <c r="C41" t="n">
-        <v>1.206210807222063e-12</v>
+        <v>9.598720603899529e-14</v>
       </c>
       <c r="D41" t="n">
-        <v>8.581074588692811e-13</v>
+        <v>6.828602185700748e-14</v>
       </c>
       <c r="E41" t="n">
-        <v>1.560171641544347e-12</v>
+        <v>1.241545143229154e-13</v>
       </c>
       <c r="F41" t="n">
-        <v>0.898295263638488</v>
+        <v>0.8982952653329804</v>
       </c>
       <c r="G41" t="n">
-        <v>0.9703449333032328</v>
+        <v>0.9703449331808008</v>
       </c>
       <c r="H41" t="n">
-        <v>0.1796590527276976</v>
+        <v>0.1796590530665961</v>
       </c>
     </row>
     <row r="42">
@@ -1448,25 +1448,25 @@
         <v>4.3352</v>
       </c>
       <c r="B42" t="n">
-        <v>3.710256375687532e-12</v>
+        <v>3.278800500774254e-13</v>
       </c>
       <c r="C42" t="n">
-        <v>-3.370677789411774e-12</v>
+        <v>-3.741415709467249e-14</v>
       </c>
       <c r="D42" t="n">
-        <v>1.473192392665705e-12</v>
+        <v>1.20163198095609e-13</v>
       </c>
       <c r="E42" t="n">
-        <v>1.492169386960004e-12</v>
+        <v>2.211646553561212e-13</v>
       </c>
       <c r="F42" t="n">
-        <v>1.977133100133428</v>
+        <v>0.4468254443794339</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8522999795312515</v>
+        <v>0.978466767545711</v>
       </c>
       <c r="H42" t="n">
-        <v>0.3954266200266857</v>
+        <v>0.1117063610948585</v>
       </c>
     </row>
     <row r="43">
@@ -1474,25 +1474,25 @@
         <v>4.34</v>
       </c>
       <c r="B43" t="n">
-        <v>4.448821523378764e-12</v>
+        <v>3.540259681393376e-13</v>
       </c>
       <c r="C43" t="n">
-        <v>2.736080397879249e-12</v>
+        <v>2.17730359593722e-13</v>
       </c>
       <c r="D43" t="n">
-        <v>1.275875353904023e-12</v>
+        <v>1.015309346546309e-13</v>
       </c>
       <c r="E43" t="n">
-        <v>1.955575153728607e-12</v>
+        <v>1.556197259672046e-13</v>
       </c>
       <c r="F43" t="n">
-        <v>0.7701058013092446</v>
+        <v>0.7701057989063356</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9789007760492949</v>
+        <v>0.9789007761962299</v>
       </c>
       <c r="H43" t="n">
-        <v>0.1540211602618489</v>
+        <v>0.1540211597812671</v>
       </c>
     </row>
     <row r="44">
@@ -1500,25 +1500,25 @@
         <v>4.3449</v>
       </c>
       <c r="B44" t="n">
-        <v>4.226189466097279e-12</v>
+        <v>3.363094720439247e-13</v>
       </c>
       <c r="C44" t="n">
-        <v>1.965422879745165e-13</v>
+        <v>1.564033813986476e-14</v>
       </c>
       <c r="D44" t="n">
-        <v>1.207786961880178e-12</v>
+        <v>9.611263251665699e-14</v>
       </c>
       <c r="E44" t="n">
-        <v>2.040681197194665e-12</v>
+        <v>1.623922498729554e-13</v>
       </c>
       <c r="F44" t="n">
-        <v>1.119089690141906</v>
+        <v>1.119089685775354</v>
       </c>
       <c r="G44" t="n">
-        <v>0.9524000779964807</v>
+        <v>0.9524000783893225</v>
       </c>
       <c r="H44" t="n">
-        <v>0.2238179380283812</v>
+        <v>0.2238179371550707</v>
       </c>
     </row>
     <row r="45">
@@ -1526,25 +1526,25 @@
         <v>4.35</v>
       </c>
       <c r="B45" t="n">
-        <v>3.325007853426399e-12</v>
+        <v>2.64595717859836e-13</v>
       </c>
       <c r="C45" t="n">
-        <v>1.200229421156209e-12</v>
+        <v>9.551122233442603e-14</v>
       </c>
       <c r="D45" t="n">
-        <v>8.785025319123543e-13</v>
+        <v>6.990901028172279e-14</v>
       </c>
       <c r="E45" t="n">
-        <v>1.472679506605679e-12</v>
+        <v>1.171921115104144e-13</v>
       </c>
       <c r="F45" t="n">
-        <v>2.690509197727599</v>
+        <v>2.690509197833299</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7475696265396964</v>
+        <v>0.7475696265235389</v>
       </c>
       <c r="H45" t="n">
-        <v>0.5381018395455198</v>
+        <v>0.5381018395666597</v>
       </c>
     </row>
     <row r="46">
@@ -1552,25 +1552,25 @@
         <v>4.3701</v>
       </c>
       <c r="B46" t="n">
-        <v>3.841474985705565e-12</v>
+        <v>3.056948662334453e-13</v>
       </c>
       <c r="C46" t="n">
-        <v>1.313444991953839e-12</v>
+        <v>1.045206317649229e-13</v>
       </c>
       <c r="D46" t="n">
-        <v>1.141977171497798e-12</v>
+        <v>9.087565592532213e-14</v>
       </c>
       <c r="E46" t="n">
-        <v>1.977349121676223e-12</v>
+        <v>1.573524434075756e-13</v>
       </c>
       <c r="F46" t="n">
-        <v>2.644972006350459</v>
+        <v>2.644972008198779</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7545209928584409</v>
+        <v>0.7545209925767005</v>
       </c>
       <c r="H46" t="n">
-        <v>0.5289944012700918</v>
+        <v>0.5289944016397559</v>
       </c>
     </row>
     <row r="47">
@@ -1578,25 +1578,25 @@
         <v>4.3901</v>
       </c>
       <c r="B47" t="n">
-        <v>3.721261700777361e-12</v>
+        <v>2.961285972870706e-13</v>
       </c>
       <c r="C47" t="n">
-        <v>2.689573290812608e-13</v>
+        <v>2.140294369502447e-14</v>
       </c>
       <c r="D47" t="n">
-        <v>1.135020656043221e-12</v>
+        <v>9.032207396992916e-14</v>
       </c>
       <c r="E47" t="n">
-        <v>1.96159931292853e-12</v>
+        <v>1.560991136257819e-13</v>
       </c>
       <c r="F47" t="n">
-        <v>1.257391033633561</v>
+        <v>1.257391030682606</v>
       </c>
       <c r="G47" t="n">
-        <v>0.9392544285475293</v>
+        <v>0.9392544288425945</v>
       </c>
       <c r="H47" t="n">
-        <v>0.2514782067267121</v>
+        <v>0.2514782061365212</v>
       </c>
     </row>
     <row r="48">
@@ -1604,25 +1604,25 @@
         <v>4.41</v>
       </c>
       <c r="B48" t="n">
-        <v>1.528958341513269e-12</v>
+        <v>1.834768720489679e-13</v>
       </c>
       <c r="C48" t="n">
-        <v>3.279160628114378e-13</v>
+        <v>6.410577297207631e-14</v>
       </c>
       <c r="D48" t="n">
-        <v>5.847825838752786e-13</v>
+        <v>7.974649211353922e-14</v>
       </c>
       <c r="E48" t="n">
-        <v>9.484998206979875e-13</v>
+        <v>1.170853953941688e-13</v>
       </c>
       <c r="F48" t="n">
-        <v>3.504561735637711</v>
+        <v>1.736661059939814</v>
       </c>
       <c r="G48" t="n">
-        <v>0.6226974917050204</v>
+        <v>0.6288141954391833</v>
       </c>
       <c r="H48" t="n">
-        <v>0.7009123471275422</v>
+        <v>0.5788870199799381</v>
       </c>
     </row>
     <row r="49">
@@ -1630,25 +1630,25 @@
         <v>4.4202</v>
       </c>
       <c r="B49" t="n">
-        <v>2.127412757622689e-12</v>
+        <v>1.69294128521399e-13</v>
       </c>
       <c r="C49" t="n">
-        <v>9.943352745022262e-13</v>
+        <v>7.912668685386011e-14</v>
       </c>
       <c r="D49" t="n">
-        <v>9.022156357177884e-13</v>
+        <v>7.179603935207532e-14</v>
       </c>
       <c r="E49" t="n">
-        <v>1.677140699577467e-12</v>
+        <v>1.334626166225918e-13</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2778131727138083</v>
+        <v>0.2778131692529927</v>
       </c>
       <c r="G49" t="n">
-        <v>0.9912010206173331</v>
+        <v>0.9912010208265251</v>
       </c>
       <c r="H49" t="n">
-        <v>0.06945329317845207</v>
+        <v>0.06945329231324818</v>
       </c>
     </row>
     <row r="50">
@@ -1656,25 +1656,25 @@
         <v>4.4302</v>
       </c>
       <c r="B50" t="n">
-        <v>3.334353440208363e-12</v>
+        <v>2.653394163830251e-13</v>
       </c>
       <c r="C50" t="n">
-        <v>1.663034016677223e-12</v>
+        <v>1.323400419145389e-13</v>
       </c>
       <c r="D50" t="n">
-        <v>1.220141783233132e-12</v>
+        <v>9.70957981325377e-14</v>
       </c>
       <c r="E50" t="n">
-        <v>2.403116712292048e-12</v>
+        <v>1.912339519845127e-13</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9108729170661077</v>
+        <v>0.9108729155069771</v>
       </c>
       <c r="G50" t="n">
-        <v>0.9694294877788272</v>
+        <v>0.969429487893132</v>
       </c>
       <c r="H50" t="n">
-        <v>0.1821745834132215</v>
+        <v>0.1821745831013954</v>
       </c>
     </row>
     <row r="51">
@@ -1682,25 +1682,25 @@
         <v>4.44</v>
       </c>
       <c r="B51" t="n">
-        <v>2.119333569004008e-12</v>
+        <v>1.686512063873295e-13</v>
       </c>
       <c r="C51" t="n">
-        <v>5.091750043249122e-13</v>
+        <v>4.051886010809099e-14</v>
       </c>
       <c r="D51" t="n">
-        <v>9.663715003472447e-13</v>
+        <v>7.690140049031447e-14</v>
       </c>
       <c r="E51" t="n">
-        <v>1.598836704171023e-12</v>
+        <v>1.272313821922084e-13</v>
       </c>
       <c r="F51" t="n">
-        <v>1.532371846500172</v>
+        <v>1.532371848099936</v>
       </c>
       <c r="G51" t="n">
-        <v>0.8208921459304409</v>
+        <v>0.8208921456455951</v>
       </c>
       <c r="H51" t="n">
-        <v>0.3830929616250431</v>
+        <v>0.3830929620249841</v>
       </c>
     </row>
     <row r="52">
@@ -1708,25 +1708,25 @@
         <v>4.4499</v>
       </c>
       <c r="B52" t="n">
-        <v>1.665289089726653e-12</v>
+        <v>2.103918472567525e-13</v>
       </c>
       <c r="C52" t="n">
-        <v>-1.468502011527467e-12</v>
+        <v>1.922602212900061e-13</v>
       </c>
       <c r="D52" t="n">
-        <v>8.597895755336961e-13</v>
+        <v>8.719839164524448e-14</v>
       </c>
       <c r="E52" t="n">
-        <v>9.833676756420179e-13</v>
+        <v>2.284108066210258e-13</v>
       </c>
       <c r="F52" t="n">
-        <v>3.635068308476344</v>
+        <v>1.559940572375755</v>
       </c>
       <c r="G52" t="n">
-        <v>0.603055751420598</v>
+        <v>0.8159733244510498</v>
       </c>
       <c r="H52" t="n">
-        <v>0.7270136616952687</v>
+        <v>0.3899851430939387</v>
       </c>
     </row>
     <row r="53">
@@ -1734,25 +1734,25 @@
         <v>4.455</v>
       </c>
       <c r="B53" t="n">
-        <v>6.032946286390383e-12</v>
+        <v>4.800866111558594e-13</v>
       </c>
       <c r="C53" t="n">
-        <v>-2.746634642450301e-12</v>
+        <v>-2.185702397022673e-13</v>
       </c>
       <c r="D53" t="n">
-        <v>3.116766604584075e-12</v>
+        <v>2.480244058884895e-13</v>
       </c>
       <c r="E53" t="n">
-        <v>4.909443906591913e-12</v>
+        <v>3.906811329893852e-13</v>
       </c>
       <c r="F53" t="n">
-        <v>0.5974772284855288</v>
+        <v>0.5974772297082516</v>
       </c>
       <c r="G53" t="n">
-        <v>0.8970096606806215</v>
+        <v>0.8970096604009435</v>
       </c>
       <c r="H53" t="n">
-        <v>0.1991590761618429</v>
+        <v>0.1991590765694172</v>
       </c>
     </row>
     <row r="54">
@@ -1760,25 +1760,25 @@
         <v>4.4601</v>
       </c>
       <c r="B54" t="n">
-        <v>9.237379891338105e-13</v>
+        <v>3.386892132496667e-13</v>
       </c>
       <c r="C54" t="n">
-        <v>-3.89412466961697e-13</v>
+        <v>1.001155511620446e-13</v>
       </c>
       <c r="D54" t="n">
-        <v>1.005870340949474e-12</v>
+        <v>1.78442886477164e-13</v>
       </c>
       <c r="E54" t="n">
-        <v>3.547234186078925e-12</v>
+        <v>2.930851170187865e-13</v>
       </c>
       <c r="F54" t="n">
-        <v>3.744799539973852</v>
+        <v>0.9800481014047766</v>
       </c>
       <c r="G54" t="n">
-        <v>0.290372488890298</v>
+        <v>0.6126116602665155</v>
       </c>
       <c r="H54" t="n">
-        <v>1.248266513324617</v>
+        <v>0.4900240507023883</v>
       </c>
     </row>
     <row r="55">
@@ -1786,25 +1786,25 @@
         <v>4.47</v>
       </c>
       <c r="B55" t="n">
-        <v>8.313787781741649e-12</v>
+        <v>6.615902105773656e-13</v>
       </c>
       <c r="C55" t="n">
-        <v>-4.311018448047014e-12</v>
+        <v>-3.430599473620868e-13</v>
       </c>
       <c r="D55" t="n">
-        <v>5.574320213362175e-12</v>
+        <v>4.435903081403186e-13</v>
       </c>
       <c r="E55" t="n">
-        <v>7.054506957065987e-12</v>
+        <v>5.613798263027866e-13</v>
       </c>
       <c r="F55" t="n">
-        <v>1.844606256324521</v>
+        <v>1.844606258246566</v>
       </c>
       <c r="G55" t="n">
-        <v>0.6052765518156149</v>
+        <v>0.6052765514015443</v>
       </c>
       <c r="H55" t="n">
-        <v>0.6148687521081736</v>
+        <v>0.6148687527488553</v>
       </c>
     </row>
     <row r="56">
@@ -1812,25 +1812,25 @@
         <v>4.478</v>
       </c>
       <c r="B56" t="n">
-        <v>1.769803828660533e-12</v>
+        <v>2.810188334171707e-13</v>
       </c>
       <c r="C56" t="n">
-        <v>2.552379168809935e-12</v>
+        <v>-1.601867370523839e-15</v>
       </c>
       <c r="D56" t="n">
-        <v>7.723487022481326e-13</v>
+        <v>2.020556258899285e-13</v>
       </c>
       <c r="E56" t="n">
-        <v>1.509387612901896e-12</v>
+        <v>3.056753999776591e-13</v>
       </c>
       <c r="F56" t="n">
-        <v>1.884813978930421</v>
+        <v>1.354405416693701</v>
       </c>
       <c r="G56" t="n">
-        <v>0.7569341108030955</v>
+        <v>0.7162562736734366</v>
       </c>
       <c r="H56" t="n">
-        <v>0.4712034947326052</v>
+        <v>0.4514684722312337</v>
       </c>
     </row>
     <row r="57">
@@ -1838,25 +1838,25 @@
         <v>4.4861</v>
       </c>
       <c r="B57" t="n">
-        <v>4.543384286190211e-12</v>
+        <v>3.615510337070454e-13</v>
       </c>
       <c r="C57" t="n">
-        <v>-1.030146535873354e-12</v>
+        <v>-8.197645717392176e-14</v>
       </c>
       <c r="D57" t="n">
-        <v>2.092270388043284e-12</v>
+        <v>1.664975871034365e-13</v>
       </c>
       <c r="E57" t="n">
-        <v>2.738753962800093e-12</v>
+        <v>2.179431151873234e-13</v>
       </c>
       <c r="F57" t="n">
-        <v>0.2568579826597412</v>
+        <v>0.2568579824295638</v>
       </c>
       <c r="G57" t="n">
-        <v>0.9924262275662803</v>
+        <v>0.9924262275792796</v>
       </c>
       <c r="H57" t="n">
-        <v>0.0642144956649353</v>
+        <v>0.06421449560739095</v>
       </c>
     </row>
     <row r="58">
@@ -1864,25 +1864,25 @@
         <v>4.4882</v>
       </c>
       <c r="B58" t="n">
-        <v>2.054790903797592e-12</v>
+        <v>1.635150647282251e-13</v>
       </c>
       <c r="C58" t="n">
-        <v>1.140072444312535e-12</v>
+        <v>9.072408218913709e-14</v>
       </c>
       <c r="D58" t="n">
-        <v>7.582236060044089e-13</v>
+        <v>6.033751737060025e-14</v>
       </c>
       <c r="E58" t="n">
-        <v>1.544763366042302e-12</v>
+        <v>1.229283628757932e-13</v>
       </c>
       <c r="F58" t="n">
-        <v>1.172089377271802</v>
+        <v>1.172089375336249</v>
       </c>
       <c r="G58" t="n">
-        <v>0.9475268215244814</v>
+        <v>0.9475268217062501</v>
       </c>
       <c r="H58" t="n">
-        <v>0.2344178754543603</v>
+        <v>0.2344178750672497</v>
       </c>
     </row>
     <row r="59">
@@ -1890,25 +1890,25 @@
         <v>4.4901</v>
       </c>
       <c r="B59" t="n">
-        <v>9.631103016431976e-13</v>
+        <v>3.866170836588308e-13</v>
       </c>
       <c r="C59" t="n">
-        <v>-6.252342667403784e-13</v>
+        <v>-1.218750741148235e-13</v>
       </c>
       <c r="D59" t="n">
-        <v>9.461731140790619e-13</v>
+        <v>1.754284023771251e-13</v>
       </c>
       <c r="E59" t="n">
-        <v>3.170357216610905e-12</v>
+        <v>2.549682517195682e-13</v>
       </c>
       <c r="F59" t="n">
-        <v>4.627945911472274</v>
+        <v>0.8007771356662509</v>
       </c>
       <c r="G59" t="n">
-        <v>0.3276447956883342</v>
+        <v>0.8492811437597469</v>
       </c>
       <c r="H59" t="n">
-        <v>1.156986477868069</v>
+        <v>0.2669257118887503</v>
       </c>
     </row>
     <row r="60">
@@ -1916,25 +1916,25 @@
         <v>4.4922</v>
       </c>
       <c r="B60" t="n">
-        <v>2.218234784771635e-12</v>
+        <v>1.765215152150666e-13</v>
       </c>
       <c r="C60" t="n">
-        <v>4.826312945681754e-13</v>
+        <v>3.840657786416e-14</v>
       </c>
       <c r="D60" t="n">
-        <v>8.771277836707563e-13</v>
+        <v>6.979961106667494e-14</v>
       </c>
       <c r="E60" t="n">
-        <v>1.642269011948765e-12</v>
+        <v>1.306876156378387e-13</v>
       </c>
       <c r="F60" t="n">
-        <v>1.424057995660631</v>
+        <v>1.424058000348491</v>
       </c>
       <c r="G60" t="n">
-        <v>0.9216636081755977</v>
+        <v>0.9216636076558116</v>
       </c>
       <c r="H60" t="n">
-        <v>0.2848115991321262</v>
+        <v>0.2848116000696981</v>
       </c>
     </row>
     <row r="61">
@@ -1942,25 +1942,25 @@
         <v>4.495</v>
       </c>
       <c r="B61" t="n">
-        <v>2.503790091114847e-12</v>
+        <v>2.908452059502203e-13</v>
       </c>
       <c r="C61" t="n">
-        <v>-2.181579421740873e-12</v>
+        <v>1.227995953043042e-13</v>
       </c>
       <c r="D61" t="n">
-        <v>1.129477632272477e-12</v>
+        <v>1.030217672084942e-13</v>
       </c>
       <c r="E61" t="n">
-        <v>1.290812277541157e-12</v>
+        <v>1.925969926637148e-13</v>
       </c>
       <c r="F61" t="n">
-        <v>3.396442386604613</v>
+        <v>0.0864253570561179</v>
       </c>
       <c r="G61" t="n">
-        <v>0.6391118124886769</v>
+        <v>0.9990927988413487</v>
       </c>
       <c r="H61" t="n">
-        <v>0.6792884773209226</v>
+        <v>0.02160633926402947</v>
       </c>
     </row>
     <row r="62">
@@ -1968,25 +1968,25 @@
         <v>4.5</v>
       </c>
       <c r="B62" t="n">
-        <v>1.713397540234337e-12</v>
+        <v>1.675952673234452e-13</v>
       </c>
       <c r="C62" t="n">
-        <v>1.329819908729031e-12</v>
+        <v>4.196673755320008e-14</v>
       </c>
       <c r="D62" t="n">
-        <v>6.334328005648315e-13</v>
+        <v>9.585222203150977e-14</v>
       </c>
       <c r="E62" t="n">
-        <v>1.27736131608601e-12</v>
+        <v>1.951699228587606e-13</v>
       </c>
       <c r="F62" t="n">
-        <v>1.681123438322869</v>
+        <v>1.534225134775623</v>
       </c>
       <c r="G62" t="n">
-        <v>0.8912692502472387</v>
+        <v>0.8205621123482332</v>
       </c>
       <c r="H62" t="n">
-        <v>0.3362246876645738</v>
+        <v>0.3835562836939057</v>
       </c>
     </row>
     <row r="63">
@@ -1994,25 +1994,25 @@
         <v>4.5102</v>
       </c>
       <c r="B63" t="n">
-        <v>2.356784741032681e-12</v>
+        <v>1.875469709924791e-13</v>
       </c>
       <c r="C63" t="n">
-        <v>-6.334283465264621e-13</v>
+        <v>-5.040662607115906e-14</v>
       </c>
       <c r="D63" t="n">
-        <v>1.016484050233293e-12</v>
+        <v>8.088923071008799e-14</v>
       </c>
       <c r="E63" t="n">
-        <v>1.503765650391072e-12</v>
+        <v>1.196658686003633e-13</v>
       </c>
       <c r="F63" t="n">
-        <v>1.489577422034379</v>
+        <v>1.489577418047677</v>
       </c>
       <c r="G63" t="n">
-        <v>0.8284860787568971</v>
+        <v>0.8284860794618485</v>
       </c>
       <c r="H63" t="n">
-        <v>0.3723943555085948</v>
+        <v>0.3723943545119193</v>
       </c>
     </row>
     <row r="64">
@@ -2020,25 +2020,25 @@
         <v>4.5122</v>
       </c>
       <c r="B64" t="n">
-        <v>3.466564605965881e-12</v>
+        <v>2.758604463258879e-13</v>
       </c>
       <c r="C64" t="n">
-        <v>-2.87515469706743e-14</v>
+        <v>-2.287975415129457e-15</v>
       </c>
       <c r="D64" t="n">
-        <v>1.336893441927842e-12</v>
+        <v>1.063865998375323e-13</v>
       </c>
       <c r="E64" t="n">
-        <v>2.087075446986106e-12</v>
+        <v>1.660841869740576e-13</v>
       </c>
       <c r="F64" t="n">
-        <v>0.9721604060255999</v>
+        <v>0.9721604049756978</v>
       </c>
       <c r="G64" t="n">
-        <v>0.9647798285385375</v>
+        <v>0.9647798286208455</v>
       </c>
       <c r="H64" t="n">
-        <v>0.19443208120512</v>
+        <v>0.1944320809951396</v>
       </c>
     </row>
     <row r="65">
@@ -2046,25 +2046,25 @@
         <v>4.5151</v>
       </c>
       <c r="B65" t="n">
-        <v>3.168752921428577e-12</v>
+        <v>2.521613455710206e-13</v>
       </c>
       <c r="C65" t="n">
-        <v>-1.34952161107886e-12</v>
+        <v>-1.073915179066533e-13</v>
       </c>
       <c r="D65" t="n">
-        <v>1.557110352004994e-12</v>
+        <v>1.239109047724696e-13</v>
       </c>
       <c r="E65" t="n">
-        <v>2.12315324858906e-12</v>
+        <v>1.689551674764659e-13</v>
       </c>
       <c r="F65" t="n">
-        <v>1.785127982627193</v>
+        <v>1.785127977655742</v>
       </c>
       <c r="G65" t="n">
-        <v>0.7752021286721567</v>
+        <v>0.7752021295809328</v>
       </c>
       <c r="H65" t="n">
-        <v>0.4462819956567983</v>
+        <v>0.4462819944139354</v>
       </c>
     </row>
     <row r="66">
@@ -2072,25 +2072,25 @@
         <v>4.5201</v>
       </c>
       <c r="B66" t="n">
-        <v>2.55424533453169e-12</v>
+        <v>2.032603846620094e-13</v>
       </c>
       <c r="C66" t="n">
-        <v>4.364101603858577e-12</v>
+        <v>3.472841721944628e-13</v>
       </c>
       <c r="D66" t="n">
-        <v>1.249941920803011e-12</v>
+        <v>9.946721732289612e-14</v>
       </c>
       <c r="E66" t="n">
-        <v>4.429175828880359e-12</v>
+        <v>3.524626132553321e-13</v>
       </c>
       <c r="F66" t="n">
-        <v>3.621843137227264</v>
+        <v>3.621843148588551</v>
       </c>
       <c r="G66" t="n">
-        <v>0.4595951991965381</v>
+        <v>0.4595951975145461</v>
       </c>
       <c r="H66" t="n">
-        <v>0.9054607843068161</v>
+        <v>0.9054607871471377</v>
       </c>
     </row>
     <row r="67">
@@ -2098,25 +2098,25 @@
         <v>4.5252</v>
       </c>
       <c r="B67" t="n">
-        <v>1.478686441414675e-11</v>
+        <v>1.176701286511135e-12</v>
       </c>
       <c r="C67" t="n">
-        <v>-2.05295091765182e-11</v>
+        <v>-1.633686440108647e-12</v>
       </c>
       <c r="D67" t="n">
-        <v>1.335582072376858e-11</v>
+        <v>1.062822444627992e-12</v>
       </c>
       <c r="E67" t="n">
-        <v>2.129545820178423e-11</v>
+        <v>1.694638720804857e-12</v>
       </c>
       <c r="F67" t="n">
-        <v>3.231030147736909</v>
+        <v>3.231030138925002</v>
       </c>
       <c r="G67" t="n">
-        <v>0.3573578938343937</v>
+        <v>0.3573578950905431</v>
       </c>
       <c r="H67" t="n">
-        <v>1.077010049245636</v>
+        <v>1.077010046308334</v>
       </c>
     </row>
     <row r="68">
@@ -2124,25 +2124,25 @@
         <v>4.5294</v>
       </c>
       <c r="B68" t="n">
-        <v>1.247730618800643e-12</v>
+        <v>2.505048795540112e-13</v>
       </c>
       <c r="C68" t="n">
-        <v>-6.579446117122706e-13</v>
+        <v>2.501535886679957e-13</v>
       </c>
       <c r="D68" t="n">
-        <v>6.750607303925538e-13</v>
+        <v>9.205997333368188e-14</v>
       </c>
       <c r="E68" t="n">
-        <v>1.114198890932291e-12</v>
+        <v>1.738702754803687e-13</v>
       </c>
       <c r="F68" t="n">
-        <v>5.253041217169164</v>
+        <v>1.162044857555036</v>
       </c>
       <c r="G68" t="n">
-        <v>0.2623051049598699</v>
+        <v>0.7621211616667322</v>
       </c>
       <c r="H68" t="n">
-        <v>1.313260304292291</v>
+        <v>0.3873482858516786</v>
       </c>
     </row>
     <row r="69">
@@ -2150,25 +2150,25 @@
         <v>4.5351</v>
       </c>
       <c r="B69" t="n">
-        <v>1.637042446125239e-11</v>
+        <v>1.302716987792668e-12</v>
       </c>
       <c r="C69" t="n">
-        <v>2.275396247871067e-11</v>
+        <v>1.810702805420275e-12</v>
       </c>
       <c r="D69" t="n">
-        <v>9.243066933450861e-12</v>
+        <v>7.355398958970777e-13</v>
       </c>
       <c r="E69" t="n">
-        <v>2.15111661123951e-11</v>
+        <v>1.71180420969777e-12</v>
       </c>
       <c r="F69" t="n">
-        <v>0.7770126273732179</v>
+        <v>0.7770126252753269</v>
       </c>
       <c r="G69" t="n">
-        <v>0.6780689407515772</v>
+        <v>0.6780689414628345</v>
       </c>
       <c r="H69" t="n">
-        <v>0.3885063136866089</v>
+        <v>0.3885063126376634</v>
       </c>
     </row>
     <row r="70">
@@ -2176,25 +2176,25 @@
         <v>4.5402</v>
       </c>
       <c r="B70" t="n">
-        <v>1.116090104783762e-13</v>
+        <v>1.132639663039891e-12</v>
       </c>
       <c r="C70" t="n">
-        <v>2.680959813080601e-14</v>
+        <v>-1.168620015709912e-12</v>
       </c>
       <c r="D70" t="n">
-        <v>1.512182740006686e-13</v>
+        <v>1.029908450857175e-12</v>
       </c>
       <c r="E70" t="n">
-        <v>2.433978100944964e-13</v>
+        <v>1.553002006685745e-12</v>
       </c>
       <c r="F70" t="n">
-        <v>6.020910960763466</v>
+        <v>3.031702886280036</v>
       </c>
       <c r="G70" t="n">
-        <v>0.3041895064391067</v>
+        <v>0.3867629960448991</v>
       </c>
       <c r="H70" t="n">
-        <v>1.204182192152693</v>
+        <v>1.010567628760012</v>
       </c>
     </row>
     <row r="71">
@@ -2202,25 +2202,25 @@
         <v>4.5498</v>
       </c>
       <c r="B71" t="n">
-        <v>3.228609683041076e-12</v>
+        <v>2.569245944870073e-13</v>
       </c>
       <c r="C71" t="n">
-        <v>3.465240423334122e-12</v>
+        <v>2.757550710577083e-13</v>
       </c>
       <c r="D71" t="n">
-        <v>1.632624675270299e-12</v>
+        <v>1.29920143396208e-13</v>
       </c>
       <c r="E71" t="n">
-        <v>6.106773453024191e-12</v>
+        <v>4.859615906366385e-13</v>
       </c>
       <c r="F71" t="n">
-        <v>2.242774336280579</v>
+        <v>2.242774347086397</v>
       </c>
       <c r="G71" t="n">
-        <v>0.523572373935753</v>
+        <v>0.5235723718322254</v>
       </c>
       <c r="H71" t="n">
-        <v>0.7475914454268597</v>
+        <v>0.747591449028799</v>
       </c>
     </row>
     <row r="72">
@@ -2228,25 +2228,25 @@
         <v>4.5602</v>
       </c>
       <c r="B72" t="n">
-        <v>3.103776201950824e-12</v>
+        <v>8.030116645560659e-13</v>
       </c>
       <c r="C72" t="n">
-        <v>-2.978154503992991e-12</v>
+        <v>9.614754697690626e-13</v>
       </c>
       <c r="D72" t="n">
-        <v>1.890272695405321e-12</v>
+        <v>3.747293049922957e-13</v>
       </c>
       <c r="E72" t="n">
-        <v>1.891484831598344e-12</v>
+        <v>7.549316440478265e-13</v>
       </c>
       <c r="F72" t="n">
-        <v>3.495752811681892</v>
+        <v>0.8711972277856963</v>
       </c>
       <c r="G72" t="n">
-        <v>0.4785244326215011</v>
+        <v>0.8323724215072358</v>
       </c>
       <c r="H72" t="n">
-        <v>0.8739382029204731</v>
+        <v>0.2903990759285655</v>
       </c>
     </row>
     <row r="73">
@@ -2254,25 +2254,25 @@
         <v>4.5701</v>
       </c>
       <c r="B73" t="n">
-        <v>2.395769151527927e-11</v>
+        <v>1.906492513528374e-12</v>
       </c>
       <c r="C73" t="n">
-        <v>1.904504433109055e-11</v>
+        <v>1.515556476958722e-12</v>
       </c>
       <c r="D73" t="n">
-        <v>1.203640477000929e-11</v>
+        <v>9.57826657361605e-13</v>
       </c>
       <c r="E73" t="n">
-        <v>4.352130706936221e-11</v>
+        <v>3.463315573699595e-12</v>
       </c>
       <c r="F73" t="n">
-        <v>0.9608645797744191</v>
+        <v>0.960864582309961</v>
       </c>
       <c r="G73" t="n">
-        <v>0.6185159558125923</v>
+        <v>0.6185159550284558</v>
       </c>
       <c r="H73" t="n">
-        <v>0.4804322898872095</v>
+        <v>0.4804322911549805</v>
       </c>
     </row>
     <row r="74">
@@ -2280,25 +2280,25 @@
         <v>4.58</v>
       </c>
       <c r="B74" t="n">
-        <v>2.222656971864036e-11</v>
+        <v>1.763798192720315e-12</v>
       </c>
       <c r="C74" t="n">
-        <v>-2.211856114950345e-11</v>
+        <v>-3.68676243941927e-13</v>
       </c>
       <c r="D74" t="n">
-        <v>1.125681350933262e-11</v>
+        <v>8.958085897715725e-13</v>
       </c>
       <c r="E74" t="n">
-        <v>1.125723459862563e-11</v>
+        <v>1.904323547981199e-12</v>
       </c>
       <c r="F74" t="n">
-        <v>1.015782857943494</v>
+        <v>0.3301585997477636</v>
       </c>
       <c r="G74" t="n">
-        <v>0.7974330459838562</v>
+        <v>0.8478264688900231</v>
       </c>
       <c r="H74" t="n">
-        <v>0.3385942859811646</v>
+        <v>0.1650792998738818</v>
       </c>
     </row>
     <row r="75">
@@ -2306,25 +2306,25 @@
         <v>4.5901</v>
       </c>
       <c r="B75" t="n">
-        <v>4.874744105279445e-12</v>
+        <v>4.677223984659103e-13</v>
       </c>
       <c r="C75" t="n">
-        <v>-5.006669294815449e-12</v>
+        <v>-5.684803698031397e-14</v>
       </c>
       <c r="D75" t="n">
-        <v>2.403670999075306e-12</v>
+        <v>2.551570118413167e-13</v>
       </c>
       <c r="E75" t="n">
-        <v>2.686920457842367e-12</v>
+        <v>7.537669518022664e-13</v>
       </c>
       <c r="F75" t="n">
-        <v>0.8999329655571233</v>
+        <v>0.6766179751363073</v>
       </c>
       <c r="G75" t="n">
-        <v>0.8254439859676701</v>
+        <v>0.7129749534627097</v>
       </c>
       <c r="H75" t="n">
-        <v>0.2999776551857078</v>
+        <v>0.3383089875681536</v>
       </c>
     </row>
     <row r="76">
@@ -2332,25 +2332,25 @@
         <v>4.6003</v>
       </c>
       <c r="B76" t="n">
-        <v>2.831579780166495e-12</v>
+        <v>2.253299591477977e-13</v>
       </c>
       <c r="C76" t="n">
-        <v>1.135694567850519e-12</v>
+        <v>9.037570189868148e-14</v>
       </c>
       <c r="D76" t="n">
-        <v>1.517453071729977e-12</v>
+        <v>1.207550785080556e-13</v>
       </c>
       <c r="E76" t="n">
-        <v>4.496306035320695e-12</v>
+        <v>3.578046654522889e-13</v>
       </c>
       <c r="F76" t="n">
-        <v>2.535967045537641</v>
+        <v>2.535967059568477</v>
       </c>
       <c r="G76" t="n">
-        <v>0.6382071243398699</v>
+        <v>0.6382071218367082</v>
       </c>
       <c r="H76" t="n">
-        <v>0.6339917613844102</v>
+        <v>0.6339917648921192</v>
       </c>
     </row>
     <row r="77">
@@ -2358,25 +2358,25 @@
         <v>4.61</v>
       </c>
       <c r="B77" t="n">
-        <v>1.98236657067358e-11</v>
+        <v>1.37780810656939e-12</v>
       </c>
       <c r="C77" t="n">
-        <v>-2.190029606223563e-11</v>
+        <v>-7.690190626185083e-13</v>
       </c>
       <c r="D77" t="n">
-        <v>9.493782515618404e-12</v>
+        <v>7.79555359543062e-13</v>
       </c>
       <c r="E77" t="n">
-        <v>1.055542045348973e-11</v>
+        <v>1.258472764157708e-12</v>
       </c>
       <c r="F77" t="n">
-        <v>1.746128299758409</v>
+        <v>0.6664272463647891</v>
       </c>
       <c r="G77" t="n">
-        <v>0.7823222982845972</v>
+        <v>0.8810707213794085</v>
       </c>
       <c r="H77" t="n">
-        <v>0.4365320749396022</v>
+        <v>0.2221424154549297</v>
       </c>
     </row>
     <row r="78">
@@ -2384,25 +2384,25 @@
         <v>4.6202</v>
       </c>
       <c r="B78" t="n">
-        <v>1.778684440582838e-11</v>
+        <v>1.415432104831471e-12</v>
       </c>
       <c r="C78" t="n">
-        <v>-1.625697703707921e-11</v>
+        <v>-1.29368912829734e-12</v>
       </c>
       <c r="D78" t="n">
-        <v>8.934814410673395e-12</v>
+        <v>7.110099393353126e-13</v>
       </c>
       <c r="E78" t="n">
-        <v>9.1824195161728e-12</v>
+        <v>7.307137277616694e-13</v>
       </c>
       <c r="F78" t="n">
-        <v>1.261534176178595</v>
+        <v>1.261534190789783</v>
       </c>
       <c r="G78" t="n">
-        <v>0.8678671944779728</v>
+        <v>0.8678671920256033</v>
       </c>
       <c r="H78" t="n">
-        <v>0.3153835440446487</v>
+        <v>0.3153835476974458</v>
       </c>
     </row>
     <row r="79">
@@ -2410,25 +2410,25 @@
         <v>4.6299</v>
       </c>
       <c r="B79" t="n">
-        <v>5.013373111904109e-12</v>
+        <v>3.989515561087558e-13</v>
       </c>
       <c r="C79" t="n">
-        <v>2.986375000533109e-12</v>
+        <v>2.376481719627949e-13</v>
       </c>
       <c r="D79" t="n">
-        <v>2.437252710654964e-12</v>
+        <v>1.939504083673657e-13</v>
       </c>
       <c r="E79" t="n">
-        <v>4.546800021544463e-12</v>
+        <v>3.618228494240046e-13</v>
       </c>
       <c r="F79" t="n">
-        <v>0.8149698629839708</v>
+        <v>0.8149698639736671</v>
       </c>
       <c r="G79" t="n">
-        <v>0.8458831907919798</v>
+        <v>0.8458831905548346</v>
       </c>
       <c r="H79" t="n">
-        <v>0.2716566209946569</v>
+        <v>0.2716566213245557</v>
       </c>
     </row>
     <row r="80">
@@ -2436,25 +2436,25 @@
         <v>4.6352</v>
       </c>
       <c r="B80" t="n">
-        <v>8.051031519886624e-12</v>
+        <v>6.406807319044565e-13</v>
       </c>
       <c r="C80" t="n">
-        <v>-9.757432615320193e-13</v>
+        <v>-7.764718151789264e-14</v>
       </c>
       <c r="D80" t="n">
-        <v>3.402267937234641e-12</v>
+        <v>2.707438799167434e-13</v>
       </c>
       <c r="E80" t="n">
-        <v>5.490413611153953e-12</v>
+        <v>4.369132327909625e-13</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1914322055820723</v>
+        <v>0.1914322088274688</v>
       </c>
       <c r="G80" t="n">
-        <v>0.9789604366192298</v>
+        <v>0.9789604361044562</v>
       </c>
       <c r="H80" t="n">
-        <v>0.0638107351940241</v>
+        <v>0.06381073627582294</v>
       </c>
     </row>
     <row r="81">
@@ -2462,25 +2462,25 @@
         <v>4.64</v>
       </c>
       <c r="B81" t="n">
-        <v>2.931903528746892e-12</v>
+        <v>3.178790265865487e-13</v>
       </c>
       <c r="C81" t="n">
-        <v>6.792182579005251e-12</v>
+        <v>3.195233313886866e-13</v>
       </c>
       <c r="D81" t="n">
-        <v>1.195730628446715e-12</v>
+        <v>1.407895204997485e-13</v>
       </c>
       <c r="E81" t="n">
-        <v>2.993710419135121e-12</v>
+        <v>3.609439289418546e-13</v>
       </c>
       <c r="F81" t="n">
-        <v>1.633413481809109</v>
+        <v>0.969257679380458</v>
       </c>
       <c r="G81" t="n">
-        <v>0.8971794222489845</v>
+        <v>0.9144211486919712</v>
       </c>
       <c r="H81" t="n">
-        <v>0.3266826963618218</v>
+        <v>0.2423144198451145</v>
       </c>
     </row>
     <row r="82">
@@ -2488,25 +2488,25 @@
         <v>4.65</v>
       </c>
       <c r="B82" t="n">
-        <v>3.163858185497952e-12</v>
+        <v>2.517718345672721e-13</v>
       </c>
       <c r="C82" t="n">
-        <v>9.655260936959529e-13</v>
+        <v>7.683412469083503e-14</v>
       </c>
       <c r="D82" t="n">
-        <v>1.490297270412075e-12</v>
+        <v>1.185940886078342e-13</v>
       </c>
       <c r="E82" t="n">
-        <v>2.723641032734539e-12</v>
+        <v>2.167404666925723e-13</v>
       </c>
       <c r="F82" t="n">
-        <v>2.3569040870755</v>
+        <v>2.356904087049567</v>
       </c>
       <c r="G82" t="n">
-        <v>0.6704289881096064</v>
+        <v>0.670428988114309</v>
       </c>
       <c r="H82" t="n">
-        <v>0.5892260217688751</v>
+        <v>0.5892260217623918</v>
       </c>
     </row>
     <row r="83">
@@ -2514,25 +2514,25 @@
         <v>4.6701</v>
       </c>
       <c r="B83" t="n">
-        <v>2.991774958474164e-12</v>
+        <v>4.451199241192855e-13</v>
       </c>
       <c r="C83" t="n">
-        <v>4.376920518796823e-12</v>
+        <v>2.768240793292674e-15</v>
       </c>
       <c r="D83" t="n">
-        <v>1.176168498778854e-12</v>
+        <v>2.121058687397335e-13</v>
       </c>
       <c r="E83" t="n">
-        <v>2.321764345734958e-12</v>
+        <v>3.67482317096193e-13</v>
       </c>
       <c r="F83" t="n">
-        <v>1.689061386307209</v>
+        <v>0.5058410884215016</v>
       </c>
       <c r="G83" t="n">
-        <v>0.8902749465654227</v>
+        <v>0.9729298628958271</v>
       </c>
       <c r="H83" t="n">
-        <v>0.3378122772614419</v>
+        <v>0.1264602721053754</v>
       </c>
     </row>
     <row r="84">
@@ -2540,25 +2540,25 @@
         <v>4.6802</v>
       </c>
       <c r="B84" t="n">
-        <v>3.136321515831505e-12</v>
+        <v>2.495805360516811e-13</v>
       </c>
       <c r="C84" t="n">
-        <v>-8.588154337804066e-13</v>
+        <v>-6.834236069442274e-14</v>
       </c>
       <c r="D84" t="n">
-        <v>1.307321057486795e-12</v>
+        <v>1.040333041638087e-13</v>
       </c>
       <c r="E84" t="n">
-        <v>1.915453666115323e-12</v>
+        <v>1.524269594667041e-13</v>
       </c>
       <c r="F84" t="n">
-        <v>0.9501541487657306</v>
+        <v>0.9501541533745438</v>
       </c>
       <c r="G84" t="n">
-        <v>0.9664851633711151</v>
+        <v>0.9664851630181388</v>
       </c>
       <c r="H84" t="n">
-        <v>0.1900308297531461</v>
+        <v>0.1900308306749088</v>
       </c>
     </row>
     <row r="85">
@@ -2566,25 +2566,25 @@
         <v>4.6899</v>
       </c>
       <c r="B85" t="n">
-        <v>3.694454405755784e-12</v>
+        <v>2.939953405336935e-13</v>
       </c>
       <c r="C85" t="n">
-        <v>4.559594974388976e-12</v>
+        <v>3.62841039312438e-13</v>
       </c>
       <c r="D85" t="n">
-        <v>1.386822197135886e-12</v>
+        <v>1.103598038489642e-13</v>
       </c>
       <c r="E85" t="n">
-        <v>3.043643359333046e-12</v>
+        <v>2.422054425834358e-13</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1292027072258719</v>
+        <v>0.1292027081947078</v>
       </c>
       <c r="G85" t="n">
-        <v>0.9980010601650452</v>
+        <v>0.9980010601357089</v>
       </c>
       <c r="H85" t="n">
-        <v>0.03230067680646798</v>
+        <v>0.03230067704867695</v>
       </c>
     </row>
     <row r="86">
@@ -2592,25 +2592,25 @@
         <v>4.71</v>
       </c>
       <c r="B86" t="n">
-        <v>7.113442613888705e-12</v>
+        <v>5.6606977699803e-13</v>
       </c>
       <c r="C86" t="n">
-        <v>9.546148736202487e-13</v>
+        <v>7.596583820532697e-14</v>
       </c>
       <c r="D86" t="n">
-        <v>1.376901860595078e-12</v>
+        <v>1.095703687174323e-13</v>
       </c>
       <c r="E86" t="n">
-        <v>2.051245713778781e-12</v>
+        <v>1.632329474759922e-13</v>
       </c>
       <c r="F86" t="n">
-        <v>1.987292203045979</v>
+        <v>1.987292195008745</v>
       </c>
       <c r="G86" t="n">
-        <v>0.8509005954208599</v>
+        <v>0.8509005965294042</v>
       </c>
       <c r="H86" t="n">
-        <v>0.3974584406091958</v>
+        <v>0.397458439001749</v>
       </c>
     </row>
     <row r="87">
@@ -2618,25 +2618,25 @@
         <v>4.73</v>
       </c>
       <c r="B87" t="n">
-        <v>1.15151679213062e-11</v>
+        <v>9.163479484025634e-13</v>
       </c>
       <c r="C87" t="n">
-        <v>4.076329135533216e-12</v>
+        <v>3.243839644569757e-13</v>
       </c>
       <c r="D87" t="n">
-        <v>2.266084725936055e-12</v>
+        <v>1.803292926873152e-13</v>
       </c>
       <c r="E87" t="n">
-        <v>3.724680513029794e-12</v>
+        <v>2.96400657452825e-13</v>
       </c>
       <c r="F87" t="n">
-        <v>0.9192117816811518</v>
+        <v>0.9192118021796521</v>
       </c>
       <c r="G87" t="n">
-        <v>0.9688152196496268</v>
+        <v>0.9688152181324717</v>
       </c>
       <c r="H87" t="n">
-        <v>0.1838423563362304</v>
+        <v>0.1838423604359304</v>
       </c>
     </row>
     <row r="88">
@@ -2644,25 +2644,25 @@
         <v>4.75</v>
       </c>
       <c r="B88" t="n">
-        <v>5.41694352942075e-12</v>
+        <v>4.310666699751802e-13</v>
       </c>
       <c r="C88" t="n">
-        <v>2.481034000005628e-12</v>
+        <v>1.97434412952821e-13</v>
       </c>
       <c r="D88" t="n">
-        <v>1.631481481446881e-12</v>
+        <v>1.29829171126928e-13</v>
       </c>
       <c r="E88" t="n">
-        <v>3.126252384349362e-12</v>
+        <v>2.487792600868117e-13</v>
       </c>
       <c r="F88" t="n">
-        <v>3.583261055373405</v>
+        <v>3.583261075484921</v>
       </c>
       <c r="G88" t="n">
-        <v>0.6108283103869975</v>
+        <v>0.6108283073631766</v>
       </c>
       <c r="H88" t="n">
-        <v>0.716652211074681</v>
+        <v>0.7166522150969842</v>
       </c>
     </row>
     <row r="89">
@@ -2670,25 +2670,25 @@
         <v>4.7552</v>
       </c>
       <c r="B89" t="n">
-        <v>2.707389643584598e-12</v>
+        <v>2.717647739437012e-13</v>
       </c>
       <c r="C89" t="n">
-        <v>3.019759155890868e-12</v>
+        <v>1.320588088785226e-13</v>
       </c>
       <c r="D89" t="n">
-        <v>1.025641145624378e-12</v>
+        <v>1.231053965862193e-13</v>
       </c>
       <c r="E89" t="n">
-        <v>2.037306167630425e-12</v>
+        <v>2.401285704870246e-13</v>
       </c>
       <c r="F89" t="n">
-        <v>1.538228868131527</v>
+        <v>1.164803963732747</v>
       </c>
       <c r="G89" t="n">
-        <v>0.9086164979450673</v>
+        <v>0.883858720516129</v>
       </c>
       <c r="H89" t="n">
-        <v>0.3076457736263054</v>
+        <v>0.2912009909331867</v>
       </c>
     </row>
     <row r="90">
@@ -2696,25 +2696,25 @@
         <v>4.7589</v>
       </c>
       <c r="B90" t="n">
-        <v>2.309499973839904e-12</v>
+        <v>4.110057661716658e-13</v>
       </c>
       <c r="C90" t="n">
-        <v>4.39770526951483e-12</v>
+        <v>1.036771087487528e-13</v>
       </c>
       <c r="D90" t="n">
-        <v>1.370455013092961e-12</v>
+        <v>1.924707681584491e-13</v>
       </c>
       <c r="E90" t="n">
-        <v>3.367286295730626e-12</v>
+        <v>3.183560123028666e-13</v>
       </c>
       <c r="F90" t="n">
-        <v>2.322885171378274</v>
+        <v>0.2701380014367457</v>
       </c>
       <c r="G90" t="n">
-        <v>0.5081508984367313</v>
+        <v>0.8736556267423503</v>
       </c>
       <c r="H90" t="n">
-        <v>0.7742950571260914</v>
+        <v>0.1350690007183729</v>
       </c>
     </row>
     <row r="91">
@@ -2722,25 +2722,25 @@
         <v>4.77</v>
       </c>
       <c r="B91" t="n">
-        <v>3.626298640719512e-12</v>
+        <v>2.885716769012949e-13</v>
       </c>
       <c r="C91" t="n">
-        <v>3.777436030444711e-12</v>
+        <v>3.005988084210749e-13</v>
       </c>
       <c r="D91" t="n">
-        <v>1.415311551544694e-12</v>
+        <v>1.126269146693637e-13</v>
       </c>
       <c r="E91" t="n">
-        <v>2.891340993786809e-12</v>
+        <v>2.300856056143014e-13</v>
       </c>
       <c r="F91" t="n">
-        <v>1.88139098953166</v>
+        <v>1.881390987976812</v>
       </c>
       <c r="G91" t="n">
-        <v>0.865301394887837</v>
+        <v>0.8653013950961213</v>
       </c>
       <c r="H91" t="n">
-        <v>0.376278197906332</v>
+        <v>0.3762781975953624</v>
       </c>
     </row>
     <row r="92">
@@ -2748,25 +2748,25 @@
         <v>4.775</v>
       </c>
       <c r="B92" t="n">
-        <v>5.633273428638348e-12</v>
+        <v>4.482816559537811e-13</v>
       </c>
       <c r="C92" t="n">
-        <v>-1.560783045306242e-12</v>
+        <v>-1.242031683610643e-13</v>
       </c>
       <c r="D92" t="n">
-        <v>2.32404617527072e-12</v>
+        <v>1.849417182798878e-13</v>
       </c>
       <c r="E92" t="n">
-        <v>3.503381085846141e-12</v>
+        <v>2.787902087936484e-13</v>
       </c>
       <c r="F92" t="n">
-        <v>1.023886116226278</v>
+        <v>1.023886123984512</v>
       </c>
       <c r="G92" t="n">
-        <v>0.9606162758421888</v>
+        <v>0.9606162752015767</v>
       </c>
       <c r="H92" t="n">
-        <v>0.2047772232452556</v>
+        <v>0.2047772247969025</v>
       </c>
     </row>
     <row r="93">
@@ -2774,25 +2774,25 @@
         <v>4.7802</v>
       </c>
       <c r="B93" t="n">
-        <v>9.47433437663197e-12</v>
+        <v>7.539435747920577e-13</v>
       </c>
       <c r="C93" t="n">
-        <v>-3.859311164416231e-12</v>
+        <v>-3.071142250305268e-13</v>
       </c>
       <c r="D93" t="n">
-        <v>5.124777874696052e-12</v>
+        <v>4.07816865405881e-13</v>
       </c>
       <c r="E93" t="n">
-        <v>7.431623448661658e-12</v>
+        <v>5.913898033746977e-13</v>
       </c>
       <c r="F93" t="n">
-        <v>0.601794599138129</v>
+        <v>0.6017946012210916</v>
       </c>
       <c r="G93" t="n">
-        <v>0.9628640575132467</v>
+        <v>0.9628640572812981</v>
       </c>
       <c r="H93" t="n">
-        <v>0.1504486497845323</v>
+        <v>0.1504486503052729</v>
       </c>
     </row>
     <row r="94">
@@ -2800,25 +2800,25 @@
         <v>4.7901</v>
       </c>
       <c r="B94" t="n">
-        <v>1.846632393787072e-12</v>
+        <v>9.235554925853311e-13</v>
       </c>
       <c r="C94" t="n">
-        <v>2.534495983464871e-12</v>
+        <v>-5.006338068424064e-13</v>
       </c>
       <c r="D94" t="n">
-        <v>1.051696767436374e-12</v>
+        <v>5.598907288406569e-13</v>
       </c>
       <c r="E94" t="n">
-        <v>3.259578397796298e-12</v>
+        <v>7.179424665565704e-13</v>
       </c>
       <c r="F94" t="n">
-        <v>2.22579176501829</v>
+        <v>0.02521275374707351</v>
       </c>
       <c r="G94" t="n">
-        <v>0.526886080762152</v>
+        <v>0.8738380748047347</v>
       </c>
       <c r="H94" t="n">
-        <v>0.74193058833943</v>
+        <v>0.02521275374707351</v>
       </c>
     </row>
     <row r="95">
@@ -2826,25 +2826,25 @@
         <v>4.7999</v>
       </c>
       <c r="B95" t="n">
-        <v>3.865523935778317e-12</v>
+        <v>3.543239507336083e-13</v>
       </c>
       <c r="C95" t="n">
-        <v>-2.714624214565268e-12</v>
+        <v>-1.088589508022376e-13</v>
       </c>
       <c r="D95" t="n">
-        <v>1.835892421355161e-12</v>
+        <v>1.570929446271422e-13</v>
       </c>
       <c r="E95" t="n">
-        <v>2.129073604407739e-12</v>
+        <v>2.150609328586452e-13</v>
       </c>
       <c r="F95" t="n">
-        <v>1.4908562403939</v>
+        <v>0.83633891898039</v>
       </c>
       <c r="G95" t="n">
-        <v>0.8282599260190517</v>
+        <v>0.8407569381201454</v>
       </c>
       <c r="H95" t="n">
-        <v>0.372714060098475</v>
+        <v>0.27877963966013</v>
       </c>
     </row>
     <row r="96">
@@ -2852,25 +2852,25 @@
         <v>4.81</v>
       </c>
       <c r="B96" t="n">
-        <v>5.090619181404076e-12</v>
+        <v>4.050986026701307e-13</v>
       </c>
       <c r="C96" t="n">
-        <v>-2.173759598584658e-12</v>
+        <v>-1.729822922862991e-13</v>
       </c>
       <c r="D96" t="n">
-        <v>2.442074039822939e-12</v>
+        <v>1.943340775189711e-13</v>
       </c>
       <c r="E96" t="n">
-        <v>3.569930419017187e-12</v>
+        <v>2.840860365389524e-13</v>
       </c>
       <c r="F96" t="n">
-        <v>0.8230185283170069</v>
+        <v>0.8230185287460763</v>
       </c>
       <c r="G96" t="n">
-        <v>0.9353357416907899</v>
+        <v>0.9353357416322892</v>
       </c>
       <c r="H96" t="n">
-        <v>0.2057546320792517</v>
+        <v>0.2057546321865191</v>
       </c>
     </row>
     <row r="97">
@@ -2878,25 +2878,25 @@
         <v>4.8122</v>
       </c>
       <c r="B97" t="n">
-        <v>3.373918015178649e-12</v>
+        <v>2.684878646248337e-13</v>
       </c>
       <c r="C97" t="n">
-        <v>1.037701147500134e-12</v>
+        <v>8.257763374328952e-14</v>
       </c>
       <c r="D97" t="n">
-        <v>1.33730045192214e-12</v>
+        <v>1.06418988552695e-13</v>
       </c>
       <c r="E97" t="n">
-        <v>2.59293976462163e-12</v>
+        <v>2.0633959030363e-13</v>
       </c>
       <c r="F97" t="n">
-        <v>1.483462475890444</v>
+        <v>1.483462479946255</v>
       </c>
       <c r="G97" t="n">
-        <v>0.9149703141513622</v>
+        <v>0.9149703136872195</v>
       </c>
       <c r="H97" t="n">
-        <v>0.2966924951780888</v>
+        <v>0.2966924959892509</v>
       </c>
     </row>
     <row r="98">
@@ -2904,25 +2904,25 @@
         <v>4.8153</v>
       </c>
       <c r="B98" t="n">
-        <v>4.059422408110378e-12</v>
+        <v>3.230385712644153e-13</v>
       </c>
       <c r="C98" t="n">
-        <v>-2.478599148369097e-13</v>
+        <v>-1.972406537807438e-14</v>
       </c>
       <c r="D98" t="n">
-        <v>1.647170678756891e-12</v>
+        <v>1.310776777405413e-13</v>
       </c>
       <c r="E98" t="n">
-        <v>2.817759343706716e-12</v>
+        <v>2.242301639119813e-13</v>
       </c>
       <c r="F98" t="n">
-        <v>0.728362929241035</v>
+        <v>0.7283629258356402</v>
       </c>
       <c r="G98" t="n">
-        <v>0.9813758625577379</v>
+        <v>0.9813758627533141</v>
       </c>
       <c r="H98" t="n">
-        <v>0.145672585848207</v>
+        <v>0.1456725851671281</v>
       </c>
     </row>
     <row r="99">
@@ -2930,25 +2930,25 @@
         <v>4.8201</v>
       </c>
       <c r="B99" t="n">
-        <v>4.183974464940846e-12</v>
+        <v>3.587636798551468e-13</v>
       </c>
       <c r="C99" t="n">
-        <v>-3.575806460676604e-12</v>
+        <v>-5.252420345793271e-14</v>
       </c>
       <c r="D99" t="n">
-        <v>1.616373069268751e-12</v>
+        <v>1.317074139321361e-13</v>
       </c>
       <c r="E99" t="n">
-        <v>1.674359381072641e-12</v>
+        <v>2.873135468556917e-13</v>
       </c>
       <c r="F99" t="n">
-        <v>1.416758670964688</v>
+        <v>0.5858771924076729</v>
       </c>
       <c r="G99" t="n">
-        <v>0.9224713138648555</v>
+        <v>0.9646200488444239</v>
       </c>
       <c r="H99" t="n">
-        <v>0.2833517341929376</v>
+        <v>0.1464692981019182</v>
       </c>
     </row>
     <row r="100">
@@ -2956,25 +2956,25 @@
         <v>4.8299</v>
       </c>
       <c r="B100" t="n">
-        <v>5.457042360127323e-12</v>
+        <v>4.342576327579477e-13</v>
       </c>
       <c r="C100" t="n">
-        <v>3.809761825873789e-13</v>
+        <v>3.031712135653827e-14</v>
       </c>
       <c r="D100" t="n">
-        <v>1.419099728343021e-12</v>
+        <v>1.129283682011698e-13</v>
       </c>
       <c r="E100" t="n">
-        <v>2.221123186897442e-12</v>
+        <v>1.767513670899688e-13</v>
       </c>
       <c r="F100" t="n">
-        <v>1.06436906999147</v>
+        <v>1.064369070824668</v>
       </c>
       <c r="G100" t="n">
-        <v>0.9572086873001449</v>
+        <v>0.9572086872286868</v>
       </c>
       <c r="H100" t="n">
-        <v>0.212873813998294</v>
+        <v>0.2128738141649336</v>
       </c>
     </row>
     <row r="101">
@@ -2982,25 +2982,25 @@
         <v>4.85</v>
       </c>
       <c r="B101" t="n">
-        <v>5.781988888374444e-12</v>
+        <v>4.601160564197803e-13</v>
       </c>
       <c r="C101" t="n">
-        <v>1.0790859841802e-12</v>
+        <v>8.5870934460702e-14</v>
       </c>
       <c r="D101" t="n">
-        <v>1.23469465962389e-12</v>
+        <v>9.825387922340367e-14</v>
       </c>
       <c r="E101" t="n">
-        <v>2.07636274528999e-12</v>
+        <v>1.652316972804937e-13</v>
       </c>
       <c r="F101" t="n">
-        <v>1.061140324410213</v>
+        <v>1.061140326242084</v>
       </c>
       <c r="G101" t="n">
-        <v>0.9574851890228884</v>
+        <v>0.9574851888662423</v>
       </c>
       <c r="H101" t="n">
-        <v>0.2122280648820425</v>
+        <v>0.2122280652484167</v>
       </c>
     </row>
     <row r="102">
@@ -3008,25 +3008,25 @@
         <v>4.8663</v>
       </c>
       <c r="B102" t="n">
-        <v>1.315732254351499e-11</v>
+        <v>1.047026459905488e-12</v>
       </c>
       <c r="C102" t="n">
-        <v>3.049185665722453e-12</v>
+        <v>2.426464864033572e-13</v>
       </c>
       <c r="D102" t="n">
-        <v>1.762583158783304e-12</v>
+        <v>1.402619111996941e-13</v>
       </c>
       <c r="E102" t="n">
-        <v>2.948136171666304e-12</v>
+        <v>2.346052221969007e-13</v>
       </c>
       <c r="F102" t="n">
-        <v>5.091737242989613</v>
+        <v>5.091737246311093</v>
       </c>
       <c r="G102" t="n">
-        <v>0.4047874366191608</v>
+        <v>0.4047874362212715</v>
       </c>
       <c r="H102" t="n">
-        <v>1.018347448597922</v>
+        <v>1.018347449262219</v>
       </c>
     </row>
     <row r="103">
@@ -3034,25 +3034,25 @@
         <v>4.8899</v>
       </c>
       <c r="B103" t="n">
-        <v>1.056232275050343e-11</v>
+        <v>8.405229391770194e-13</v>
       </c>
       <c r="C103" t="n">
-        <v>-3.385414416227367e-14</v>
+        <v>-2.694028049656957e-15</v>
       </c>
       <c r="D103" t="n">
-        <v>1.301076425870638e-12</v>
+        <v>1.035363723721468e-13</v>
       </c>
       <c r="E103" t="n">
-        <v>2.04107268377695e-12</v>
+        <v>1.624234035298242e-13</v>
       </c>
       <c r="F103" t="n">
-        <v>2.960157442768134</v>
+        <v>2.960157488988528</v>
       </c>
       <c r="G103" t="n">
-        <v>0.7061285018161125</v>
+        <v>0.706128494690788</v>
       </c>
       <c r="H103" t="n">
-        <v>0.5920314885536268</v>
+        <v>0.5920314977977057</v>
       </c>
     </row>
     <row r="104">
@@ -3060,25 +3060,25 @@
         <v>4.8999</v>
       </c>
       <c r="B104" t="n">
-        <v>4.604332863426477e-12</v>
+        <v>3.664011677425199e-13</v>
       </c>
       <c r="C104" t="n">
-        <v>-2.626498352121888e-12</v>
+        <v>-2.090100975582069e-13</v>
       </c>
       <c r="D104" t="n">
-        <v>1.686289052630556e-12</v>
+        <v>1.341906191119562e-13</v>
       </c>
       <c r="E104" t="n">
-        <v>1.925269446012504e-12</v>
+        <v>1.532080746207564e-13</v>
       </c>
       <c r="F104" t="n">
-        <v>3.206236061652013</v>
+        <v>3.20623605995781</v>
       </c>
       <c r="G104" t="n">
-        <v>0.5239243047446009</v>
+        <v>0.5239243050179236</v>
       </c>
       <c r="H104" t="n">
-        <v>0.8015590154130032</v>
+        <v>0.8015590149894525</v>
       </c>
     </row>
     <row r="105">
@@ -3086,25 +3086,25 @@
         <v>4.9101</v>
       </c>
       <c r="B105" t="n">
-        <v>6.68673096394898e-12</v>
+        <v>5.321131430055728e-13</v>
       </c>
       <c r="C105" t="n">
-        <v>-2.842853613690643e-13</v>
+        <v>-2.262271052399667e-14</v>
       </c>
       <c r="D105" t="n">
-        <v>1.992414554362489e-12</v>
+        <v>1.585513124487157e-13</v>
       </c>
       <c r="E105" t="n">
-        <v>3.933047664681291e-12</v>
+        <v>3.129819888554916e-13</v>
       </c>
       <c r="F105" t="n">
-        <v>0.8981188037235804</v>
+        <v>0.8981188054006766</v>
       </c>
       <c r="G105" t="n">
-        <v>0.9248305529134653</v>
+        <v>0.9248305526731354</v>
       </c>
       <c r="H105" t="n">
-        <v>0.2245297009308951</v>
+        <v>0.2245297013501691</v>
       </c>
     </row>
     <row r="106">
@@ -3112,25 +3112,25 @@
         <v>4.92</v>
       </c>
       <c r="B106" t="n">
-        <v>3.163744027406725e-12</v>
+        <v>2.517627500299557e-13</v>
       </c>
       <c r="C106" t="n">
-        <v>2.571809835878149e-12</v>
+        <v>2.046581244524191e-13</v>
       </c>
       <c r="D106" t="n">
-        <v>1.331518978571385e-12</v>
+        <v>1.059589135909888e-13</v>
       </c>
       <c r="E106" t="n">
-        <v>2.749127415484546e-12</v>
+        <v>2.187686087037751e-13</v>
       </c>
       <c r="F106" t="n">
-        <v>1.44008307301699</v>
+        <v>1.440083071761846</v>
       </c>
       <c r="G106" t="n">
-        <v>0.8371993231813544</v>
+        <v>0.8371993234012979</v>
       </c>
       <c r="H106" t="n">
-        <v>0.3600207682542474</v>
+        <v>0.3600207679404614</v>
       </c>
     </row>
     <row r="107">
@@ -3138,25 +3138,25 @@
         <v>4.9262</v>
       </c>
       <c r="B107" t="n">
-        <v>3.050586896861826e-12</v>
+        <v>2.427579919220996e-13</v>
       </c>
       <c r="C107" t="n">
-        <v>2.049079963418063e-12</v>
+        <v>1.630606025997854e-13</v>
       </c>
       <c r="D107" t="n">
-        <v>1.026192779121527e-12</v>
+        <v>8.166182657553159e-14</v>
       </c>
       <c r="E107" t="n">
-        <v>1.809632539006397e-12</v>
+        <v>1.440059817871823e-13</v>
       </c>
       <c r="F107" t="n">
-        <v>1.598666502379978</v>
+        <v>1.598666495864426</v>
       </c>
       <c r="G107" t="n">
-        <v>0.9014105569929296</v>
+        <v>0.9014105577803938</v>
       </c>
       <c r="H107" t="n">
-        <v>0.3197333004759956</v>
+        <v>0.3197332991728852</v>
       </c>
     </row>
     <row r="108">
@@ -3164,25 +3164,25 @@
         <v>4.9302</v>
       </c>
       <c r="B108" t="n">
-        <v>5.001321269827648e-12</v>
+        <v>3.979925008941011e-13</v>
       </c>
       <c r="C108" t="n">
-        <v>1.892238150634231e-12</v>
+        <v>1.505795277654675e-13</v>
       </c>
       <c r="D108" t="n">
-        <v>1.640718488115064e-12</v>
+        <v>1.305642287215356e-13</v>
       </c>
       <c r="E108" t="n">
-        <v>2.761944177356389e-12</v>
+        <v>2.197885339803665e-13</v>
       </c>
       <c r="F108" t="n">
-        <v>1.042473364912622</v>
+        <v>1.042473370714091</v>
       </c>
       <c r="G108" t="n">
-        <v>0.9590677712701695</v>
+        <v>0.9590677707825803</v>
       </c>
       <c r="H108" t="n">
-        <v>0.2084946729825245</v>
+        <v>0.2084946741428181</v>
       </c>
     </row>
     <row r="109">
@@ -3190,25 +3190,25 @@
         <v>4.9369</v>
       </c>
       <c r="B109" t="n">
-        <v>4.94766177610078e-12</v>
+        <v>3.937224141509699e-13</v>
       </c>
       <c r="C109" t="n">
-        <v>2.20686022445237e-12</v>
+        <v>1.756163573907959e-13</v>
       </c>
       <c r="D109" t="n">
-        <v>1.275778149096693e-12</v>
+        <v>1.015231994209131e-13</v>
       </c>
       <c r="E109" t="n">
-        <v>2.169007326455133e-12</v>
+        <v>1.72604118784207e-13</v>
       </c>
       <c r="F109" t="n">
-        <v>8.357453447177313</v>
+        <v>8.357453496001616</v>
       </c>
       <c r="G109" t="n">
-        <v>0.137604946464112</v>
+        <v>0.1376049440612002</v>
       </c>
       <c r="H109" t="n">
-        <v>1.671490689435463</v>
+        <v>1.671490699200323</v>
       </c>
     </row>
     <row r="110">
@@ -3216,25 +3216,25 @@
         <v>4.9467</v>
       </c>
       <c r="B110" t="n">
-        <v>6.93840566670169e-12</v>
+        <v>5.521407794658591e-13</v>
       </c>
       <c r="C110" t="n">
-        <v>3.565985266642742e-12</v>
+        <v>2.837720905165107e-13</v>
       </c>
       <c r="D110" t="n">
-        <v>1.600746296516511e-12</v>
+        <v>1.273833428368099e-13</v>
       </c>
       <c r="E110" t="n">
-        <v>2.489480124420859e-12</v>
+        <v>1.98106533478393e-13</v>
       </c>
       <c r="F110" t="n">
-        <v>1.154863510543426</v>
+        <v>1.154863502618735</v>
       </c>
       <c r="G110" t="n">
-        <v>0.9491336073108895</v>
+        <v>0.9491336080450512</v>
       </c>
       <c r="H110" t="n">
-        <v>0.2309727021086852</v>
+        <v>0.230972700523747</v>
       </c>
     </row>
     <row r="111">
@@ -3242,25 +3242,25 @@
         <v>4.9503</v>
       </c>
       <c r="B111" t="n">
-        <v>7.519605743344433e-12</v>
+        <v>5.983912111181594e-13</v>
       </c>
       <c r="C111" t="n">
-        <v>1.060541029658775e-11</v>
+        <v>8.439517319167622e-13</v>
       </c>
       <c r="D111" t="n">
-        <v>1.746921491176644e-12</v>
+        <v>1.390155953218534e-13</v>
       </c>
       <c r="E111" t="n">
-        <v>3.464009257099889e-12</v>
+        <v>2.756570982574458e-13</v>
       </c>
       <c r="F111" t="n">
-        <v>2.168631714185931</v>
+        <v>2.168631706213646</v>
       </c>
       <c r="G111" t="n">
-        <v>0.825353796422386</v>
+        <v>0.8253537975672081</v>
       </c>
       <c r="H111" t="n">
-        <v>0.4337263428371861</v>
+        <v>0.4337263412427291</v>
       </c>
     </row>
     <row r="112">
@@ -3268,25 +3268,25 @@
         <v>4.9568</v>
       </c>
       <c r="B112" t="n">
-        <v>5.465948145706366e-12</v>
+        <v>4.349663330739615e-13</v>
       </c>
       <c r="C112" t="n">
-        <v>4.321442825055942e-12</v>
+        <v>3.438894933741063e-13</v>
       </c>
       <c r="D112" t="n">
-        <v>1.671873859338141e-12</v>
+        <v>1.330434945414488e-13</v>
       </c>
       <c r="E112" t="n">
-        <v>3.17679208504334e-12</v>
+        <v>2.528010819261791e-13</v>
       </c>
       <c r="F112" t="n">
-        <v>0.9885164166412576</v>
+        <v>0.9885164166598072</v>
       </c>
       <c r="G112" t="n">
-        <v>0.963486675204918</v>
+        <v>0.9634866752034391</v>
       </c>
       <c r="H112" t="n">
-        <v>0.1977032833282515</v>
+        <v>0.1977032833319614</v>
       </c>
     </row>
     <row r="113">
@@ -3294,25 +3294,25 @@
         <v>4.9619</v>
       </c>
       <c r="B113" t="n">
-        <v>8.89315757004826e-12</v>
+        <v>7.076949946053102e-13</v>
       </c>
       <c r="C113" t="n">
-        <v>1.46617468633057e-12</v>
+        <v>1.166744755990065e-13</v>
       </c>
       <c r="D113" t="n">
-        <v>1.872317840010357e-12</v>
+        <v>1.489943196158945e-13</v>
       </c>
       <c r="E113" t="n">
-        <v>2.966163939275062e-12</v>
+        <v>2.360398265028455e-13</v>
       </c>
       <c r="F113" t="n">
-        <v>5.36959963663347</v>
+        <v>5.369599647179707</v>
       </c>
       <c r="G113" t="n">
-        <v>0.3724566678209812</v>
+        <v>0.372456666630272</v>
       </c>
       <c r="H113" t="n">
-        <v>1.073919927326694</v>
+        <v>1.073919929435941</v>
       </c>
     </row>
     <row r="114">
@@ -3320,25 +3320,25 @@
         <v>4.9647</v>
       </c>
       <c r="B114" t="n">
-        <v>1.095941753887863e-11</v>
+        <v>8.721227365800708e-13</v>
       </c>
       <c r="C114" t="n">
-        <v>-3.434442811229352e-12</v>
+        <v>-2.733042736137814e-13</v>
       </c>
       <c r="D114" t="n">
-        <v>2.497554049379654e-12</v>
+        <v>1.987490361888893e-13</v>
       </c>
       <c r="E114" t="n">
-        <v>3.585993401212854e-12</v>
+        <v>2.85364287843187e-13</v>
       </c>
       <c r="F114" t="n">
-        <v>2.894080798227515</v>
+        <v>2.894080789723241</v>
       </c>
       <c r="G114" t="n">
-        <v>0.7163113138230913</v>
+        <v>0.7163113151330283</v>
       </c>
       <c r="H114" t="n">
-        <v>0.578816159645503</v>
+        <v>0.5788161579446482</v>
       </c>
     </row>
     <row r="115">
@@ -3346,25 +3346,25 @@
         <v>4.9679</v>
       </c>
       <c r="B115" t="n">
-        <v>1.243775025286802e-11</v>
+        <v>9.897647159965245e-13</v>
       </c>
       <c r="C115" t="n">
-        <v>7.587110691120876e-12</v>
+        <v>6.037630858939049e-13</v>
       </c>
       <c r="D115" t="n">
-        <v>2.241939593838313e-12</v>
+        <v>1.784078842077252e-13</v>
       </c>
       <c r="E115" t="n">
-        <v>3.67053031197885e-12</v>
+        <v>2.92091521417782e-13</v>
       </c>
       <c r="F115" t="n">
-        <v>0.4046015108256324</v>
+        <v>0.4046014933047333</v>
       </c>
       <c r="G115" t="n">
-        <v>0.9952019030629932</v>
+        <v>0.995201903552804</v>
       </c>
       <c r="H115" t="n">
-        <v>0.0809203021651265</v>
+        <v>0.08092029866094666</v>
       </c>
     </row>
     <row r="116">
@@ -3372,25 +3372,25 @@
         <v>4.97</v>
       </c>
       <c r="B116" t="n">
-        <v>1.042785627183031e-11</v>
+        <v>8.298224360603785e-13</v>
       </c>
       <c r="C116" t="n">
-        <v>3.437724173857618e-12</v>
+        <v>2.735653965008993e-13</v>
       </c>
       <c r="D116" t="n">
-        <v>2.928410892713725e-12</v>
+        <v>2.330355344449026e-13</v>
       </c>
       <c r="E116" t="n">
-        <v>5.804966389595302e-12</v>
+        <v>4.61944547978647e-13</v>
       </c>
       <c r="F116" t="n">
-        <v>0.8147192123077492</v>
+        <v>0.8147192161017708</v>
       </c>
       <c r="G116" t="n">
-        <v>0.9760850209346971</v>
+        <v>0.9760850206878168</v>
       </c>
       <c r="H116" t="n">
-        <v>0.1629438424615499</v>
+        <v>0.1629438432203542</v>
       </c>
     </row>
     <row r="117">
@@ -3398,25 +3398,25 @@
         <v>4.9728</v>
       </c>
       <c r="B117" t="n">
-        <v>1.500537609321068e-11</v>
+        <v>1.194089890281049e-12</v>
       </c>
       <c r="C117" t="n">
-        <v>7.246924317209243e-12</v>
+        <v>5.766919161358297e-13</v>
       </c>
       <c r="D117" t="n">
-        <v>2.31233663613175e-12</v>
+        <v>1.840099029084017e-13</v>
       </c>
       <c r="E117" t="n">
-        <v>3.572618491409046e-12</v>
+        <v>2.842999463656988e-13</v>
       </c>
       <c r="F117" t="n">
-        <v>0.5459833674274928</v>
+        <v>0.545983357655712</v>
       </c>
       <c r="G117" t="n">
-        <v>0.9903426770604321</v>
+        <v>0.9903426774594322</v>
       </c>
       <c r="H117" t="n">
-        <v>0.1091966734854986</v>
+        <v>0.1091966715311424</v>
       </c>
     </row>
     <row r="118">
@@ -3424,25 +3424,25 @@
         <v>4.9746</v>
       </c>
       <c r="B118" t="n">
-        <v>1.531644965903789e-11</v>
+        <v>1.218844334902674e-12</v>
       </c>
       <c r="C118" t="n">
-        <v>5.278730612821176e-12</v>
+        <v>4.200680331853049e-13</v>
       </c>
       <c r="D118" t="n">
-        <v>2.73593263085365e-12</v>
+        <v>2.177186009637047e-13</v>
       </c>
       <c r="E118" t="n">
-        <v>4.422582681491086e-12</v>
+        <v>3.519379474926325e-13</v>
       </c>
       <c r="F118" t="n">
-        <v>1.867874552563405</v>
+        <v>1.867874533397945</v>
       </c>
       <c r="G118" t="n">
-        <v>0.8671083730103929</v>
+        <v>0.8671083755673639</v>
       </c>
       <c r="H118" t="n">
-        <v>0.373574910512681</v>
+        <v>0.373574906679589</v>
       </c>
     </row>
     <row r="119">
@@ -3450,25 +3450,25 @@
         <v>4.9847</v>
       </c>
       <c r="B119" t="n">
-        <v>1.854931302772491e-11</v>
+        <v>1.476107429322538e-12</v>
       </c>
       <c r="C119" t="n">
-        <v>9.251112202888966e-12</v>
+        <v>7.361801193542904e-13</v>
       </c>
       <c r="D119" t="n">
-        <v>2.296497595325578e-12</v>
+        <v>1.827494720280545e-13</v>
       </c>
       <c r="E119" t="n">
-        <v>3.662856252243811e-12</v>
+        <v>2.914808391771273e-13</v>
       </c>
       <c r="F119" t="n">
-        <v>12.71874731454277</v>
+        <v>12.71874733589231</v>
       </c>
       <c r="G119" t="n">
-        <v>0.02616190808847088</v>
+        <v>0.02616190786562588</v>
       </c>
       <c r="H119" t="n">
-        <v>2.543749462908554</v>
+        <v>2.543749467178461</v>
       </c>
     </row>
     <row r="120">
@@ -3476,25 +3476,25 @@
         <v>4.9901</v>
       </c>
       <c r="B120" t="n">
-        <v>1.693836896217321e-11</v>
+        <v>1.347912573671125e-12</v>
       </c>
       <c r="C120" t="n">
-        <v>1.451816772291384e-11</v>
+        <v>1.155319082572938e-12</v>
       </c>
       <c r="D120" t="n">
-        <v>3.020071401717036e-12</v>
+        <v>2.403296459379056e-13</v>
       </c>
       <c r="E120" t="n">
-        <v>5.217705471461448e-12</v>
+        <v>4.15211808433926e-13</v>
       </c>
       <c r="F120" t="n">
-        <v>6.403508013049947</v>
+        <v>6.403507984638167</v>
       </c>
       <c r="G120" t="n">
-        <v>0.268911065135777</v>
+        <v>0.2689110676269861</v>
       </c>
       <c r="H120" t="n">
-        <v>1.28070160260999</v>
+        <v>1.280701596927633</v>
       </c>
     </row>
     <row r="121">
@@ -3502,25 +3502,25 @@
         <v>4.9947</v>
       </c>
       <c r="B121" t="n">
-        <v>1.989847771679097e-11</v>
+        <v>1.583470545321864e-12</v>
       </c>
       <c r="C121" t="n">
-        <v>5.511142799127211e-12</v>
+        <v>4.385628083924195e-13</v>
       </c>
       <c r="D121" t="n">
-        <v>2.47092250886215e-12</v>
+        <v>1.966297656594659e-13</v>
       </c>
       <c r="E121" t="n">
-        <v>3.728885448702488e-12</v>
+        <v>2.967352756106169e-13</v>
       </c>
       <c r="F121" t="n">
-        <v>2.439681451163051</v>
+        <v>2.439681415434257</v>
       </c>
       <c r="G121" t="n">
-        <v>0.7855504908827642</v>
+        <v>0.7855504962288602</v>
       </c>
       <c r="H121" t="n">
-        <v>0.4879362902326101</v>
+        <v>0.4879362830868514</v>
       </c>
     </row>
     <row r="122">
@@ -3528,25 +3528,25 @@
         <v>5.0046</v>
       </c>
       <c r="B122" t="n">
-        <v>2.027611243261957e-11</v>
+        <v>1.613521759378327e-12</v>
       </c>
       <c r="C122" t="n">
-        <v>1.11128863927391e-11</v>
+        <v>8.843354015329462e-13</v>
       </c>
       <c r="D122" t="n">
-        <v>1.900394331758227e-12</v>
+        <v>1.512285758551075e-13</v>
       </c>
       <c r="E122" t="n">
-        <v>3.196878268023648e-12</v>
+        <v>2.543994894441052e-13</v>
       </c>
       <c r="F122" t="n">
-        <v>10.44444036327602</v>
+        <v>10.44444030699076</v>
       </c>
       <c r="G122" t="n">
-        <v>0.06357821874805615</v>
+        <v>0.06357822011116278</v>
       </c>
       <c r="H122" t="n">
-        <v>2.088888072655204</v>
+        <v>2.088888061398152</v>
       </c>
     </row>
     <row r="123">
@@ -3554,25 +3554,25 @@
         <v>5.01</v>
       </c>
       <c r="B123" t="n">
-        <v>1.966758161836427e-11</v>
+        <v>1.565096417216447e-12</v>
       </c>
       <c r="C123" t="n">
-        <v>6.069386105443862e-12</v>
+        <v>4.829864035342401e-13</v>
       </c>
       <c r="D123" t="n">
-        <v>2.776532329828288e-12</v>
+        <v>2.209494223378135e-13</v>
       </c>
       <c r="E123" t="n">
-        <v>4.736462897673793e-12</v>
+        <v>3.769157413513547e-13</v>
       </c>
       <c r="F123" t="n">
-        <v>2.471395859473184</v>
+        <v>2.471395862278547</v>
       </c>
       <c r="G123" t="n">
-        <v>0.7807966149960857</v>
+        <v>0.7807966145748408</v>
       </c>
       <c r="H123" t="n">
-        <v>0.4942791718946367</v>
+        <v>0.4942791724557094</v>
       </c>
     </row>
     <row r="124">
@@ -3580,25 +3580,25 @@
         <v>5.0148</v>
       </c>
       <c r="B124" t="n">
-        <v>1.499105458542158e-11</v>
+        <v>1.192950220817088e-12</v>
       </c>
       <c r="C124" t="n">
-        <v>4.436970532207814e-12</v>
+        <v>3.530828970259002e-13</v>
       </c>
       <c r="D124" t="n">
-        <v>2.18672131936119e-12</v>
+        <v>1.740137534848807e-13</v>
       </c>
       <c r="E124" t="n">
-        <v>3.180794662114919e-12</v>
+        <v>2.531195965222502e-13</v>
       </c>
       <c r="F124" t="n">
-        <v>1.131594397902824</v>
+        <v>1.131594402669132</v>
       </c>
       <c r="G124" t="n">
-        <v>0.95126918147927</v>
+        <v>0.9512691810459741</v>
       </c>
       <c r="H124" t="n">
-        <v>0.2263188795805648</v>
+        <v>0.2263188805338263</v>
       </c>
     </row>
     <row r="125">
@@ -3606,25 +3606,25 @@
         <v>5.0177</v>
       </c>
       <c r="B125" t="n">
-        <v>1.193866357806037e-11</v>
+        <v>9.500486604535233e-13</v>
       </c>
       <c r="C125" t="n">
-        <v>5.203171332158534e-12</v>
+        <v>4.140552214416064e-13</v>
       </c>
       <c r="D125" t="n">
-        <v>3.035443296517181e-12</v>
+        <v>2.415529024806965e-13</v>
       </c>
       <c r="E125" t="n">
-        <v>4.573737614602522e-12</v>
+        <v>3.639664747651608e-13</v>
       </c>
       <c r="F125" t="n">
-        <v>1.303488797918426</v>
+        <v>1.303488798739088</v>
       </c>
       <c r="G125" t="n">
-        <v>0.9345722751020149</v>
+        <v>0.9345722750173771</v>
       </c>
       <c r="H125" t="n">
-        <v>0.2606977595836852</v>
+        <v>0.2606977597478176</v>
       </c>
     </row>
     <row r="126">
@@ -3632,25 +3632,25 @@
         <v>5.0179</v>
       </c>
       <c r="B126" t="n">
-        <v>1.321128504972159e-11</v>
+        <v>1.05132066043137e-12</v>
       </c>
       <c r="C126" t="n">
-        <v>1.008807205732558e-11</v>
+        <v>8.027832681346734e-13</v>
       </c>
       <c r="D126" t="n">
-        <v>2.022216707376124e-12</v>
+        <v>1.609228923974712e-13</v>
       </c>
       <c r="E126" t="n">
-        <v>3.488056667949831e-12</v>
+        <v>2.77570730225435e-13</v>
       </c>
       <c r="F126" t="n">
-        <v>7.81465602937116</v>
+        <v>7.814656078615087</v>
       </c>
       <c r="G126" t="n">
-        <v>0.1667504606058441</v>
+        <v>0.1667504577312583</v>
       </c>
       <c r="H126" t="n">
-        <v>1.562931205874232</v>
+        <v>1.562931215723018</v>
       </c>
     </row>
     <row r="127">
@@ -3658,25 +3658,25 @@
         <v>5.0198</v>
       </c>
       <c r="B127" t="n">
-        <v>1.034241163044966e-11</v>
+        <v>8.23022967370372e-13</v>
       </c>
       <c r="C127" t="n">
-        <v>4.318742651107372e-12</v>
+        <v>3.436746223207996e-13</v>
       </c>
       <c r="D127" t="n">
-        <v>2.685547721309419e-12</v>
+        <v>2.137090972960927e-13</v>
       </c>
       <c r="E127" t="n">
-        <v>4.060238776514197e-12</v>
+        <v>3.231035358402211e-13</v>
       </c>
       <c r="F127" t="n">
-        <v>2.140233279760126</v>
+        <v>2.140233268621724</v>
       </c>
       <c r="G127" t="n">
-        <v>0.8294205636941638</v>
+        <v>0.8294205652847515</v>
       </c>
       <c r="H127" t="n">
-        <v>0.4280466559520251</v>
+        <v>0.4280466537243448</v>
       </c>
     </row>
     <row r="128">
@@ -3684,25 +3684,25 @@
         <v>5.0248</v>
       </c>
       <c r="B128" t="n">
-        <v>3.884664910865147e-12</v>
+        <v>3.091318115400574e-13</v>
       </c>
       <c r="C128" t="n">
-        <v>7.214233445979996e-13</v>
+        <v>5.74090460457488e-14</v>
       </c>
       <c r="D128" t="n">
-        <v>1.624551064736506e-12</v>
+        <v>1.292776662665135e-13</v>
       </c>
       <c r="E128" t="n">
-        <v>4.228538786489851e-12</v>
+        <v>3.364964249785978e-13</v>
       </c>
       <c r="F128" t="n">
-        <v>2.631293987545737</v>
+        <v>2.631293983532472</v>
       </c>
       <c r="G128" t="n">
-        <v>0.7566049703369851</v>
+        <v>0.7566049709481558</v>
       </c>
       <c r="H128" t="n">
-        <v>0.5262587975091474</v>
+        <v>0.5262587967064943</v>
       </c>
     </row>
     <row r="129">
@@ -3710,25 +3710,25 @@
         <v>5.0278</v>
       </c>
       <c r="B129" t="n">
-        <v>4.910902341471629e-12</v>
+        <v>3.907971913971495e-13</v>
       </c>
       <c r="C129" t="n">
-        <v>-2.472684593637263e-12</v>
+        <v>-1.967699882665129e-13</v>
       </c>
       <c r="D129" t="n">
-        <v>2.722285374089444e-12</v>
+        <v>2.166325869718035e-13</v>
       </c>
       <c r="E129" t="n">
-        <v>3.967430812079488e-12</v>
+        <v>3.157181128158536e-13</v>
       </c>
       <c r="F129" t="n">
-        <v>1.811127104259098</v>
+        <v>1.811127106552842</v>
       </c>
       <c r="G129" t="n">
-        <v>0.7704459627327536</v>
+        <v>0.7704459623128469</v>
       </c>
       <c r="H129" t="n">
-        <v>0.4527817760647745</v>
+        <v>0.4527817766382106</v>
       </c>
     </row>
     <row r="130">
@@ -3736,25 +3736,25 @@
         <v>5.0301</v>
       </c>
       <c r="B130" t="n">
-        <v>5.000275401079795e-12</v>
+        <v>3.979092744189589e-13</v>
       </c>
       <c r="C130" t="n">
-        <v>-4.819781158118022e-12</v>
+        <v>-3.835459990972439e-13</v>
       </c>
       <c r="D130" t="n">
-        <v>2.586526355329108e-12</v>
+        <v>2.058292273222001e-13</v>
       </c>
       <c r="E130" t="n">
-        <v>3.979907152433144e-12</v>
+        <v>3.167109479670995e-13</v>
       </c>
       <c r="F130" t="n">
-        <v>1.514026828590234</v>
+        <v>1.514026841264347</v>
       </c>
       <c r="G130" t="n">
-        <v>0.8241539200440815</v>
+        <v>0.8241539177938645</v>
       </c>
       <c r="H130" t="n">
-        <v>0.3785067071475585</v>
+        <v>0.3785067103160867</v>
       </c>
     </row>
     <row r="131">
@@ -3762,25 +3762,25 @@
         <v>5.0328</v>
       </c>
       <c r="B131" t="n">
-        <v>7.409803056454569e-12</v>
+        <v>5.896533920339878e-13</v>
       </c>
       <c r="C131" t="n">
-        <v>1.503803114190621e-12</v>
+        <v>1.196688499812393e-13</v>
       </c>
       <c r="D131" t="n">
-        <v>3.325200167586253e-12</v>
+        <v>2.646110215309049e-13</v>
       </c>
       <c r="E131" t="n">
-        <v>7.076120545461823e-12</v>
+        <v>5.630997808154022e-13</v>
       </c>
       <c r="F131" t="n">
-        <v>0.4290890109845012</v>
+        <v>0.4290890139505518</v>
       </c>
       <c r="G131" t="n">
-        <v>0.9341699534632228</v>
+        <v>0.9341699528377811</v>
       </c>
       <c r="H131" t="n">
-        <v>0.1430296703281671</v>
+        <v>0.1430296713168506</v>
       </c>
     </row>
     <row r="132">
@@ -3788,25 +3788,25 @@
         <v>5.0359</v>
       </c>
       <c r="B132" t="n">
-        <v>4.645294616310831e-12</v>
+        <v>3.696607999750713e-13</v>
       </c>
       <c r="C132" t="n">
-        <v>2.884495541100893e-12</v>
+        <v>2.295408619160314e-13</v>
       </c>
       <c r="D132" t="n">
-        <v>1.697109846197503e-12</v>
+        <v>1.350517106088245e-13</v>
       </c>
       <c r="E132" t="n">
-        <v>3.018179768374883e-12</v>
+        <v>2.401791147402504e-13</v>
       </c>
       <c r="F132" t="n">
-        <v>0.9053075733664344</v>
+        <v>0.905307574751069</v>
       </c>
       <c r="G132" t="n">
-        <v>0.969836197684341</v>
+        <v>0.9698361975834777</v>
       </c>
       <c r="H132" t="n">
-        <v>0.1810615146732869</v>
+        <v>0.1810615149502138</v>
       </c>
     </row>
     <row r="133">
@@ -3814,25 +3814,25 @@
         <v>5.0387</v>
       </c>
       <c r="B133" t="n">
-        <v>2.911906015100591e-12</v>
+        <v>2.317221179217701e-13</v>
       </c>
       <c r="C133" t="n">
-        <v>2.017528207345173e-12</v>
+        <v>1.605497945075728e-13</v>
       </c>
       <c r="D133" t="n">
-        <v>1.135009311829854e-12</v>
+        <v>9.032117119048526e-14</v>
       </c>
       <c r="E133" t="n">
-        <v>2.114086319314531e-12</v>
+        <v>1.682336439344055e-13</v>
       </c>
       <c r="F133" t="n">
-        <v>1.845653976279775</v>
+        <v>1.845653976365204</v>
       </c>
       <c r="G133" t="n">
-        <v>0.8700628798857168</v>
+        <v>0.8700628798743971</v>
       </c>
       <c r="H133" t="n">
-        <v>0.369130795255955</v>
+        <v>0.3691307952730408</v>
       </c>
     </row>
     <row r="134">
@@ -3840,25 +3840,25 @@
         <v>5.042</v>
       </c>
       <c r="B134" t="n">
-        <v>7.41863897876682e-12</v>
+        <v>5.903565326431969e-13</v>
       </c>
       <c r="C134" t="n">
-        <v>-3.903964947814919e-12</v>
+        <v>-3.106676595564929e-13</v>
       </c>
       <c r="D134" t="n">
-        <v>3.570123604796843e-12</v>
+        <v>2.841014094502569e-13</v>
       </c>
       <c r="E134" t="n">
-        <v>4.928027986627255e-12</v>
+        <v>3.921600068070863e-13</v>
       </c>
       <c r="F134" t="n">
-        <v>0.7139272366555784</v>
+        <v>0.7139272375768712</v>
       </c>
       <c r="G134" t="n">
-        <v>0.86992333612352</v>
+        <v>0.8699233359061962</v>
       </c>
       <c r="H134" t="n">
-        <v>0.2379757455518595</v>
+        <v>0.2379757458589571</v>
       </c>
     </row>
     <row r="135">
@@ -3866,25 +3866,25 @@
         <v>5.0448</v>
       </c>
       <c r="B135" t="n">
-        <v>5.954178407588633e-12</v>
+        <v>4.738184634338126e-13</v>
       </c>
       <c r="C135" t="n">
-        <v>-1.027013479305691e-12</v>
+        <v>-8.172713693343587e-14</v>
       </c>
       <c r="D135" t="n">
-        <v>2.842547777315788e-12</v>
+        <v>2.262027646056435e-13</v>
       </c>
       <c r="E135" t="n">
-        <v>4.875676665059893e-12</v>
+        <v>3.879940208229121e-13</v>
       </c>
       <c r="F135" t="n">
-        <v>1.419386295688468</v>
+        <v>1.419386302016721</v>
       </c>
       <c r="G135" t="n">
-        <v>0.9221809321845233</v>
+        <v>0.922180931484669</v>
       </c>
       <c r="H135" t="n">
-        <v>0.2838772591376936</v>
+        <v>0.2838772604033441</v>
       </c>
     </row>
     <row r="136">
@@ -3892,25 +3892,25 @@
         <v>5.05</v>
       </c>
       <c r="B136" t="n">
-        <v>5.019625375533902e-12</v>
+        <v>3.994490961696992e-13</v>
       </c>
       <c r="C136" t="n">
-        <v>-1.732580244993615e-12</v>
+        <v>-1.378743549990986e-13</v>
       </c>
       <c r="D136" t="n">
-        <v>2.233306990290328e-12</v>
+        <v>1.777209236523456e-13</v>
       </c>
       <c r="E136" t="n">
-        <v>3.616992002754042e-12</v>
+        <v>2.878310784377497e-13</v>
       </c>
       <c r="F136" t="n">
-        <v>1.985217869012708</v>
+        <v>1.985217870041079</v>
       </c>
       <c r="G136" t="n">
-        <v>0.8511866245049918</v>
+        <v>0.8511866243632278</v>
       </c>
       <c r="H136" t="n">
-        <v>0.3970435738025416</v>
+        <v>0.3970435740082159</v>
       </c>
     </row>
     <row r="137">
@@ -3918,25 +3918,25 @@
         <v>5.0548</v>
       </c>
       <c r="B137" t="n">
-        <v>3.605268075134774e-12</v>
+        <v>2.868981175104012e-13</v>
       </c>
       <c r="C137" t="n">
-        <v>-1.422590909809694e-12</v>
+        <v>-1.132061872080185e-13</v>
       </c>
       <c r="D137" t="n">
-        <v>1.57946528720932e-12</v>
+        <v>1.256898539955237e-13</v>
       </c>
       <c r="E137" t="n">
-        <v>2.655378819949281e-12</v>
+        <v>2.113083324491907e-13</v>
       </c>
       <c r="F137" t="n">
-        <v>0.7196878105820289</v>
+        <v>0.7196878088656509</v>
       </c>
       <c r="G137" t="n">
-        <v>0.9488790033060198</v>
+        <v>0.9488790035215058</v>
       </c>
       <c r="H137" t="n">
-        <v>0.1799219526455072</v>
+        <v>0.1799219522164127</v>
       </c>
     </row>
     <row r="138">
@@ -3944,25 +3944,25 @@
         <v>5.0649</v>
       </c>
       <c r="B138" t="n">
-        <v>5.538734296091331e-12</v>
+        <v>4.407584706071044e-13</v>
       </c>
       <c r="C138" t="n">
-        <v>1.529999398890183e-12</v>
+        <v>1.217534829459315e-13</v>
       </c>
       <c r="D138" t="n">
-        <v>1.934074067836527e-12</v>
+        <v>1.539087241939789e-13</v>
       </c>
       <c r="E138" t="n">
-        <v>3.098191281507489e-12</v>
+        <v>2.465462286936692e-13</v>
       </c>
       <c r="F138" t="n">
-        <v>2.159591149267046</v>
+        <v>2.159591131930501</v>
       </c>
       <c r="G138" t="n">
-        <v>0.8266508937481201</v>
+        <v>0.8266508962333089</v>
       </c>
       <c r="H138" t="n">
-        <v>0.4319182298534091</v>
+        <v>0.4319182263861002</v>
       </c>
     </row>
     <row r="139">
@@ -3970,25 +3970,25 @@
         <v>5.0699</v>
       </c>
       <c r="B139" t="n">
-        <v>6.703668201609024e-12</v>
+        <v>5.334609659543584e-13</v>
       </c>
       <c r="C139" t="n">
-        <v>-2.532764042738119e-12</v>
+        <v>-2.015509591659492e-13</v>
       </c>
       <c r="D139" t="n">
-        <v>2.962626249863716e-12</v>
+        <v>2.357583062011818e-13</v>
       </c>
       <c r="E139" t="n">
-        <v>4.71180477901135e-12</v>
+        <v>3.749535108551646e-13</v>
       </c>
       <c r="F139" t="n">
-        <v>2.121065360703076</v>
+        <v>2.121065358900385</v>
       </c>
       <c r="G139" t="n">
-        <v>0.8321524662233605</v>
+        <v>0.8321524664797839</v>
       </c>
       <c r="H139" t="n">
-        <v>0.4242130721406152</v>
+        <v>0.4242130717800771</v>
       </c>
     </row>
     <row r="140">
@@ -3996,25 +3996,25 @@
         <v>5.0745</v>
       </c>
       <c r="B140" t="n">
-        <v>1.020118344560656e-11</v>
+        <v>8.117843847926936e-13</v>
       </c>
       <c r="C140" t="n">
-        <v>1.125249481763891e-11</v>
+        <v>8.954450845445716e-13</v>
       </c>
       <c r="D140" t="n">
-        <v>1.861974588759741e-12</v>
+        <v>1.481712298285051e-13</v>
       </c>
       <c r="E140" t="n">
-        <v>3.242774009538581e-12</v>
+        <v>2.580517564779101e-13</v>
       </c>
       <c r="F140" t="n">
-        <v>2.453924241528153</v>
+        <v>2.453924257307036</v>
       </c>
       <c r="G140" t="n">
-        <v>0.7834176178721496</v>
+        <v>0.7834176155073522</v>
       </c>
       <c r="H140" t="n">
-        <v>0.4907848483056306</v>
+        <v>0.4907848514614073</v>
       </c>
     </row>
     <row r="141">
@@ -4022,25 +4022,25 @@
         <v>5.0842</v>
       </c>
       <c r="B141" t="n">
-        <v>6.886388895286637e-12</v>
+        <v>5.480014152077716e-13</v>
       </c>
       <c r="C141" t="n">
-        <v>5.287556052600926e-12</v>
+        <v>4.207703388976556e-13</v>
       </c>
       <c r="D141" t="n">
-        <v>1.818287755885262e-12</v>
+        <v>1.446947421828133e-13</v>
       </c>
       <c r="E141" t="n">
-        <v>3.328455927596226e-12</v>
+        <v>2.64870106874035e-13</v>
       </c>
       <c r="F141" t="n">
-        <v>1.835936238253232</v>
+        <v>1.835936229064832</v>
       </c>
       <c r="G141" t="n">
-        <v>0.8713485750469186</v>
+        <v>0.8713485762607172</v>
       </c>
       <c r="H141" t="n">
-        <v>0.3671872476506464</v>
+        <v>0.3671872458129665</v>
       </c>
     </row>
     <row r="142">
@@ -4048,25 +4048,25 @@
         <v>5.09</v>
       </c>
       <c r="B142" t="n">
-        <v>4.634897442763566e-12</v>
+        <v>3.688334191589075e-13</v>
       </c>
       <c r="C142" t="n">
-        <v>4.73595980817182e-12</v>
+        <v>3.768757055714859e-13</v>
       </c>
       <c r="D142" t="n">
-        <v>1.921516175901089e-12</v>
+        <v>1.529093987772627e-13</v>
       </c>
       <c r="E142" t="n">
-        <v>3.9220641354939e-12</v>
+        <v>3.121079468691381e-13</v>
       </c>
       <c r="F142" t="n">
-        <v>3.928421832983319</v>
+        <v>3.928421809364378</v>
       </c>
       <c r="G142" t="n">
-        <v>0.5597668861292684</v>
+        <v>0.5597668895595553</v>
       </c>
       <c r="H142" t="n">
-        <v>0.7856843665966639</v>
+        <v>0.7856843618728757</v>
       </c>
     </row>
     <row r="143">
@@ -4074,25 +4074,25 @@
         <v>5.0937</v>
       </c>
       <c r="B143" t="n">
-        <v>3.185309898790999e-12</v>
+        <v>2.534789076641992e-13</v>
       </c>
       <c r="C143" t="n">
-        <v>-5.128349844943669e-13</v>
+        <v>-4.081011141611811e-14</v>
       </c>
       <c r="D143" t="n">
-        <v>1.606905657238393e-12</v>
+        <v>1.278734889334573e-13</v>
       </c>
       <c r="E143" t="n">
-        <v>3.092824577602117e-12</v>
+        <v>2.461191592453923e-13</v>
       </c>
       <c r="F143" t="n">
-        <v>2.251610388191511</v>
+        <v>2.251610389065311</v>
       </c>
       <c r="G143" t="n">
-        <v>0.8133471030142216</v>
+        <v>0.8133471028868685</v>
       </c>
       <c r="H143" t="n">
-        <v>0.4503220776383022</v>
+        <v>0.4503220778130621</v>
       </c>
     </row>
     <row r="144">
@@ -4100,25 +4100,25 @@
         <v>5.0968</v>
       </c>
       <c r="B144" t="n">
-        <v>3.521432406978415e-12</v>
+        <v>2.802266869495236e-13</v>
       </c>
       <c r="C144" t="n">
-        <v>2.219200422688363e-13</v>
+        <v>1.765983635510641e-14</v>
       </c>
       <c r="D144" t="n">
-        <v>1.405869086789838e-12</v>
+        <v>1.118755071379899e-13</v>
       </c>
       <c r="E144" t="n">
-        <v>2.686610499129013e-12</v>
+        <v>2.13793670623867e-13</v>
       </c>
       <c r="F144" t="n">
-        <v>1.757638121140808</v>
+        <v>1.75763811745327</v>
       </c>
       <c r="G144" t="n">
-        <v>0.8815598178780704</v>
+        <v>0.881559818352589</v>
       </c>
       <c r="H144" t="n">
-        <v>0.3515276242281616</v>
+        <v>0.351527623490654</v>
       </c>
     </row>
     <row r="145">
@@ -4126,25 +4126,25 @@
         <v>5.0989</v>
       </c>
       <c r="B145" t="n">
-        <v>5.997220886342011e-12</v>
+        <v>4.77243674719436e-13</v>
       </c>
       <c r="C145" t="n">
-        <v>2.270470730110042e-12</v>
+        <v>1.806783198051934e-13</v>
       </c>
       <c r="D145" t="n">
-        <v>2.854100037029172e-12</v>
+        <v>2.271220646528143e-13</v>
       </c>
       <c r="E145" t="n">
-        <v>5.406565706788513e-12</v>
+        <v>4.302408284966726e-13</v>
       </c>
       <c r="F145" t="n">
-        <v>1.278847064416696</v>
+        <v>1.278847071461833</v>
       </c>
       <c r="G145" t="n">
-        <v>0.8649540828103094</v>
+        <v>0.8649540816219441</v>
       </c>
       <c r="H145" t="n">
-        <v>0.3197117661041741</v>
+        <v>0.3197117678654583</v>
       </c>
     </row>
     <row r="146">
@@ -4152,25 +4152,25 @@
         <v>5.1</v>
       </c>
       <c r="B146" t="n">
-        <v>5.026610577085205e-12</v>
+        <v>4.000049596319941e-13</v>
       </c>
       <c r="C146" t="n">
-        <v>-3.358106299400037e-13</v>
+        <v>-2.672296050457809e-14</v>
       </c>
       <c r="D146" t="n">
-        <v>2.106397948392417e-12</v>
+        <v>1.676218226685198e-13</v>
       </c>
       <c r="E146" t="n">
-        <v>3.115714476140384e-12</v>
+        <v>2.479406798860295e-13</v>
       </c>
       <c r="F146" t="n">
-        <v>2.250503540380803</v>
+        <v>2.250503545977071</v>
       </c>
       <c r="G146" t="n">
-        <v>0.8135084071988985</v>
+        <v>0.813508406383413</v>
       </c>
       <c r="H146" t="n">
-        <v>0.4501007080761606</v>
+        <v>0.4501007091954142</v>
       </c>
     </row>
     <row r="147">
@@ -4178,25 +4178,25 @@
         <v>5.1004</v>
       </c>
       <c r="B147" t="n">
-        <v>2.796270382833965e-12</v>
+        <v>7.999927900395476e-13</v>
       </c>
       <c r="C147" t="n">
-        <v>-5.255897076979101e-12</v>
+        <v>7.511867093024646e-13</v>
       </c>
       <c r="D147" t="n">
-        <v>1.715141003928761e-12</v>
+        <v>3.575717642329104e-13</v>
       </c>
       <c r="E147" t="n">
-        <v>6.428705969343464e-12</v>
+        <v>8.424155242955105e-13</v>
       </c>
       <c r="F147" t="n">
-        <v>3.90883692196717</v>
+        <v>0.8558496988891852</v>
       </c>
       <c r="G147" t="n">
-        <v>0.4184839973875163</v>
+        <v>0.8360670521490782</v>
       </c>
       <c r="H147" t="n">
-        <v>0.9772092304917924</v>
+        <v>0.2852832329630617</v>
       </c>
     </row>
     <row r="148">
@@ -4204,25 +4204,25 @@
         <v>5.1007</v>
       </c>
       <c r="B148" t="n">
-        <v>9.113632974438201e-12</v>
+        <v>7.252398688977579e-13</v>
       </c>
       <c r="C148" t="n">
-        <v>1.141588355574727e-12</v>
+        <v>9.084471530346821e-14</v>
       </c>
       <c r="D148" t="n">
-        <v>3.969269760941941e-12</v>
+        <v>3.158644514633502e-13</v>
       </c>
       <c r="E148" t="n">
-        <v>6.095559995998516e-12</v>
+        <v>4.850692518234219e-13</v>
       </c>
       <c r="F148" t="n">
-        <v>0.4697786455762702</v>
+        <v>0.4697786476342043</v>
       </c>
       <c r="G148" t="n">
-        <v>0.9763755576587156</v>
+        <v>0.9763755574676188</v>
       </c>
       <c r="H148" t="n">
-        <v>0.1174446613940675</v>
+        <v>0.1174446619085511</v>
       </c>
     </row>
     <row r="149">
@@ -4230,25 +4230,25 @@
         <v>5.1029</v>
       </c>
       <c r="B149" t="n">
-        <v>3.961299486329264e-12</v>
+        <v>3.152301971606239e-13</v>
       </c>
       <c r="C149" t="n">
-        <v>1.35775132171481e-12</v>
+        <v>1.080464166342669e-13</v>
       </c>
       <c r="D149" t="n">
-        <v>1.686941998861272e-12</v>
+        <v>1.342425788357003e-13</v>
       </c>
       <c r="E149" t="n">
-        <v>2.828368319562678e-12</v>
+        <v>2.250743992542427e-13</v>
       </c>
       <c r="F149" t="n">
-        <v>1.540570208712216</v>
+        <v>1.540570210029672</v>
       </c>
       <c r="G149" t="n">
-        <v>0.8194314811620711</v>
+        <v>0.8194314809272013</v>
       </c>
       <c r="H149" t="n">
-        <v>0.3851425521780539</v>
+        <v>0.3851425525074179</v>
       </c>
     </row>
     <row r="150">
@@ -4256,25 +4256,25 @@
         <v>5.1049</v>
       </c>
       <c r="B150" t="n">
-        <v>9.351014736677254e-12</v>
+        <v>7.441301098310398e-13</v>
       </c>
       <c r="C150" t="n">
-        <v>-4.356940562023719e-12</v>
+        <v>-3.467143143216782e-13</v>
       </c>
       <c r="D150" t="n">
-        <v>4.284670865478399e-12</v>
+        <v>3.409632742828648e-13</v>
       </c>
       <c r="E150" t="n">
-        <v>5.198599782699013e-12</v>
+        <v>4.1369142674829e-13</v>
       </c>
       <c r="F150" t="n">
-        <v>0.2291918216504415</v>
+        <v>0.2291918243484818</v>
       </c>
       <c r="G150" t="n">
-        <v>0.9939146080440996</v>
+        <v>0.9939146079062456</v>
       </c>
       <c r="H150" t="n">
-        <v>0.05729795541261037</v>
+        <v>0.05729795608712045</v>
       </c>
     </row>
     <row r="151">
@@ -4282,25 +4282,25 @@
         <v>5.1069</v>
       </c>
       <c r="B151" t="n">
-        <v>8.240543453237432e-12</v>
+        <v>6.55761613192252e-13</v>
       </c>
       <c r="C151" t="n">
-        <v>-3.158867928370837e-12</v>
+        <v>-2.51374724313488e-13</v>
       </c>
       <c r="D151" t="n">
-        <v>4.175574032151309e-12</v>
+        <v>3.32281622967641e-13</v>
       </c>
       <c r="E151" t="n">
-        <v>6.949483292311097e-12</v>
+        <v>5.530223078531419e-13</v>
       </c>
       <c r="F151" t="n">
-        <v>0.4769390408307085</v>
+        <v>0.4769390419889365</v>
       </c>
       <c r="G151" t="n">
-        <v>0.9239277955805616</v>
+        <v>0.9239277953291591</v>
       </c>
       <c r="H151" t="n">
-        <v>0.1589796802769028</v>
+        <v>0.1589796806629788</v>
       </c>
     </row>
     <row r="152">
@@ -4308,25 +4308,25 @@
         <v>5.1088</v>
       </c>
       <c r="B152" t="n">
-        <v>4.234007751331789e-12</v>
+        <v>3.369316310079773e-13</v>
       </c>
       <c r="C152" t="n">
-        <v>-7.278355110713639e-13</v>
+        <v>-5.791930851000892e-14</v>
       </c>
       <c r="D152" t="n">
-        <v>1.89395530539977e-12</v>
+        <v>1.507161744270922e-13</v>
       </c>
       <c r="E152" t="n">
-        <v>3.672245924178945e-12</v>
+        <v>2.922280451225326e-13</v>
       </c>
       <c r="F152" t="n">
-        <v>2.925384343014202</v>
+        <v>2.925384351151674</v>
       </c>
       <c r="G152" t="n">
-        <v>0.7114883011088845</v>
+        <v>0.7114882998548381</v>
       </c>
       <c r="H152" t="n">
-        <v>0.5850768686028404</v>
+        <v>0.5850768702303348</v>
       </c>
     </row>
     <row r="153">
@@ -4334,25 +4334,25 @@
         <v>5.11</v>
       </c>
       <c r="B153" t="n">
-        <v>2.736391997017765e-12</v>
+        <v>2.177551563527591e-13</v>
       </c>
       <c r="C153" t="n">
-        <v>6.263410968594813e-12</v>
+        <v>4.984264075830123e-13</v>
       </c>
       <c r="D153" t="n">
-        <v>1.425508475866217e-12</v>
+        <v>1.134383602715427e-13</v>
       </c>
       <c r="E153" t="n">
-        <v>5.675543980385862e-12</v>
+        <v>4.516454398353671e-13</v>
       </c>
       <c r="F153" t="n">
-        <v>2.249087771047589</v>
+        <v>2.249087767272199</v>
       </c>
       <c r="G153" t="n">
-        <v>0.6900530858796619</v>
+        <v>0.6900530865691471</v>
       </c>
       <c r="H153" t="n">
-        <v>0.5622719427618972</v>
+        <v>0.5622719418180498</v>
       </c>
     </row>
     <row r="154">
@@ -4360,25 +4360,25 @@
         <v>5.1108</v>
       </c>
       <c r="B154" t="n">
-        <v>4.332780583452255e-12</v>
+        <v>3.447917239270832e-13</v>
       </c>
       <c r="C154" t="n">
-        <v>2.667390686410419e-12</v>
+        <v>2.122642064292853e-13</v>
       </c>
       <c r="D154" t="n">
-        <v>1.661258360817249e-12</v>
+        <v>1.321987399715155e-13</v>
       </c>
       <c r="E154" t="n">
-        <v>3.371248827144241e-12</v>
+        <v>2.682754576638619e-13</v>
       </c>
       <c r="F154" t="n">
-        <v>1.578201555316546</v>
+        <v>1.578201554244979</v>
       </c>
       <c r="G154" t="n">
-        <v>0.903872772907707</v>
+        <v>0.9038727730360434</v>
       </c>
       <c r="H154" t="n">
-        <v>0.3156403110633093</v>
+        <v>0.3156403108489959</v>
       </c>
     </row>
     <row r="155">
@@ -4386,25 +4386,25 @@
         <v>5.1138</v>
       </c>
       <c r="B155" t="n">
-        <v>5.246880088927527e-12</v>
+        <v>4.754935647958916e-13</v>
       </c>
       <c r="C155" t="n">
-        <v>-4.462100765610986e-12</v>
+        <v>5.72300458232323e-14</v>
       </c>
       <c r="D155" t="n">
-        <v>2.689109851477063e-12</v>
+        <v>2.199265415147459e-13</v>
       </c>
       <c r="E155" t="n">
-        <v>3.112630467826835e-12</v>
+        <v>4.377836956426337e-13</v>
       </c>
       <c r="F155" t="n">
-        <v>1.982994223964606</v>
+        <v>0.6783151383807658</v>
       </c>
       <c r="G155" t="n">
-        <v>0.7388868821821344</v>
+        <v>0.8782922032147183</v>
       </c>
       <c r="H155" t="n">
-        <v>0.4957485559911515</v>
+        <v>0.2261050461269219</v>
       </c>
     </row>
     <row r="156">
@@ -4412,25 +4412,25 @@
         <v>5.1188</v>
       </c>
       <c r="B156" t="n">
-        <v>3.370204744605821e-12</v>
+        <v>2.681923725660764e-13</v>
       </c>
       <c r="C156" t="n">
-        <v>-1.81771669790669e-12</v>
+        <v>-1.446493001561059e-13</v>
       </c>
       <c r="D156" t="n">
-        <v>2.442912445093374e-12</v>
+        <v>1.944007954895595e-13</v>
       </c>
       <c r="E156" t="n">
-        <v>5.672435368438236e-12</v>
+        <v>4.513980636298364e-13</v>
       </c>
       <c r="F156" t="n">
-        <v>2.11825422073994</v>
+        <v>2.118254227967445</v>
       </c>
       <c r="G156" t="n">
-        <v>0.5482286469076754</v>
+        <v>0.5482286454525029</v>
       </c>
       <c r="H156" t="n">
-        <v>0.7060847402466468</v>
+        <v>0.7060847426558151</v>
       </c>
     </row>
     <row r="157">
@@ -4438,25 +4438,25 @@
         <v>5.1238</v>
       </c>
       <c r="B157" t="n">
-        <v>1.162698256969994e-11</v>
+        <v>9.252458742241777e-13</v>
       </c>
       <c r="C157" t="n">
-        <v>-1.149595899943874e-12</v>
+        <v>-9.148193564444127e-14</v>
       </c>
       <c r="D157" t="n">
-        <v>4.65370729839586e-12</v>
+        <v>3.703302596056993e-13</v>
       </c>
       <c r="E157" t="n">
-        <v>7.833308230394799e-12</v>
+        <v>6.233548630427132e-13</v>
       </c>
       <c r="F157" t="n">
-        <v>0.4249136127740555</v>
+        <v>0.4249136120354127</v>
       </c>
       <c r="G157" t="n">
-        <v>0.9946155231229475</v>
+        <v>0.9946155231449466</v>
       </c>
       <c r="H157" t="n">
-        <v>0.08498272255481111</v>
+        <v>0.08498272240708254</v>
       </c>
     </row>
     <row r="158">
@@ -4464,25 +4464,25 @@
         <v>5.1285</v>
       </c>
       <c r="B158" t="n">
-        <v>5.518058854711516e-12</v>
+        <v>4.39113171602416e-13</v>
       </c>
       <c r="C158" t="n">
-        <v>-4.951273050534158e-13</v>
+        <v>-3.940097769926813e-14</v>
       </c>
       <c r="D158" t="n">
-        <v>2.181922290509868e-12</v>
+        <v>1.736318589710249e-13</v>
       </c>
       <c r="E158" t="n">
-        <v>3.380096586099252e-12</v>
+        <v>2.689795401694725e-13</v>
       </c>
       <c r="F158" t="n">
-        <v>2.173183695450599</v>
+        <v>2.173183690124468</v>
       </c>
       <c r="G158" t="n">
-        <v>0.8246998463489539</v>
+        <v>0.8246998471144527</v>
       </c>
       <c r="H158" t="n">
-        <v>0.4346367390901199</v>
+        <v>0.4346367380248936</v>
       </c>
     </row>
     <row r="159">
@@ -4490,25 +4490,25 @@
         <v>5.1299</v>
       </c>
       <c r="B159" t="n">
-        <v>4.839065721395757e-12</v>
+        <v>3.850806141418847e-13</v>
       </c>
       <c r="C159" t="n">
-        <v>6.493968740588782e-12</v>
+        <v>5.167736124670157e-13</v>
       </c>
       <c r="D159" t="n">
-        <v>1.835589587594674e-12</v>
+        <v>1.460715782822208e-13</v>
       </c>
       <c r="E159" t="n">
-        <v>3.569062572752984e-12</v>
+        <v>2.840169755175424e-13</v>
       </c>
       <c r="F159" t="n">
-        <v>1.928302638588358</v>
+        <v>1.928302634445212</v>
       </c>
       <c r="G159" t="n">
-        <v>0.8589741565734346</v>
+        <v>0.8589741571359781</v>
       </c>
       <c r="H159" t="n">
-        <v>0.3856605277176716</v>
+        <v>0.3856605268890424</v>
       </c>
     </row>
     <row r="160">
@@ -4516,25 +4516,25 @@
         <v>5.1338</v>
       </c>
       <c r="B160" t="n">
-        <v>7.607207236037473e-12</v>
+        <v>6.053623163852338e-13</v>
       </c>
       <c r="C160" t="n">
-        <v>5.740240438239039e-12</v>
+        <v>4.567938204303423e-13</v>
       </c>
       <c r="D160" t="n">
-        <v>2.73515188802879e-12</v>
+        <v>2.176564714336851e-13</v>
       </c>
       <c r="E160" t="n">
-        <v>5.531711164089556e-12</v>
+        <v>4.401995878408166e-13</v>
       </c>
       <c r="F160" t="n">
-        <v>0.789274499171762</v>
+        <v>0.7892744921169667</v>
       </c>
       <c r="G160" t="n">
-        <v>0.9777123996897175</v>
+        <v>0.9777124001330468</v>
       </c>
       <c r="H160" t="n">
-        <v>0.1578548998343524</v>
+        <v>0.1578548984233933</v>
       </c>
     </row>
     <row r="161">
@@ -4542,25 +4542,25 @@
         <v>5.1389</v>
       </c>
       <c r="B161" t="n">
-        <v>8.24551966071031e-12</v>
+        <v>6.561576062118985e-13</v>
       </c>
       <c r="C161" t="n">
-        <v>2.748056975022537e-12</v>
+        <v>2.186834253518888e-13</v>
       </c>
       <c r="D161" t="n">
-        <v>2.925669833521329e-12</v>
+        <v>2.328174078912257e-13</v>
       </c>
       <c r="E161" t="n">
-        <v>5.311573468442364e-12</v>
+        <v>4.226815865434211e-13</v>
       </c>
       <c r="F161" t="n">
-        <v>0.4259871435719733</v>
+        <v>0.4259871435201743</v>
       </c>
       <c r="G161" t="n">
-        <v>0.9945834979611446</v>
+        <v>0.9945834979626924</v>
       </c>
       <c r="H161" t="n">
-        <v>0.08519742871439465</v>
+        <v>0.08519742870403486</v>
       </c>
     </row>
     <row r="162">
@@ -4568,25 +4568,25 @@
         <v>5.1417</v>
       </c>
       <c r="B162" t="n">
-        <v>8.351431508286374e-12</v>
+        <v>6.645858027876612e-13</v>
       </c>
       <c r="C162" t="n">
-        <v>3.540446733531897e-12</v>
+        <v>2.81739798152426e-13</v>
       </c>
       <c r="D162" t="n">
-        <v>3.021515912345902e-12</v>
+        <v>2.404445966210455e-13</v>
       </c>
       <c r="E162" t="n">
-        <v>5.59211197959831e-12</v>
+        <v>4.450061321349592e-13</v>
       </c>
       <c r="F162" t="n">
-        <v>0.7079132225174306</v>
+        <v>0.7079132140195595</v>
       </c>
       <c r="G162" t="n">
-        <v>0.982531557505594</v>
+        <v>0.9825315579780349</v>
       </c>
       <c r="H162" t="n">
-        <v>0.1415826445034861</v>
+        <v>0.1415826428039119</v>
       </c>
     </row>
     <row r="163">
@@ -4594,25 +4594,25 @@
         <v>5.1447</v>
       </c>
       <c r="B163" t="n">
-        <v>9.602025364439719e-12</v>
+        <v>7.641049010804012e-13</v>
       </c>
       <c r="C163" t="n">
-        <v>1.058669801704586e-12</v>
+        <v>8.424626618919724e-14</v>
       </c>
       <c r="D163" t="n">
-        <v>3.677537372411683e-12</v>
+        <v>2.926491258461663e-13</v>
       </c>
       <c r="E163" t="n">
-        <v>5.589926424163351e-12</v>
+        <v>4.448322112449385e-13</v>
       </c>
       <c r="F163" t="n">
-        <v>0.4996686204113149</v>
+        <v>0.4996686260552125</v>
       </c>
       <c r="G163" t="n">
-        <v>0.9921354219819764</v>
+        <v>0.9921354217754909</v>
       </c>
       <c r="H163" t="n">
-        <v>0.09993372408226299</v>
+        <v>0.0999337252110425</v>
       </c>
     </row>
     <row r="164">
@@ -4620,25 +4620,25 @@
         <v>5.148</v>
       </c>
       <c r="B164" t="n">
-        <v>1.345295171733652e-11</v>
+        <v>1.070551882695855e-12</v>
       </c>
       <c r="C164" t="n">
-        <v>2.228990734211692e-12</v>
+        <v>1.773774506052945e-13</v>
       </c>
       <c r="D164" t="n">
-        <v>4.763140683026681e-12</v>
+        <v>3.790386927531821e-13</v>
       </c>
       <c r="E164" t="n">
-        <v>8.699658186420788e-12</v>
+        <v>6.922968025434949e-13</v>
       </c>
       <c r="F164" t="n">
-        <v>0.350365169693048</v>
+        <v>0.3503651712756577</v>
       </c>
       <c r="G164" t="n">
-        <v>0.9965871859096309</v>
+        <v>0.9965871858729988</v>
       </c>
       <c r="H164" t="n">
-        <v>0.0700730339386096</v>
+        <v>0.07007303425513153</v>
       </c>
     </row>
     <row r="165">
@@ -4646,25 +4646,25 @@
         <v>5.15</v>
       </c>
       <c r="B165" t="n">
-        <v>1.160478395673697e-11</v>
+        <v>9.234793634234026e-13</v>
       </c>
       <c r="C165" t="n">
-        <v>-6.067857975683681e-12</v>
+        <v>-4.828647928089196e-13</v>
       </c>
       <c r="D165" t="n">
-        <v>4.867876001139181e-12</v>
+        <v>3.873732635495356e-13</v>
       </c>
       <c r="E165" t="n">
-        <v>6.168422090426126e-12</v>
+        <v>4.908674330423672e-13</v>
       </c>
       <c r="F165" t="n">
-        <v>1.674496059666502</v>
+        <v>1.674496063492458</v>
       </c>
       <c r="G165" t="n">
-        <v>0.8920970258234893</v>
+        <v>0.8920970253462427</v>
       </c>
       <c r="H165" t="n">
-        <v>0.3348992119333005</v>
+        <v>0.3348992126984917</v>
       </c>
     </row>
     <row r="166">
@@ -4672,25 +4672,25 @@
         <v>5.151</v>
       </c>
       <c r="B166" t="n">
-        <v>7.749400167806761e-12</v>
+        <v>6.166776711935169e-13</v>
       </c>
       <c r="C166" t="n">
-        <v>7.414325582429158e-12</v>
+        <v>5.900132842987893e-13</v>
       </c>
       <c r="D166" t="n">
-        <v>2.340942413675469e-12</v>
+        <v>1.862862785095076e-13</v>
       </c>
       <c r="E166" t="n">
-        <v>4.473776920974879e-12</v>
+        <v>3.560118558629518e-13</v>
       </c>
       <c r="F166" t="n">
-        <v>2.645323551646004</v>
+        <v>2.645323550781728</v>
       </c>
       <c r="G166" t="n">
-        <v>0.7544674059787457</v>
+        <v>0.7544674061104909</v>
       </c>
       <c r="H166" t="n">
-        <v>0.5290647103292008</v>
+        <v>0.5290647101563455</v>
       </c>
     </row>
     <row r="167">
@@ -4698,25 +4698,25 @@
         <v>5.157</v>
       </c>
       <c r="B167" t="n">
-        <v>1.043645263560406e-11</v>
+        <v>8.305065130255754e-13</v>
       </c>
       <c r="C167" t="n">
-        <v>1.130065625696055e-11</v>
+        <v>8.992776518511745e-13</v>
       </c>
       <c r="D167" t="n">
-        <v>2.569933673958119e-12</v>
+        <v>2.045088238779761e-13</v>
       </c>
       <c r="E167" t="n">
-        <v>4.724018675183851e-12</v>
+        <v>3.759254615532748e-13</v>
       </c>
       <c r="F167" t="n">
-        <v>3.858401361029212</v>
+        <v>3.858401372649495</v>
       </c>
       <c r="G167" t="n">
-        <v>0.5699776474428537</v>
+        <v>0.5699776457415752</v>
       </c>
       <c r="H167" t="n">
-        <v>0.7716802722058423</v>
+        <v>0.771680274529899</v>
       </c>
     </row>
     <row r="168">
@@ -4724,25 +4724,25 @@
         <v>5.1594</v>
       </c>
       <c r="B168" t="n">
-        <v>1.605611606347746e-11</v>
+        <v>1.27770511678183e-12</v>
       </c>
       <c r="C168" t="n">
-        <v>4.62634063092524e-12</v>
+        <v>3.681524932023273e-13</v>
       </c>
       <c r="D168" t="n">
-        <v>3.088697664805834e-12</v>
+        <v>2.457907505930328e-13</v>
       </c>
       <c r="E168" t="n">
-        <v>5.345973461066286e-12</v>
+        <v>4.254190508452778e-13</v>
       </c>
       <c r="F168" t="n">
-        <v>0.647490798332682</v>
+        <v>0.6474907998662235</v>
       </c>
       <c r="G168" t="n">
-        <v>0.9857257581201125</v>
+        <v>0.9857257580432466</v>
       </c>
       <c r="H168" t="n">
-        <v>0.1294981596665364</v>
+        <v>0.1294981599732447</v>
       </c>
     </row>
     <row r="169">
@@ -4750,25 +4750,25 @@
         <v>5.17</v>
       </c>
       <c r="B169" t="n">
-        <v>1.624366792421903e-11</v>
+        <v>1.292630021432135e-12</v>
       </c>
       <c r="C169" t="n">
-        <v>8.982667645122637e-12</v>
+        <v>7.148179812464882e-13</v>
       </c>
       <c r="D169" t="n">
-        <v>4.251789121747646e-12</v>
+        <v>3.383466280790563e-13</v>
       </c>
       <c r="E169" t="n">
-        <v>7.240660810048367e-12</v>
+        <v>5.761934800213944e-13</v>
       </c>
       <c r="F169" t="n">
-        <v>0.9164907426697517</v>
+        <v>0.9164907502407776</v>
       </c>
       <c r="G169" t="n">
-        <v>0.9690163016089114</v>
+        <v>0.969016301050284</v>
       </c>
       <c r="H169" t="n">
-        <v>0.1832981485339504</v>
+        <v>0.1832981500481555</v>
       </c>
     </row>
     <row r="170">
@@ -4776,25 +4776,25 @@
         <v>5.1898</v>
       </c>
       <c r="B170" t="n">
-        <v>1.682685318955115e-11</v>
+        <v>1.339038431649097e-12</v>
       </c>
       <c r="C170" t="n">
-        <v>1.211038327195479e-12</v>
+        <v>9.637137087329963e-14</v>
       </c>
       <c r="D170" t="n">
-        <v>3.04696848948212e-12</v>
+        <v>2.424700483011665e-13</v>
       </c>
       <c r="E170" t="n">
-        <v>4.327240368334618e-12</v>
+        <v>3.443508473153448e-13</v>
       </c>
       <c r="F170" t="n">
-        <v>0.843967435489701</v>
+        <v>0.8439674406343752</v>
       </c>
       <c r="G170" t="n">
-        <v>0.9741446133386453</v>
+        <v>0.9741446129908129</v>
       </c>
       <c r="H170" t="n">
-        <v>0.1687934870979402</v>
+        <v>0.1687934881268751</v>
       </c>
     </row>
     <row r="171">
@@ -4802,25 +4802,25 @@
         <v>5.21</v>
       </c>
       <c r="B171" t="n">
-        <v>1.753130105619874e-11</v>
+        <v>1.395096614463602e-12</v>
       </c>
       <c r="C171" t="n">
-        <v>7.119345830875406e-12</v>
+        <v>5.665395395763726e-13</v>
       </c>
       <c r="D171" t="n">
-        <v>3.692621944887878e-12</v>
+        <v>2.938495176139586e-13</v>
       </c>
       <c r="E171" t="n">
-        <v>5.942193287722504e-12</v>
+        <v>4.728647171330189e-13</v>
       </c>
       <c r="F171" t="n">
-        <v>2.917919639877241</v>
+        <v>2.917919657958372</v>
       </c>
       <c r="G171" t="n">
-        <v>0.7126386120022682</v>
+        <v>0.7126386092161074</v>
       </c>
       <c r="H171" t="n">
-        <v>0.5835839279754482</v>
+        <v>0.5835839315916744</v>
       </c>
     </row>
     <row r="172">
@@ -4828,25 +4828,25 @@
         <v>5.23</v>
       </c>
       <c r="B172" t="n">
-        <v>1.047780217029965e-11</v>
+        <v>8.337970043317185e-13</v>
       </c>
       <c r="C172" t="n">
-        <v>1.011217994794517e-11</v>
+        <v>8.04701712761831e-13</v>
       </c>
       <c r="D172" t="n">
-        <v>3.257505338864975e-12</v>
+        <v>2.592240383877546e-13</v>
       </c>
       <c r="E172" t="n">
-        <v>6.413032151645705e-12</v>
+        <v>5.10332883658991e-13</v>
       </c>
       <c r="F172" t="n">
-        <v>0.459543391881029</v>
+        <v>0.4595433913589046</v>
       </c>
       <c r="G172" t="n">
-        <v>0.9935298602705035</v>
+        <v>0.993529860287693</v>
       </c>
       <c r="H172" t="n">
-        <v>0.0919086783762058</v>
+        <v>0.09190867827178092</v>
       </c>
     </row>
     <row r="173">
@@ -4854,25 +4854,25 @@
         <v>5.2395</v>
       </c>
       <c r="B173" t="n">
-        <v>1.103882282727641e-11</v>
+        <v>8.784416102231511e-13</v>
       </c>
       <c r="C173" t="n">
-        <v>1.185269607442343e-11</v>
+        <v>9.432075861224474e-13</v>
       </c>
       <c r="D173" t="n">
-        <v>2.862978582078376e-12</v>
+        <v>2.278285966393666e-13</v>
       </c>
       <c r="E173" t="n">
-        <v>5.289913665270313e-12</v>
+        <v>4.209579543473512e-13</v>
       </c>
       <c r="F173" t="n">
-        <v>1.00444320987034</v>
+        <v>1.004443201904908</v>
       </c>
       <c r="G173" t="n">
-        <v>0.9622066020980986</v>
+        <v>0.9622066027434171</v>
       </c>
       <c r="H173" t="n">
-        <v>0.2008886419740679</v>
+        <v>0.2008886403809815</v>
       </c>
     </row>
     <row r="174">
@@ -4880,25 +4880,25 @@
         <v>5.2431</v>
       </c>
       <c r="B174" t="n">
-        <v>9.473652997541866e-12</v>
+        <v>7.538893507153067e-13</v>
       </c>
       <c r="C174" t="n">
-        <v>-7.029833679156696e-12</v>
+        <v>-5.594163885891024e-13</v>
       </c>
       <c r="D174" t="n">
-        <v>4.010204880804788e-12</v>
+        <v>3.191219642278107e-13</v>
       </c>
       <c r="E174" t="n">
-        <v>4.953582451848168e-12</v>
+        <v>3.941935659296267e-13</v>
       </c>
       <c r="F174" t="n">
-        <v>2.162253044847968</v>
+        <v>2.162253048475854</v>
       </c>
       <c r="G174" t="n">
-        <v>0.8262692130618022</v>
+        <v>0.8262692125414769</v>
       </c>
       <c r="H174" t="n">
-        <v>0.4324506089695935</v>
+        <v>0.4324506096951709</v>
       </c>
     </row>
     <row r="175">
@@ -4906,25 +4906,25 @@
         <v>5.2501</v>
       </c>
       <c r="B175" t="n">
-        <v>7.683550485007872e-12</v>
+        <v>6.114375201134023e-13</v>
       </c>
       <c r="C175" t="n">
-        <v>8.485170944138539e-13</v>
+        <v>6.752284620658755e-14</v>
       </c>
       <c r="D175" t="n">
-        <v>2.945513074036746e-12</v>
+        <v>2.343964827722217e-13</v>
       </c>
       <c r="E175" t="n">
-        <v>4.69625054926831e-12</v>
+        <v>3.737157444999253e-13</v>
       </c>
       <c r="F175" t="n">
-        <v>1.359182513825595</v>
+        <v>1.359182515917117</v>
       </c>
       <c r="G175" t="n">
-        <v>0.9287256529107987</v>
+        <v>0.9287256526874285</v>
       </c>
       <c r="H175" t="n">
-        <v>0.2718365027651189</v>
+        <v>0.2718365031834233</v>
       </c>
     </row>
     <row r="176">
@@ -4932,25 +4932,25 @@
         <v>5.2599</v>
       </c>
       <c r="B176" t="n">
-        <v>6.317426256383304e-12</v>
+        <v>5.027248083532521e-13</v>
       </c>
       <c r="C176" t="n">
-        <v>4.493611272557327e-12</v>
+        <v>3.575902224844052e-13</v>
       </c>
       <c r="D176" t="n">
-        <v>2.391015248543502e-12</v>
+        <v>1.902709479622185e-13</v>
       </c>
       <c r="E176" t="n">
-        <v>5.207537676613568e-12</v>
+        <v>4.144026812341998e-13</v>
       </c>
       <c r="F176" t="n">
-        <v>1.306221216787991</v>
+        <v>1.306221227694118</v>
       </c>
       <c r="G176" t="n">
-        <v>0.9342902201396299</v>
+        <v>0.9342902190128421</v>
       </c>
       <c r="H176" t="n">
-        <v>0.2612442433575983</v>
+        <v>0.2612442455388236</v>
       </c>
     </row>
     <row r="177">
@@ -4958,25 +4958,25 @@
         <v>5.265</v>
       </c>
       <c r="B177" t="n">
-        <v>1.656034591961125e-11</v>
+        <v>1.317830455740178e-12</v>
       </c>
       <c r="C177" t="n">
-        <v>-8.036000455401928e-12</v>
+        <v>-6.394845956193632e-13</v>
       </c>
       <c r="D177" t="n">
-        <v>7.16149713884204e-12</v>
+        <v>5.698938336514274e-13</v>
       </c>
       <c r="E177" t="n">
-        <v>9.841603655934985e-12</v>
+        <v>7.831699337952553e-13</v>
       </c>
       <c r="F177" t="n">
-        <v>0.8374254947169286</v>
+        <v>0.8374255013536991</v>
       </c>
       <c r="G177" t="n">
-        <v>0.9745850657244729</v>
+        <v>0.9745850652795136</v>
       </c>
       <c r="H177" t="n">
-        <v>0.1674850989433857</v>
+        <v>0.1674851002707398</v>
       </c>
     </row>
     <row r="178">
@@ -4984,25 +4984,25 @@
         <v>5.27</v>
       </c>
       <c r="B178" t="n">
-        <v>1.349613853579524e-11</v>
+        <v>1.073988581024113e-12</v>
       </c>
       <c r="C178" t="n">
-        <v>-1.168206828950106e-12</v>
+        <v>-9.296294344387564e-14</v>
       </c>
       <c r="D178" t="n">
-        <v>5.921481285257595e-12</v>
+        <v>4.712165085581133e-13</v>
       </c>
       <c r="E178" t="n">
-        <v>1.183777594855475e-11</v>
+        <v>9.420202779425393e-13</v>
       </c>
       <c r="F178" t="n">
-        <v>1.305127033556355</v>
+        <v>1.305127035001733</v>
       </c>
       <c r="G178" t="n">
-        <v>0.8605050557422789</v>
+        <v>0.8605050554967121</v>
       </c>
       <c r="H178" t="n">
-        <v>0.3262817583890886</v>
+        <v>0.3262817587504332</v>
       </c>
     </row>
     <row r="179">
@@ -5010,25 +5010,25 @@
         <v>5.275</v>
       </c>
       <c r="B179" t="n">
-        <v>7.201602723653963e-12</v>
+        <v>5.730853355555007e-13</v>
       </c>
       <c r="C179" t="n">
-        <v>-4.877582560320948e-14</v>
+        <v>-3.8814568880165e-15</v>
       </c>
       <c r="D179" t="n">
-        <v>2.053345688186428e-12</v>
+        <v>1.634000580754949e-13</v>
       </c>
       <c r="E179" t="n">
-        <v>3.455519072815281e-12</v>
+        <v>2.74981470642497e-13</v>
       </c>
       <c r="F179" t="n">
-        <v>3.337897034734149</v>
+        <v>3.337897019911847</v>
       </c>
       <c r="G179" t="n">
-        <v>0.9854648146322393</v>
+        <v>0.9854648148996674</v>
       </c>
       <c r="H179" t="n">
-        <v>0.3034451849758317</v>
+        <v>0.3034451836283497</v>
       </c>
     </row>
     <row r="180">
@@ -5036,25 +5036,25 @@
         <v>5.2798</v>
       </c>
       <c r="B180" t="n">
-        <v>6.842603723844096e-12</v>
+        <v>5.44517102626174e-13</v>
       </c>
       <c r="C180" t="n">
-        <v>1.12502679649829e-11</v>
+        <v>8.95267877774777e-13</v>
       </c>
       <c r="D180" t="n">
-        <v>3.839126902777056e-12</v>
+        <v>3.055080120492845e-13</v>
       </c>
       <c r="E180" t="n">
-        <v>1.725702168332606e-11</v>
+        <v>1.373270153261936e-12</v>
       </c>
       <c r="F180" t="n">
-        <v>3.438654449564515</v>
+        <v>3.438654438377923</v>
       </c>
       <c r="G180" t="n">
-        <v>0.4872671620733855</v>
+        <v>0.487267163796571</v>
       </c>
       <c r="H180" t="n">
-        <v>0.8596636123911287</v>
+        <v>0.8596636095944807</v>
       </c>
     </row>
     <row r="181">
@@ -5062,25 +5062,25 @@
         <v>5.285</v>
       </c>
       <c r="B181" t="n">
-        <v>2.665690802126087e-12</v>
+        <v>4.071942127051082e-13</v>
       </c>
       <c r="C181" t="n">
-        <v>6.024787279648807e-12</v>
+        <v>1.120805072174707e-13</v>
       </c>
       <c r="D181" t="n">
-        <v>1.326156651035751e-12</v>
+        <v>3.511603086826747e-13</v>
       </c>
       <c r="E181" t="n">
-        <v>3.312363717086831e-12</v>
+        <v>6.836142367727815e-13</v>
       </c>
       <c r="F181" t="n">
-        <v>2.471319044280658</v>
+        <v>2.132117368464137</v>
       </c>
       <c r="G181" t="n">
-        <v>0.6497788209903057</v>
+        <v>0.5454425770869762</v>
       </c>
       <c r="H181" t="n">
-        <v>0.6178297610701645</v>
+        <v>0.7107057894880455</v>
       </c>
     </row>
     <row r="182">
@@ -5088,25 +5088,25 @@
         <v>5.2902</v>
       </c>
       <c r="B182" t="n">
-        <v>1.942405345210031e-12</v>
+        <v>1.190388907433204e-12</v>
       </c>
       <c r="C182" t="n">
-        <v>9.542938118237851e-12</v>
+        <v>-4.345251193921636e-13</v>
       </c>
       <c r="D182" t="n">
-        <v>8.846326924400835e-13</v>
+        <v>5.583364163864672e-13</v>
       </c>
       <c r="E182" t="n">
-        <v>5.74035944068491e-12</v>
+        <v>7.85021215135063e-13</v>
       </c>
       <c r="F182" t="n">
-        <v>3.791121202168339</v>
+        <v>0.2938141826573837</v>
       </c>
       <c r="G182" t="n">
-        <v>0.5798640550975177</v>
+        <v>0.9902099794200079</v>
       </c>
       <c r="H182" t="n">
-        <v>0.7582242404336678</v>
+        <v>0.07345354566434592</v>
       </c>
     </row>
     <row r="183">
@@ -5114,25 +5114,25 @@
         <v>5.2929</v>
       </c>
       <c r="B183" t="n">
-        <v>3.986927526369596e-12</v>
+        <v>3.172696119658838e-13</v>
       </c>
       <c r="C183" t="n">
-        <v>-1.712108723617249e-13</v>
+        <v>-1.362452833174185e-14</v>
       </c>
       <c r="D183" t="n">
-        <v>1.680072000593274e-12</v>
+        <v>1.33695881929289e-13</v>
       </c>
       <c r="E183" t="n">
-        <v>2.679611920962561e-12</v>
+        <v>2.132367414086209e-13</v>
       </c>
       <c r="F183" t="n">
-        <v>2.546312392719205</v>
+        <v>2.546312387635236</v>
       </c>
       <c r="G183" t="n">
-        <v>0.7695047515565727</v>
+        <v>0.7695047523255872</v>
       </c>
       <c r="H183" t="n">
-        <v>0.5092624785438409</v>
+        <v>0.5092624775270471</v>
       </c>
     </row>
     <row r="184">
@@ -5140,25 +5140,25 @@
         <v>5.2977</v>
       </c>
       <c r="B184" t="n">
-        <v>4.605350260245983e-12</v>
+        <v>3.835766939465106e-13</v>
       </c>
       <c r="C184" t="n">
-        <v>-3.579140134783194e-12</v>
+        <v>-3.409043197653679e-13</v>
       </c>
       <c r="D184" t="n">
-        <v>2.281053562593737e-12</v>
+        <v>1.954649116793443e-13</v>
       </c>
       <c r="E184" t="n">
-        <v>2.609435618319116e-12</v>
+        <v>3.157617404498881e-13</v>
       </c>
       <c r="F184" t="n">
-        <v>2.312778040379496</v>
+        <v>2.257188815581821</v>
       </c>
       <c r="G184" t="n">
-        <v>0.8043883096222957</v>
+        <v>0.688573957455306</v>
       </c>
       <c r="H184" t="n">
-        <v>0.4625556080758993</v>
+        <v>0.5642972038954552</v>
       </c>
     </row>
     <row r="185">
@@ -5166,25 +5166,25 @@
         <v>5.2997</v>
       </c>
       <c r="B185" t="n">
-        <v>1.218519826191118e-11</v>
+        <v>9.696672675562694e-13</v>
       </c>
       <c r="C185" t="n">
-        <v>1.33195580830761e-11</v>
+        <v>1.059936754822263e-12</v>
       </c>
       <c r="D185" t="n">
-        <v>5.454249588361079e-12</v>
+        <v>4.340353902176349e-13</v>
       </c>
       <c r="E185" t="n">
-        <v>1.121389468841748e-11</v>
+        <v>8.923733828583862e-13</v>
       </c>
       <c r="F185" t="n">
-        <v>0.6280695551148827</v>
+        <v>0.6280695542499944</v>
       </c>
       <c r="G185" t="n">
-        <v>0.8899774866786602</v>
+        <v>0.8899774868784118</v>
       </c>
       <c r="H185" t="n">
-        <v>0.2093565183716276</v>
+        <v>0.2093565180833315</v>
       </c>
     </row>
     <row r="186">
@@ -5192,25 +5192,25 @@
         <v>5.3024</v>
       </c>
       <c r="B186" t="n">
-        <v>7.901806151993431e-12</v>
+        <v>6.288057535187173e-13</v>
       </c>
       <c r="C186" t="n">
-        <v>9.917236489182007e-12</v>
+        <v>7.891886023456273e-13</v>
       </c>
       <c r="D186" t="n">
-        <v>3.019927324882868e-12</v>
+        <v>2.403181803918095e-13</v>
       </c>
       <c r="E186" t="n">
-        <v>6.08827559054909e-12</v>
+        <v>4.844895768518663e-13</v>
       </c>
       <c r="F186" t="n">
-        <v>0.2917966459238739</v>
+        <v>0.2917966496037429</v>
       </c>
       <c r="G186" t="n">
-        <v>0.9903375523239341</v>
+        <v>0.9903375520919331</v>
       </c>
       <c r="H186" t="n">
-        <v>0.07294916148096849</v>
+        <v>0.07294916240093573</v>
       </c>
     </row>
     <row r="187">
@@ -5218,25 +5218,25 @@
         <v>5.3082</v>
       </c>
       <c r="B187" t="n">
-        <v>1.010733697902419e-11</v>
+        <v>8.043163209897012e-13</v>
       </c>
       <c r="C187" t="n">
-        <v>4.462727528756473e-12</v>
+        <v>3.551325738846308e-13</v>
       </c>
       <c r="D187" t="n">
-        <v>3.846546232792414e-12</v>
+        <v>3.060984232280043e-13</v>
       </c>
       <c r="E187" t="n">
-        <v>7.524643346508455e-12</v>
+        <v>5.987920923373227e-13</v>
       </c>
       <c r="F187" t="n">
-        <v>0.5607091712237633</v>
+        <v>0.5607091646494055</v>
       </c>
       <c r="G187" t="n">
-        <v>0.9673281176525219</v>
+        <v>0.9673281183487868</v>
       </c>
       <c r="H187" t="n">
-        <v>0.1401772928059408</v>
+        <v>0.1401772911623514</v>
       </c>
     </row>
     <row r="188">
@@ -5244,25 +5244,25 @@
         <v>5.3129</v>
       </c>
       <c r="B188" t="n">
-        <v>8.939255163633814e-12</v>
+        <v>7.113633244609855e-13</v>
       </c>
       <c r="C188" t="n">
-        <v>8.406495502279638e-12</v>
+        <v>6.689676584500368e-13</v>
       </c>
       <c r="D188" t="n">
-        <v>3.069973516072057e-12</v>
+        <v>2.443007304143147e-13</v>
       </c>
       <c r="E188" t="n">
-        <v>6.130813375452863e-12</v>
+        <v>4.8787462754275e-13</v>
       </c>
       <c r="F188" t="n">
-        <v>0.2249472633551132</v>
+        <v>0.2249472637840536</v>
       </c>
       <c r="G188" t="n">
-        <v>0.9988216198733301</v>
+        <v>0.9988216198678918</v>
       </c>
       <c r="H188" t="n">
-        <v>0.04498945267102263</v>
+        <v>0.04498945275681072</v>
       </c>
     </row>
     <row r="189">
@@ -5270,25 +5270,25 @@
         <v>5.3175</v>
       </c>
       <c r="B189" t="n">
-        <v>9.466543029738053e-12</v>
+        <v>7.533235571678822e-13</v>
       </c>
       <c r="C189" t="n">
-        <v>-3.546382943713819e-12</v>
+        <v>-2.822121857864902e-13</v>
       </c>
       <c r="D189" t="n">
-        <v>3.782891386064026e-12</v>
+        <v>3.010329317597741e-13</v>
       </c>
       <c r="E189" t="n">
-        <v>5.59741642900281e-12</v>
+        <v>4.45428246846412e-13</v>
       </c>
       <c r="F189" t="n">
-        <v>1.578432562326219</v>
+        <v>1.578432543382342</v>
       </c>
       <c r="G189" t="n">
-        <v>0.9038451048833003</v>
+        <v>0.9038451071523523</v>
       </c>
       <c r="H189" t="n">
-        <v>0.3156865124652438</v>
+        <v>0.3156865086764683</v>
       </c>
     </row>
     <row r="190">
@@ -5296,25 +5296,25 @@
         <v>5.3228</v>
       </c>
       <c r="B190" t="n">
-        <v>1.344907362191161e-11</v>
+        <v>1.070243273465671e-12</v>
       </c>
       <c r="C190" t="n">
-        <v>9.133518391919053e-12</v>
+        <v>7.268223035580999e-13</v>
       </c>
       <c r="D190" t="n">
-        <v>4.797041947911092e-12</v>
+        <v>3.817364691839538e-13</v>
       </c>
       <c r="E190" t="n">
-        <v>9.170067760832673e-12</v>
+        <v>7.2973080588924e-13</v>
       </c>
       <c r="F190" t="n">
-        <v>0.8023015413224743</v>
+        <v>0.8023015389661502</v>
       </c>
       <c r="G190" t="n">
-        <v>0.9768863119660384</v>
+        <v>0.9768863121168075</v>
       </c>
       <c r="H190" t="n">
-        <v>0.1604603082644949</v>
+        <v>0.16046030779323</v>
       </c>
     </row>
     <row r="191">
@@ -5322,25 +5322,25 @@
         <v>5.3277</v>
       </c>
       <c r="B191" t="n">
-        <v>1.201276688964119e-11</v>
+        <v>9.559456136404786e-13</v>
       </c>
       <c r="C191" t="n">
-        <v>-1.788389692498862e-12</v>
+        <v>-1.423155284101518e-13</v>
       </c>
       <c r="D191" t="n">
-        <v>4.651333981708659e-12</v>
+        <v>3.701413975404656e-13</v>
       </c>
       <c r="E191" t="n">
-        <v>6.330515729380842e-12</v>
+        <v>5.037664352602202e-13</v>
       </c>
       <c r="F191" t="n">
-        <v>0.8861376673804021</v>
+        <v>0.8861376585855274</v>
       </c>
       <c r="G191" t="n">
-        <v>0.9712170974440417</v>
+        <v>0.9712170980704362</v>
       </c>
       <c r="H191" t="n">
-        <v>0.1772275334760804</v>
+        <v>0.1772275317171055</v>
       </c>
     </row>
     <row r="192">
@@ -5348,25 +5348,25 @@
         <v>5.3329</v>
       </c>
       <c r="B192" t="n">
-        <v>7.010723038187472e-12</v>
+        <v>8.946217558720164e-13</v>
       </c>
       <c r="C192" t="n">
-        <v>1.301439060761313e-11</v>
+        <v>4.571929640272352e-13</v>
       </c>
       <c r="D192" t="n">
-        <v>2.02871602213433e-12</v>
+        <v>2.748426870717805e-13</v>
       </c>
       <c r="E192" t="n">
-        <v>4.053817207493788e-12</v>
+        <v>5.000760853637243e-13</v>
       </c>
       <c r="F192" t="n">
-        <v>3.313970794010056</v>
+        <v>0.891673684819569</v>
       </c>
       <c r="G192" t="n">
-        <v>0.9928921125762257</v>
+        <v>0.9998985568476086</v>
       </c>
       <c r="H192" t="n">
-        <v>0.2761642328341714</v>
+        <v>0.0891673684819569</v>
       </c>
     </row>
     <row r="193">
@@ -5374,25 +5374,25 @@
         <v>5.3375</v>
       </c>
       <c r="B193" t="n">
-        <v>3.648376674124868e-12</v>
+        <v>8.066263634310933e-13</v>
       </c>
       <c r="C193" t="n">
-        <v>5.797829103745566e-12</v>
+        <v>-2.098249761089029e-13</v>
       </c>
       <c r="D193" t="n">
-        <v>1.527949752789661e-12</v>
+        <v>3.775394751574054e-13</v>
       </c>
       <c r="E193" t="n">
-        <v>3.004064650895198e-12</v>
+        <v>5.225491447079482e-13</v>
       </c>
       <c r="F193" t="n">
-        <v>2.457793956568865</v>
+        <v>0.3712220577510587</v>
       </c>
       <c r="G193" t="n">
-        <v>0.7828375352245086</v>
+        <v>0.9847645016632091</v>
       </c>
       <c r="H193" t="n">
-        <v>0.4915587913137729</v>
+        <v>0.09280551443776468</v>
       </c>
     </row>
     <row r="194">
@@ -5400,25 +5400,25 @@
         <v>5.3427</v>
       </c>
       <c r="B194" t="n">
-        <v>1.342921610024606e-11</v>
+        <v>1.068663061821624e-12</v>
       </c>
       <c r="C194" t="n">
-        <v>8.822884745808987e-13</v>
+        <v>7.021028347399455e-14</v>
       </c>
       <c r="D194" t="n">
-        <v>4.965427031555231e-12</v>
+        <v>3.951361295485888e-13</v>
       </c>
       <c r="E194" t="n">
-        <v>7.397650616241117e-12</v>
+        <v>5.886863329757455e-13</v>
       </c>
       <c r="F194" t="n">
-        <v>1.779500167771604</v>
+        <v>1.779500150289818</v>
       </c>
       <c r="G194" t="n">
-        <v>0.8787357854229311</v>
+        <v>0.8787357876897045</v>
       </c>
       <c r="H194" t="n">
-        <v>0.3559000335543208</v>
+        <v>0.3559000300579636</v>
       </c>
     </row>
     <row r="195">
@@ -5426,25 +5426,25 @@
         <v>5.3429</v>
       </c>
       <c r="B195" t="n">
-        <v>1.025827130881913e-11</v>
+        <v>8.163272919130543e-13</v>
       </c>
       <c r="C195" t="n">
-        <v>5.488352965590347e-12</v>
+        <v>4.367492491017905e-13</v>
       </c>
       <c r="D195" t="n">
-        <v>3.839177835658377e-12</v>
+        <v>3.055120653562871e-13</v>
       </c>
       <c r="E195" t="n">
-        <v>6.663324789819226e-12</v>
+        <v>5.30250539702966e-13</v>
       </c>
       <c r="F195" t="n">
-        <v>2.93854802778399</v>
+        <v>2.938548011144284</v>
       </c>
       <c r="G195" t="n">
-        <v>0.7094595171318405</v>
+        <v>0.7094595196965373</v>
       </c>
       <c r="H195" t="n">
-        <v>0.5877096055567981</v>
+        <v>0.5877096022288567</v>
       </c>
     </row>
     <row r="196">
@@ -5452,25 +5452,25 @@
         <v>5.3469</v>
       </c>
       <c r="B196" t="n">
-        <v>1.330556789764361e-11</v>
+        <v>1.058823450564645e-12</v>
       </c>
       <c r="C196" t="n">
-        <v>9.499893087145385e-12</v>
+        <v>7.559774707193333e-13</v>
       </c>
       <c r="D196" t="n">
-        <v>4.041767495684343e-12</v>
+        <v>3.216336377424474e-13</v>
       </c>
       <c r="E196" t="n">
-        <v>7.023694588059165e-12</v>
+        <v>5.589278556717168e-13</v>
       </c>
       <c r="F196" t="n">
-        <v>1.618630666530792</v>
+        <v>1.618630663506128</v>
       </c>
       <c r="G196" t="n">
-        <v>0.8989872118010952</v>
+        <v>0.8989872121698235</v>
       </c>
       <c r="H196" t="n">
-        <v>0.3237261333061583</v>
+        <v>0.3237261327012256</v>
       </c>
     </row>
     <row r="197">
@@ -5478,25 +5478,25 @@
         <v>5.3483</v>
       </c>
       <c r="B197" t="n">
-        <v>1.457061582237551e-11</v>
+        <v>1.159492766275023e-12</v>
       </c>
       <c r="C197" t="n">
-        <v>3.529330379206419e-12</v>
+        <v>2.808551913339233e-13</v>
       </c>
       <c r="D197" t="n">
-        <v>4.906379664189395e-12</v>
+        <v>3.904372882411017e-13</v>
       </c>
       <c r="E197" t="n">
-        <v>8.255220397786766e-12</v>
+        <v>6.569295654361953e-13</v>
       </c>
       <c r="F197" t="n">
-        <v>2.756179539362034</v>
+        <v>2.756179563252245</v>
       </c>
       <c r="G197" t="n">
-        <v>0.599420321233685</v>
+        <v>0.5994203170844244</v>
       </c>
       <c r="H197" t="n">
-        <v>0.6890448848405084</v>
+        <v>0.6890448908130612</v>
       </c>
     </row>
     <row r="198">
@@ -5504,25 +5504,25 @@
         <v>5.3486</v>
       </c>
       <c r="B198" t="n">
-        <v>1.355490816273447e-11</v>
+        <v>1.078665319880647e-12</v>
       </c>
       <c r="C198" t="n">
-        <v>-7.378646613785242e-13</v>
+        <v>-5.871740437999161e-14</v>
       </c>
       <c r="D198" t="n">
-        <v>3.216280491454216e-12</v>
+        <v>2.55943469355386e-13</v>
       </c>
       <c r="E198" t="n">
-        <v>4.590554321089822e-12</v>
+        <v>3.653047060585096e-13</v>
       </c>
       <c r="F198" t="n">
-        <v>2.580631532572752</v>
+        <v>2.580631551201268</v>
       </c>
       <c r="G198" t="n">
-        <v>0.7643058392866775</v>
+        <v>0.7643058364606328</v>
       </c>
       <c r="H198" t="n">
-        <v>0.5161263065145505</v>
+        <v>0.5161263102402536</v>
       </c>
     </row>
     <row r="199">
@@ -5530,25 +5530,25 @@
         <v>5.3521</v>
       </c>
       <c r="B199" t="n">
-        <v>8.149930981066853e-12</v>
+        <v>6.48550901186079e-13</v>
       </c>
       <c r="C199" t="n">
-        <v>6.802602368599463e-13</v>
+        <v>5.413339102191314e-14</v>
       </c>
       <c r="D199" t="n">
-        <v>3.668871796197896e-12</v>
+        <v>2.919595409735101e-13</v>
       </c>
       <c r="E199" t="n">
-        <v>9.461286970435691e-12</v>
+        <v>7.529052944903463e-13</v>
       </c>
       <c r="F199" t="n">
-        <v>1.897735515530214</v>
+        <v>1.897735525796646</v>
       </c>
       <c r="G199" t="n">
-        <v>0.754560973537887</v>
+        <v>0.7545609716520366</v>
       </c>
       <c r="H199" t="n">
-        <v>0.4744338788825535</v>
+        <v>0.4744338814491615</v>
       </c>
     </row>
     <row r="200">
@@ -5556,25 +5556,25 @@
         <v>5.3536</v>
       </c>
       <c r="B200" t="n">
-        <v>1.668493010438206e-11</v>
+        <v>1.327744551274339e-12</v>
       </c>
       <c r="C200" t="n">
-        <v>4.316368698728444e-12</v>
+        <v>3.434857045768543e-13</v>
       </c>
       <c r="D200" t="n">
-        <v>3.711323583448605e-12</v>
+        <v>2.953377468441206e-13</v>
       </c>
       <c r="E200" t="n">
-        <v>5.556956543731466e-12</v>
+        <v>4.422085512183903e-13</v>
       </c>
       <c r="F200" t="n">
-        <v>1.920256179925655</v>
+        <v>1.920256149860977</v>
       </c>
       <c r="G200" t="n">
-        <v>0.8600654547940354</v>
+        <v>0.8600654588669546</v>
       </c>
       <c r="H200" t="n">
-        <v>0.384051235985131</v>
+        <v>0.3840512299721954</v>
       </c>
     </row>
     <row r="201">
@@ -5582,25 +5582,25 @@
         <v>5.3579</v>
       </c>
       <c r="B201" t="n">
-        <v>1.119577033918859e-11</v>
+        <v>8.909310952086963e-13</v>
       </c>
       <c r="C201" t="n">
-        <v>-4.577951469952022e-12</v>
+        <v>-3.64301802747416e-13</v>
       </c>
       <c r="D201" t="n">
-        <v>4.502274198305061e-12</v>
+        <v>3.582795975220037e-13</v>
       </c>
       <c r="E201" t="n">
-        <v>6.395292022011139e-12</v>
+        <v>5.089211696660495e-13</v>
       </c>
       <c r="F201" t="n">
-        <v>0.5365704470976606</v>
+        <v>0.5365704476039862</v>
       </c>
       <c r="G201" t="n">
-        <v>0.9907229590150469</v>
+        <v>0.99072295899481</v>
       </c>
       <c r="H201" t="n">
-        <v>0.1073140894195321</v>
+        <v>0.1073140895207972</v>
       </c>
     </row>
     <row r="202">
@@ -5608,25 +5608,25 @@
         <v>5.3598</v>
       </c>
       <c r="B202" t="n">
-        <v>5.234192316569583e-12</v>
+        <v>4.165237900848013e-13</v>
       </c>
       <c r="C202" t="n">
-        <v>2.302405467587397e-12</v>
+        <v>1.832196058155476e-13</v>
       </c>
       <c r="D202" t="n">
-        <v>1.952280156099553e-12</v>
+        <v>1.553575184424615e-13</v>
       </c>
       <c r="E202" t="n">
-        <v>3.421278737591657e-12</v>
+        <v>2.722567112546317e-13</v>
       </c>
       <c r="F202" t="n">
-        <v>1.201710660949298</v>
+        <v>1.20171065781782</v>
       </c>
       <c r="G202" t="n">
-        <v>0.9447131448913547</v>
+        <v>0.9447131451921631</v>
       </c>
       <c r="H202" t="n">
-        <v>0.2403421321898595</v>
+        <v>0.2403421315635639</v>
       </c>
     </row>
     <row r="203">
@@ -5634,25 +5634,25 @@
         <v>5.3619</v>
       </c>
       <c r="B203" t="n">
-        <v>5.500399975972207e-12</v>
+        <v>4.377079227811297e-13</v>
       </c>
       <c r="C203" t="n">
-        <v>9.194057375029004e-13</v>
+        <v>7.316398345947385e-14</v>
       </c>
       <c r="D203" t="n">
-        <v>2.430496260430622e-12</v>
+        <v>1.934127473302655e-13</v>
       </c>
       <c r="E203" t="n">
-        <v>4.58667404145875e-12</v>
+        <v>3.649959234693725e-13</v>
       </c>
       <c r="F203" t="n">
-        <v>1.944996703092302</v>
+        <v>1.944996699891972</v>
       </c>
       <c r="G203" t="n">
-        <v>0.7458748803715316</v>
+        <v>0.7458748809599727</v>
       </c>
       <c r="H203" t="n">
-        <v>0.4862491757730755</v>
+        <v>0.486249174972993</v>
       </c>
     </row>
     <row r="204">
@@ -5660,25 +5660,25 @@
         <v>5.3639</v>
       </c>
       <c r="B204" t="n">
-        <v>1.033817443088543e-11</v>
+        <v>8.22685781801773e-13</v>
       </c>
       <c r="C204" t="n">
-        <v>-6.997089553930872e-12</v>
+        <v>-5.568106956718777e-13</v>
       </c>
       <c r="D204" t="n">
-        <v>4.381893924418233e-12</v>
+        <v>3.487000394171708e-13</v>
       </c>
       <c r="E204" t="n">
-        <v>5.403261051659334e-12</v>
+        <v>4.299778528253719e-13</v>
       </c>
       <c r="F204" t="n">
-        <v>2.510777636322386</v>
+        <v>2.510777624529105</v>
       </c>
       <c r="G204" t="n">
-        <v>0.7748710701436939</v>
+        <v>0.7748710719216761</v>
       </c>
       <c r="H204" t="n">
-        <v>0.5021555272644772</v>
+        <v>0.5021555249058209</v>
       </c>
     </row>
     <row r="205">
@@ -5686,25 +5686,25 @@
         <v>5.366</v>
       </c>
       <c r="B205" t="n">
-        <v>4.04706650332299e-12</v>
+        <v>3.220553198285461e-13</v>
       </c>
       <c r="C205" t="n">
-        <v>3.029625618087294e-12</v>
+        <v>2.410899456193944e-13</v>
       </c>
       <c r="D205" t="n">
-        <v>1.53922236006876e-12</v>
+        <v>1.224874237555904e-13</v>
       </c>
       <c r="E205" t="n">
-        <v>2.726878291234174e-12</v>
+        <v>2.169980798438262e-13</v>
       </c>
       <c r="F205" t="n">
-        <v>1.574872616038556</v>
+        <v>1.57487261163283</v>
       </c>
       <c r="G205" t="n">
-        <v>0.9042711645444983</v>
+        <v>0.9042711650713583</v>
       </c>
       <c r="H205" t="n">
-        <v>0.3149745232077111</v>
+        <v>0.314974522326566</v>
       </c>
     </row>
     <row r="206">
@@ -5712,25 +5712,25 @@
         <v>5.368</v>
       </c>
       <c r="B206" t="n">
-        <v>9.142869568982435e-12</v>
+        <v>7.275664429277413e-13</v>
       </c>
       <c r="C206" t="n">
-        <v>3.969098794709204e-12</v>
+        <v>3.158508440660486e-13</v>
       </c>
       <c r="D206" t="n">
-        <v>3.221238691891948e-12</v>
+        <v>2.563380301622005e-13</v>
       </c>
       <c r="E206" t="n">
-        <v>5.923213784476205e-12</v>
+        <v>4.713543759258291e-13</v>
       </c>
       <c r="F206" t="n">
-        <v>0.9600504279502228</v>
+        <v>0.9600504290060182</v>
       </c>
       <c r="G206" t="n">
-        <v>0.9657231951335042</v>
+        <v>0.9657231950517825</v>
       </c>
       <c r="H206" t="n">
-        <v>0.1920100855900446</v>
+        <v>0.1920100858012037</v>
       </c>
     </row>
     <row r="207">
@@ -5738,25 +5738,25 @@
         <v>5.3697</v>
       </c>
       <c r="B207" t="n">
-        <v>1.190790299414478e-11</v>
+        <v>9.476008126586379e-13</v>
       </c>
       <c r="C207" t="n">
-        <v>-5.553158881799612e-12</v>
+        <v>-4.419063435534722e-13</v>
       </c>
       <c r="D207" t="n">
-        <v>4.714300842697241e-12</v>
+        <v>3.751521406124619e-13</v>
       </c>
       <c r="E207" t="n">
-        <v>5.627042673226612e-12</v>
+        <v>4.47785827895575e-13</v>
       </c>
       <c r="F207" t="n">
-        <v>1.418624346657431</v>
+        <v>1.418624347521317</v>
       </c>
       <c r="G207" t="n">
-        <v>0.8409516417510771</v>
+        <v>0.8409516416003424</v>
       </c>
       <c r="H207" t="n">
-        <v>0.3546560866643578</v>
+        <v>0.3546560868803292</v>
       </c>
     </row>
     <row r="208">
@@ -5764,25 +5764,25 @@
         <v>5.3748</v>
       </c>
       <c r="B208" t="n">
-        <v>1.950553722838181e-11</v>
+        <v>1.552201336803881e-12</v>
       </c>
       <c r="C208" t="n">
-        <v>1.19256789232676e-12</v>
+        <v>9.490153561484812e-14</v>
       </c>
       <c r="D208" t="n">
-        <v>4.003047378045108e-12</v>
+        <v>3.185523886818239e-13</v>
       </c>
       <c r="E208" t="n">
-        <v>6.024118137294089e-12</v>
+        <v>4.793840894235016e-13</v>
       </c>
       <c r="F208" t="n">
-        <v>3.569364965545837</v>
+        <v>3.56936500352115</v>
       </c>
       <c r="G208" t="n">
-        <v>0.6129187990553699</v>
+        <v>0.6129187933392826</v>
       </c>
       <c r="H208" t="n">
-        <v>0.7138729931091674</v>
+        <v>0.71387300070423</v>
       </c>
     </row>
     <row r="209">
@@ -5790,25 +5790,25 @@
         <v>5.3801</v>
       </c>
       <c r="B209" t="n">
-        <v>2.397274146422015e-11</v>
+        <v>1.907690152568403e-12</v>
       </c>
       <c r="C209" t="n">
-        <v>1.53153559448959e-11</v>
+        <v>1.218757307001863e-12</v>
       </c>
       <c r="D209" t="n">
-        <v>3.333936742291621e-12</v>
+        <v>2.65306256317535e-13</v>
       </c>
       <c r="E209" t="n">
-        <v>5.488783054740941e-12</v>
+        <v>4.367834776016017e-13</v>
       </c>
       <c r="F209" t="n">
-        <v>2.056710827463939</v>
+        <v>2.056710839420693</v>
       </c>
       <c r="G209" t="n">
-        <v>0.8412436875904308</v>
+        <v>0.8412436859133543</v>
       </c>
       <c r="H209" t="n">
-        <v>0.4113421654927879</v>
+        <v>0.4113421678841386</v>
       </c>
     </row>
     <row r="210">
@@ -5816,25 +5816,25 @@
         <v>5.3829</v>
       </c>
       <c r="B210" t="n">
-        <v>2.751133107857264e-11</v>
+        <v>2.189282167551747e-12</v>
       </c>
       <c r="C210" t="n">
-        <v>1.541609471393104e-11</v>
+        <v>1.226773835696464e-12</v>
       </c>
       <c r="D210" t="n">
-        <v>3.406156008948846e-12</v>
+        <v>2.710532831442606e-13</v>
       </c>
       <c r="E210" t="n">
-        <v>5.663796397395411e-12</v>
+        <v>4.507105970114842e-13</v>
       </c>
       <c r="F210" t="n">
-        <v>3.329595457603662</v>
+        <v>3.329595461077975</v>
       </c>
       <c r="G210" t="n">
-        <v>0.6493137690124676</v>
+        <v>0.6493137684812987</v>
       </c>
       <c r="H210" t="n">
-        <v>0.6659190915207324</v>
+        <v>0.6659190922155951</v>
       </c>
     </row>
     <row r="211">
@@ -5842,25 +5842,25 @@
         <v>5.3833</v>
       </c>
       <c r="B211" t="n">
-        <v>2.505687498894152e-11</v>
+        <v>1.993962752180148e-12</v>
       </c>
       <c r="C211" t="n">
-        <v>1.302590165992533e-11</v>
+        <v>1.036568322632909e-12</v>
       </c>
       <c r="D211" t="n">
-        <v>2.608464418731702e-12</v>
+        <v>2.075750028776857e-13</v>
       </c>
       <c r="E211" t="n">
-        <v>4.412521132120973e-12</v>
+        <v>3.511372746113322e-13</v>
       </c>
       <c r="F211" t="n">
-        <v>6.383245176133799</v>
+        <v>6.383245219597119</v>
       </c>
       <c r="G211" t="n">
-        <v>0.2706925439135845</v>
+        <v>0.270692540082075</v>
       </c>
       <c r="H211" t="n">
-        <v>1.27664903522676</v>
+        <v>1.276649043919424</v>
       </c>
     </row>
     <row r="212">
@@ -5868,25 +5868,25 @@
         <v>5.3839</v>
       </c>
       <c r="B212" t="n">
-        <v>2.94365168875189e-11</v>
+        <v>2.342483586081369e-12</v>
       </c>
       <c r="C212" t="n">
-        <v>1.237105227148564e-11</v>
+        <v>9.844570588002347e-13</v>
       </c>
       <c r="D212" t="n">
-        <v>2.857342136667855e-12</v>
+        <v>2.273800625795233e-13</v>
       </c>
       <c r="E212" t="n">
-        <v>4.627636240156209e-12</v>
+        <v>3.682555911464487e-13</v>
       </c>
       <c r="F212" t="n">
-        <v>10.4163304224273</v>
+        <v>10.41633044937738</v>
       </c>
       <c r="G212" t="n">
-        <v>0.0642624004938505</v>
+        <v>0.06426239983461056</v>
       </c>
       <c r="H212" t="n">
-        <v>2.08326608448546</v>
+        <v>2.083266089875475</v>
       </c>
     </row>
     <row r="213">
@@ -5894,25 +5894,25 @@
         <v>5.386</v>
       </c>
       <c r="B213" t="n">
-        <v>2.692579206619918e-11</v>
+        <v>2.142686454578848e-12</v>
       </c>
       <c r="C213" t="n">
-        <v>1.002569727851587e-11</v>
+        <v>7.978196429296726e-13</v>
       </c>
       <c r="D213" t="n">
-        <v>2.820324586059663e-12</v>
+        <v>2.244342994682851e-13</v>
       </c>
       <c r="E213" t="n">
-        <v>4.345485918786642e-12</v>
+        <v>3.45802782023375e-13</v>
       </c>
       <c r="F213" t="n">
-        <v>4.865117462565712</v>
+        <v>4.865117439002344</v>
       </c>
       <c r="G213" t="n">
-        <v>0.4325624034178221</v>
+        <v>0.4325624063705222</v>
       </c>
       <c r="H213" t="n">
-        <v>0.9730234925131424</v>
+        <v>0.9730234878004687</v>
       </c>
     </row>
     <row r="214">
@@ -5920,25 +5920,25 @@
         <v>5.3899</v>
       </c>
       <c r="B214" t="n">
-        <v>2.66044713576011e-11</v>
+        <v>2.117116563162031e-12</v>
       </c>
       <c r="C214" t="n">
-        <v>8.7685518971472e-12</v>
+        <v>6.977791898596139e-13</v>
       </c>
       <c r="D214" t="n">
-        <v>2.239478473352484e-12</v>
+        <v>1.782120344948605e-13</v>
       </c>
       <c r="E214" t="n">
-        <v>3.766682662250785e-12</v>
+        <v>2.997430822343132e-13</v>
       </c>
       <c r="F214" t="n">
-        <v>3.639663691448717</v>
+        <v>3.639663699538591</v>
       </c>
       <c r="G214" t="n">
-        <v>0.602367975456107</v>
+        <v>0.6023679742455659</v>
       </c>
       <c r="H214" t="n">
-        <v>0.7279327382897434</v>
+        <v>0.7279327399077181</v>
       </c>
     </row>
     <row r="215">
@@ -5946,25 +5946,25 @@
         <v>5.3931</v>
       </c>
       <c r="B215" t="n">
-        <v>2.526008562180504e-11</v>
+        <v>2.010133742904397e-12</v>
       </c>
       <c r="C215" t="n">
-        <v>6.437228993968027e-12</v>
+        <v>5.122584089845361e-13</v>
       </c>
       <c r="D215" t="n">
-        <v>2.410889893579612e-12</v>
+        <v>1.918525219712823e-13</v>
       </c>
       <c r="E215" t="n">
-        <v>3.85627698829074e-12</v>
+        <v>3.068727722729301e-13</v>
       </c>
       <c r="F215" t="n">
-        <v>6.438356136185068</v>
+        <v>6.438356144975144</v>
       </c>
       <c r="G215" t="n">
-        <v>0.2658696311623701</v>
+        <v>0.2658696303987575</v>
       </c>
       <c r="H215" t="n">
-        <v>1.287671227237014</v>
+        <v>1.287671228995029</v>
       </c>
     </row>
     <row r="216">
@@ -5972,25 +5972,25 @@
         <v>5.4034</v>
       </c>
       <c r="B216" t="n">
-        <v>1.641722521355578e-11</v>
+        <v>1.306441273039624e-12</v>
       </c>
       <c r="C216" t="n">
-        <v>-1.097482523669307e-14</v>
+        <v>-8.733519328378493e-16</v>
       </c>
       <c r="D216" t="n">
-        <v>2.042662649792896e-12</v>
+        <v>1.625499289381694e-13</v>
       </c>
       <c r="E216" t="n">
-        <v>3.372490930310697e-12</v>
+        <v>2.683743010907856e-13</v>
       </c>
       <c r="F216" t="n">
-        <v>0.9140664967015639</v>
+        <v>0.9140664825287995</v>
       </c>
       <c r="G216" t="n">
-        <v>0.9691949278215529</v>
+        <v>0.9691949288644058</v>
       </c>
       <c r="H216" t="n">
-        <v>0.1828132993403128</v>
+        <v>0.1828132965057599</v>
       </c>
     </row>
     <row r="217">
@@ -5998,25 +5998,25 @@
         <v>5.4141</v>
       </c>
       <c r="B217" t="n">
-        <v>1.693276251316156e-11</v>
+        <v>1.34746642739802e-12</v>
       </c>
       <c r="C217" t="n">
-        <v>7.192112418000296e-12</v>
+        <v>5.723301199553043e-13</v>
       </c>
       <c r="D217" t="n">
-        <v>2.208143296769802e-12</v>
+        <v>1.757184603068782e-13</v>
       </c>
       <c r="E217" t="n">
-        <v>3.755506219840815e-12</v>
+        <v>2.988536893767e-13</v>
       </c>
       <c r="F217" t="n">
-        <v>4.7094450806162</v>
+        <v>4.709445087172254</v>
       </c>
       <c r="G217" t="n">
-        <v>0.4523583126034932</v>
+        <v>0.4523583117577412</v>
       </c>
       <c r="H217" t="n">
-        <v>0.9418890161232401</v>
+        <v>0.9418890174344507</v>
       </c>
     </row>
     <row r="218">
@@ -6024,25 +6024,25 @@
         <v>5.4244</v>
       </c>
       <c r="B218" t="n">
-        <v>1.18858847892836e-11</v>
+        <v>9.45848658865136e-13</v>
       </c>
       <c r="C218" t="n">
-        <v>8.962267540698686e-13</v>
+        <v>7.131945807594297e-14</v>
       </c>
       <c r="D218" t="n">
-        <v>1.881845913731859e-12</v>
+        <v>1.497525395681055e-13</v>
       </c>
       <c r="E218" t="n">
-        <v>3.390062780539319e-12</v>
+        <v>2.697726242986922e-13</v>
       </c>
       <c r="F218" t="n">
-        <v>0.9302715778895273</v>
+        <v>0.9302715756854083</v>
       </c>
       <c r="G218" t="n">
-        <v>0.9679915361153465</v>
+        <v>0.967991536280517</v>
       </c>
       <c r="H218" t="n">
-        <v>0.1860543155779055</v>
+        <v>0.1860543151370816</v>
       </c>
     </row>
     <row r="219">
@@ -6050,25 +6050,25 @@
         <v>5.4354</v>
       </c>
       <c r="B219" t="n">
-        <v>1.317972070240959e-11</v>
+        <v>1.048808848078799e-12</v>
       </c>
       <c r="C219" t="n">
-        <v>7.568122186955442e-12</v>
+        <v>6.022520250944418e-13</v>
       </c>
       <c r="D219" t="n">
-        <v>1.805437550768143e-12</v>
+        <v>1.436721552590314e-13</v>
       </c>
       <c r="E219" t="n">
-        <v>2.90151363619371e-12</v>
+        <v>2.308951187816043e-13</v>
       </c>
       <c r="F219" t="n">
-        <v>4.955269940435307</v>
+        <v>4.955269915044147</v>
       </c>
       <c r="G219" t="n">
-        <v>0.4213634918447124</v>
+        <v>0.4213634949711451</v>
       </c>
       <c r="H219" t="n">
-        <v>0.9910539880870614</v>
+        <v>0.9910539830088295</v>
       </c>
     </row>
     <row r="220">
@@ -6076,25 +6076,25 @@
         <v>5.4393</v>
       </c>
       <c r="B220" t="n">
-        <v>1.713375744340066e-11</v>
+        <v>1.363461093956495e-12</v>
       </c>
       <c r="C220" t="n">
-        <v>2.644092302856094e-12</v>
+        <v>2.104101844622295e-13</v>
       </c>
       <c r="D220" t="n">
-        <v>2.369927888709394e-12</v>
+        <v>1.885928690303096e-13</v>
       </c>
       <c r="E220" t="n">
-        <v>3.740238891465166e-12</v>
+        <v>2.976387538267903e-13</v>
       </c>
       <c r="F220" t="n">
-        <v>4.733394017092123</v>
+        <v>4.733394003656811</v>
       </c>
       <c r="G220" t="n">
-        <v>0.4492755480828261</v>
+        <v>0.449275549808474</v>
       </c>
       <c r="H220" t="n">
-        <v>0.9466788034184246</v>
+        <v>0.9466788007313621</v>
       </c>
     </row>
   </sheetData>
